--- a/Doc/BOM.xlsx
+++ b/Doc/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="SMT" sheetId="1" state="visible" r:id="rId2"/>
@@ -519,19 +519,19 @@
     <t xml:space="preserve">D41</t>
   </si>
   <si>
+    <t xml:space="preserve">yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APT2012YC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604-APT2012YC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D42</t>
+  </si>
+  <si>
     <t xml:space="preserve">green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APT2012YC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">604-APT2012YC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellow</t>
   </si>
   <si>
     <t xml:space="preserve">APT2012SGC</t>
@@ -1028,7 +1028,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1085,18 +1085,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1114,25 +1102,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U54"/>
+  <dimension ref="1:54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.8825910931174"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.21457489878543"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1183,6 +1171,1019 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
+      <c r="AM2" s="0"/>
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0"/>
+      <c r="AP2" s="0"/>
+      <c r="AQ2" s="0"/>
+      <c r="AR2" s="0"/>
+      <c r="AS2" s="0"/>
+      <c r="AT2" s="0"/>
+      <c r="AU2" s="0"/>
+      <c r="AV2" s="0"/>
+      <c r="AW2" s="0"/>
+      <c r="AX2" s="0"/>
+      <c r="AY2" s="0"/>
+      <c r="AZ2" s="0"/>
+      <c r="BA2" s="0"/>
+      <c r="BB2" s="0"/>
+      <c r="BC2" s="0"/>
+      <c r="BD2" s="0"/>
+      <c r="BE2" s="0"/>
+      <c r="BF2" s="0"/>
+      <c r="BG2" s="0"/>
+      <c r="BH2" s="0"/>
+      <c r="BI2" s="0"/>
+      <c r="BJ2" s="0"/>
+      <c r="BK2" s="0"/>
+      <c r="BL2" s="0"/>
+      <c r="BM2" s="0"/>
+      <c r="BN2" s="0"/>
+      <c r="BO2" s="0"/>
+      <c r="BP2" s="0"/>
+      <c r="BQ2" s="0"/>
+      <c r="BR2" s="0"/>
+      <c r="BS2" s="0"/>
+      <c r="BT2" s="0"/>
+      <c r="BU2" s="0"/>
+      <c r="BV2" s="0"/>
+      <c r="BW2" s="0"/>
+      <c r="BX2" s="0"/>
+      <c r="BY2" s="0"/>
+      <c r="BZ2" s="0"/>
+      <c r="CA2" s="0"/>
+      <c r="CB2" s="0"/>
+      <c r="CC2" s="0"/>
+      <c r="CD2" s="0"/>
+      <c r="CE2" s="0"/>
+      <c r="CF2" s="0"/>
+      <c r="CG2" s="0"/>
+      <c r="CH2" s="0"/>
+      <c r="CI2" s="0"/>
+      <c r="CJ2" s="0"/>
+      <c r="CK2" s="0"/>
+      <c r="CL2" s="0"/>
+      <c r="CM2" s="0"/>
+      <c r="CN2" s="0"/>
+      <c r="CO2" s="0"/>
+      <c r="CP2" s="0"/>
+      <c r="CQ2" s="0"/>
+      <c r="CR2" s="0"/>
+      <c r="CS2" s="0"/>
+      <c r="CT2" s="0"/>
+      <c r="CU2" s="0"/>
+      <c r="CV2" s="0"/>
+      <c r="CW2" s="0"/>
+      <c r="CX2" s="0"/>
+      <c r="CY2" s="0"/>
+      <c r="CZ2" s="0"/>
+      <c r="DA2" s="0"/>
+      <c r="DB2" s="0"/>
+      <c r="DC2" s="0"/>
+      <c r="DD2" s="0"/>
+      <c r="DE2" s="0"/>
+      <c r="DF2" s="0"/>
+      <c r="DG2" s="0"/>
+      <c r="DH2" s="0"/>
+      <c r="DI2" s="0"/>
+      <c r="DJ2" s="0"/>
+      <c r="DK2" s="0"/>
+      <c r="DL2" s="0"/>
+      <c r="DM2" s="0"/>
+      <c r="DN2" s="0"/>
+      <c r="DO2" s="0"/>
+      <c r="DP2" s="0"/>
+      <c r="DQ2" s="0"/>
+      <c r="DR2" s="0"/>
+      <c r="DS2" s="0"/>
+      <c r="DT2" s="0"/>
+      <c r="DU2" s="0"/>
+      <c r="DV2" s="0"/>
+      <c r="DW2" s="0"/>
+      <c r="DX2" s="0"/>
+      <c r="DY2" s="0"/>
+      <c r="DZ2" s="0"/>
+      <c r="EA2" s="0"/>
+      <c r="EB2" s="0"/>
+      <c r="EC2" s="0"/>
+      <c r="ED2" s="0"/>
+      <c r="EE2" s="0"/>
+      <c r="EF2" s="0"/>
+      <c r="EG2" s="0"/>
+      <c r="EH2" s="0"/>
+      <c r="EI2" s="0"/>
+      <c r="EJ2" s="0"/>
+      <c r="EK2" s="0"/>
+      <c r="EL2" s="0"/>
+      <c r="EM2" s="0"/>
+      <c r="EN2" s="0"/>
+      <c r="EO2" s="0"/>
+      <c r="EP2" s="0"/>
+      <c r="EQ2" s="0"/>
+      <c r="ER2" s="0"/>
+      <c r="ES2" s="0"/>
+      <c r="ET2" s="0"/>
+      <c r="EU2" s="0"/>
+      <c r="EV2" s="0"/>
+      <c r="EW2" s="0"/>
+      <c r="EX2" s="0"/>
+      <c r="EY2" s="0"/>
+      <c r="EZ2" s="0"/>
+      <c r="FA2" s="0"/>
+      <c r="FB2" s="0"/>
+      <c r="FC2" s="0"/>
+      <c r="FD2" s="0"/>
+      <c r="FE2" s="0"/>
+      <c r="FF2" s="0"/>
+      <c r="FG2" s="0"/>
+      <c r="FH2" s="0"/>
+      <c r="FI2" s="0"/>
+      <c r="FJ2" s="0"/>
+      <c r="FK2" s="0"/>
+      <c r="FL2" s="0"/>
+      <c r="FM2" s="0"/>
+      <c r="FN2" s="0"/>
+      <c r="FO2" s="0"/>
+      <c r="FP2" s="0"/>
+      <c r="FQ2" s="0"/>
+      <c r="FR2" s="0"/>
+      <c r="FS2" s="0"/>
+      <c r="FT2" s="0"/>
+      <c r="FU2" s="0"/>
+      <c r="FV2" s="0"/>
+      <c r="FW2" s="0"/>
+      <c r="FX2" s="0"/>
+      <c r="FY2" s="0"/>
+      <c r="FZ2" s="0"/>
+      <c r="GA2" s="0"/>
+      <c r="GB2" s="0"/>
+      <c r="GC2" s="0"/>
+      <c r="GD2" s="0"/>
+      <c r="GE2" s="0"/>
+      <c r="GF2" s="0"/>
+      <c r="GG2" s="0"/>
+      <c r="GH2" s="0"/>
+      <c r="GI2" s="0"/>
+      <c r="GJ2" s="0"/>
+      <c r="GK2" s="0"/>
+      <c r="GL2" s="0"/>
+      <c r="GM2" s="0"/>
+      <c r="GN2" s="0"/>
+      <c r="GO2" s="0"/>
+      <c r="GP2" s="0"/>
+      <c r="GQ2" s="0"/>
+      <c r="GR2" s="0"/>
+      <c r="GS2" s="0"/>
+      <c r="GT2" s="0"/>
+      <c r="GU2" s="0"/>
+      <c r="GV2" s="0"/>
+      <c r="GW2" s="0"/>
+      <c r="GX2" s="0"/>
+      <c r="GY2" s="0"/>
+      <c r="GZ2" s="0"/>
+      <c r="HA2" s="0"/>
+      <c r="HB2" s="0"/>
+      <c r="HC2" s="0"/>
+      <c r="HD2" s="0"/>
+      <c r="HE2" s="0"/>
+      <c r="HF2" s="0"/>
+      <c r="HG2" s="0"/>
+      <c r="HH2" s="0"/>
+      <c r="HI2" s="0"/>
+      <c r="HJ2" s="0"/>
+      <c r="HK2" s="0"/>
+      <c r="HL2" s="0"/>
+      <c r="HM2" s="0"/>
+      <c r="HN2" s="0"/>
+      <c r="HO2" s="0"/>
+      <c r="HP2" s="0"/>
+      <c r="HQ2" s="0"/>
+      <c r="HR2" s="0"/>
+      <c r="HS2" s="0"/>
+      <c r="HT2" s="0"/>
+      <c r="HU2" s="0"/>
+      <c r="HV2" s="0"/>
+      <c r="HW2" s="0"/>
+      <c r="HX2" s="0"/>
+      <c r="HY2" s="0"/>
+      <c r="HZ2" s="0"/>
+      <c r="IA2" s="0"/>
+      <c r="IB2" s="0"/>
+      <c r="IC2" s="0"/>
+      <c r="ID2" s="0"/>
+      <c r="IE2" s="0"/>
+      <c r="IF2" s="0"/>
+      <c r="IG2" s="0"/>
+      <c r="IH2" s="0"/>
+      <c r="II2" s="0"/>
+      <c r="IJ2" s="0"/>
+      <c r="IK2" s="0"/>
+      <c r="IL2" s="0"/>
+      <c r="IM2" s="0"/>
+      <c r="IN2" s="0"/>
+      <c r="IO2" s="0"/>
+      <c r="IP2" s="0"/>
+      <c r="IQ2" s="0"/>
+      <c r="IR2" s="0"/>
+      <c r="IS2" s="0"/>
+      <c r="IT2" s="0"/>
+      <c r="IU2" s="0"/>
+      <c r="IV2" s="0"/>
+      <c r="IW2" s="0"/>
+      <c r="IX2" s="0"/>
+      <c r="IY2" s="0"/>
+      <c r="IZ2" s="0"/>
+      <c r="JA2" s="0"/>
+      <c r="JB2" s="0"/>
+      <c r="JC2" s="0"/>
+      <c r="JD2" s="0"/>
+      <c r="JE2" s="0"/>
+      <c r="JF2" s="0"/>
+      <c r="JG2" s="0"/>
+      <c r="JH2" s="0"/>
+      <c r="JI2" s="0"/>
+      <c r="JJ2" s="0"/>
+      <c r="JK2" s="0"/>
+      <c r="JL2" s="0"/>
+      <c r="JM2" s="0"/>
+      <c r="JN2" s="0"/>
+      <c r="JO2" s="0"/>
+      <c r="JP2" s="0"/>
+      <c r="JQ2" s="0"/>
+      <c r="JR2" s="0"/>
+      <c r="JS2" s="0"/>
+      <c r="JT2" s="0"/>
+      <c r="JU2" s="0"/>
+      <c r="JV2" s="0"/>
+      <c r="JW2" s="0"/>
+      <c r="JX2" s="0"/>
+      <c r="JY2" s="0"/>
+      <c r="JZ2" s="0"/>
+      <c r="KA2" s="0"/>
+      <c r="KB2" s="0"/>
+      <c r="KC2" s="0"/>
+      <c r="KD2" s="0"/>
+      <c r="KE2" s="0"/>
+      <c r="KF2" s="0"/>
+      <c r="KG2" s="0"/>
+      <c r="KH2" s="0"/>
+      <c r="KI2" s="0"/>
+      <c r="KJ2" s="0"/>
+      <c r="KK2" s="0"/>
+      <c r="KL2" s="0"/>
+      <c r="KM2" s="0"/>
+      <c r="KN2" s="0"/>
+      <c r="KO2" s="0"/>
+      <c r="KP2" s="0"/>
+      <c r="KQ2" s="0"/>
+      <c r="KR2" s="0"/>
+      <c r="KS2" s="0"/>
+      <c r="KT2" s="0"/>
+      <c r="KU2" s="0"/>
+      <c r="KV2" s="0"/>
+      <c r="KW2" s="0"/>
+      <c r="KX2" s="0"/>
+      <c r="KY2" s="0"/>
+      <c r="KZ2" s="0"/>
+      <c r="LA2" s="0"/>
+      <c r="LB2" s="0"/>
+      <c r="LC2" s="0"/>
+      <c r="LD2" s="0"/>
+      <c r="LE2" s="0"/>
+      <c r="LF2" s="0"/>
+      <c r="LG2" s="0"/>
+      <c r="LH2" s="0"/>
+      <c r="LI2" s="0"/>
+      <c r="LJ2" s="0"/>
+      <c r="LK2" s="0"/>
+      <c r="LL2" s="0"/>
+      <c r="LM2" s="0"/>
+      <c r="LN2" s="0"/>
+      <c r="LO2" s="0"/>
+      <c r="LP2" s="0"/>
+      <c r="LQ2" s="0"/>
+      <c r="LR2" s="0"/>
+      <c r="LS2" s="0"/>
+      <c r="LT2" s="0"/>
+      <c r="LU2" s="0"/>
+      <c r="LV2" s="0"/>
+      <c r="LW2" s="0"/>
+      <c r="LX2" s="0"/>
+      <c r="LY2" s="0"/>
+      <c r="LZ2" s="0"/>
+      <c r="MA2" s="0"/>
+      <c r="MB2" s="0"/>
+      <c r="MC2" s="0"/>
+      <c r="MD2" s="0"/>
+      <c r="ME2" s="0"/>
+      <c r="MF2" s="0"/>
+      <c r="MG2" s="0"/>
+      <c r="MH2" s="0"/>
+      <c r="MI2" s="0"/>
+      <c r="MJ2" s="0"/>
+      <c r="MK2" s="0"/>
+      <c r="ML2" s="0"/>
+      <c r="MM2" s="0"/>
+      <c r="MN2" s="0"/>
+      <c r="MO2" s="0"/>
+      <c r="MP2" s="0"/>
+      <c r="MQ2" s="0"/>
+      <c r="MR2" s="0"/>
+      <c r="MS2" s="0"/>
+      <c r="MT2" s="0"/>
+      <c r="MU2" s="0"/>
+      <c r="MV2" s="0"/>
+      <c r="MW2" s="0"/>
+      <c r="MX2" s="0"/>
+      <c r="MY2" s="0"/>
+      <c r="MZ2" s="0"/>
+      <c r="NA2" s="0"/>
+      <c r="NB2" s="0"/>
+      <c r="NC2" s="0"/>
+      <c r="ND2" s="0"/>
+      <c r="NE2" s="0"/>
+      <c r="NF2" s="0"/>
+      <c r="NG2" s="0"/>
+      <c r="NH2" s="0"/>
+      <c r="NI2" s="0"/>
+      <c r="NJ2" s="0"/>
+      <c r="NK2" s="0"/>
+      <c r="NL2" s="0"/>
+      <c r="NM2" s="0"/>
+      <c r="NN2" s="0"/>
+      <c r="NO2" s="0"/>
+      <c r="NP2" s="0"/>
+      <c r="NQ2" s="0"/>
+      <c r="NR2" s="0"/>
+      <c r="NS2" s="0"/>
+      <c r="NT2" s="0"/>
+      <c r="NU2" s="0"/>
+      <c r="NV2" s="0"/>
+      <c r="NW2" s="0"/>
+      <c r="NX2" s="0"/>
+      <c r="NY2" s="0"/>
+      <c r="NZ2" s="0"/>
+      <c r="OA2" s="0"/>
+      <c r="OB2" s="0"/>
+      <c r="OC2" s="0"/>
+      <c r="OD2" s="0"/>
+      <c r="OE2" s="0"/>
+      <c r="OF2" s="0"/>
+      <c r="OG2" s="0"/>
+      <c r="OH2" s="0"/>
+      <c r="OI2" s="0"/>
+      <c r="OJ2" s="0"/>
+      <c r="OK2" s="0"/>
+      <c r="OL2" s="0"/>
+      <c r="OM2" s="0"/>
+      <c r="ON2" s="0"/>
+      <c r="OO2" s="0"/>
+      <c r="OP2" s="0"/>
+      <c r="OQ2" s="0"/>
+      <c r="OR2" s="0"/>
+      <c r="OS2" s="0"/>
+      <c r="OT2" s="0"/>
+      <c r="OU2" s="0"/>
+      <c r="OV2" s="0"/>
+      <c r="OW2" s="0"/>
+      <c r="OX2" s="0"/>
+      <c r="OY2" s="0"/>
+      <c r="OZ2" s="0"/>
+      <c r="PA2" s="0"/>
+      <c r="PB2" s="0"/>
+      <c r="PC2" s="0"/>
+      <c r="PD2" s="0"/>
+      <c r="PE2" s="0"/>
+      <c r="PF2" s="0"/>
+      <c r="PG2" s="0"/>
+      <c r="PH2" s="0"/>
+      <c r="PI2" s="0"/>
+      <c r="PJ2" s="0"/>
+      <c r="PK2" s="0"/>
+      <c r="PL2" s="0"/>
+      <c r="PM2" s="0"/>
+      <c r="PN2" s="0"/>
+      <c r="PO2" s="0"/>
+      <c r="PP2" s="0"/>
+      <c r="PQ2" s="0"/>
+      <c r="PR2" s="0"/>
+      <c r="PS2" s="0"/>
+      <c r="PT2" s="0"/>
+      <c r="PU2" s="0"/>
+      <c r="PV2" s="0"/>
+      <c r="PW2" s="0"/>
+      <c r="PX2" s="0"/>
+      <c r="PY2" s="0"/>
+      <c r="PZ2" s="0"/>
+      <c r="QA2" s="0"/>
+      <c r="QB2" s="0"/>
+      <c r="QC2" s="0"/>
+      <c r="QD2" s="0"/>
+      <c r="QE2" s="0"/>
+      <c r="QF2" s="0"/>
+      <c r="QG2" s="0"/>
+      <c r="QH2" s="0"/>
+      <c r="QI2" s="0"/>
+      <c r="QJ2" s="0"/>
+      <c r="QK2" s="0"/>
+      <c r="QL2" s="0"/>
+      <c r="QM2" s="0"/>
+      <c r="QN2" s="0"/>
+      <c r="QO2" s="0"/>
+      <c r="QP2" s="0"/>
+      <c r="QQ2" s="0"/>
+      <c r="QR2" s="0"/>
+      <c r="QS2" s="0"/>
+      <c r="QT2" s="0"/>
+      <c r="QU2" s="0"/>
+      <c r="QV2" s="0"/>
+      <c r="QW2" s="0"/>
+      <c r="QX2" s="0"/>
+      <c r="QY2" s="0"/>
+      <c r="QZ2" s="0"/>
+      <c r="RA2" s="0"/>
+      <c r="RB2" s="0"/>
+      <c r="RC2" s="0"/>
+      <c r="RD2" s="0"/>
+      <c r="RE2" s="0"/>
+      <c r="RF2" s="0"/>
+      <c r="RG2" s="0"/>
+      <c r="RH2" s="0"/>
+      <c r="RI2" s="0"/>
+      <c r="RJ2" s="0"/>
+      <c r="RK2" s="0"/>
+      <c r="RL2" s="0"/>
+      <c r="RM2" s="0"/>
+      <c r="RN2" s="0"/>
+      <c r="RO2" s="0"/>
+      <c r="RP2" s="0"/>
+      <c r="RQ2" s="0"/>
+      <c r="RR2" s="0"/>
+      <c r="RS2" s="0"/>
+      <c r="RT2" s="0"/>
+      <c r="RU2" s="0"/>
+      <c r="RV2" s="0"/>
+      <c r="RW2" s="0"/>
+      <c r="RX2" s="0"/>
+      <c r="RY2" s="0"/>
+      <c r="RZ2" s="0"/>
+      <c r="SA2" s="0"/>
+      <c r="SB2" s="0"/>
+      <c r="SC2" s="0"/>
+      <c r="SD2" s="0"/>
+      <c r="SE2" s="0"/>
+      <c r="SF2" s="0"/>
+      <c r="SG2" s="0"/>
+      <c r="SH2" s="0"/>
+      <c r="SI2" s="0"/>
+      <c r="SJ2" s="0"/>
+      <c r="SK2" s="0"/>
+      <c r="SL2" s="0"/>
+      <c r="SM2" s="0"/>
+      <c r="SN2" s="0"/>
+      <c r="SO2" s="0"/>
+      <c r="SP2" s="0"/>
+      <c r="SQ2" s="0"/>
+      <c r="SR2" s="0"/>
+      <c r="SS2" s="0"/>
+      <c r="ST2" s="0"/>
+      <c r="SU2" s="0"/>
+      <c r="SV2" s="0"/>
+      <c r="SW2" s="0"/>
+      <c r="SX2" s="0"/>
+      <c r="SY2" s="0"/>
+      <c r="SZ2" s="0"/>
+      <c r="TA2" s="0"/>
+      <c r="TB2" s="0"/>
+      <c r="TC2" s="0"/>
+      <c r="TD2" s="0"/>
+      <c r="TE2" s="0"/>
+      <c r="TF2" s="0"/>
+      <c r="TG2" s="0"/>
+      <c r="TH2" s="0"/>
+      <c r="TI2" s="0"/>
+      <c r="TJ2" s="0"/>
+      <c r="TK2" s="0"/>
+      <c r="TL2" s="0"/>
+      <c r="TM2" s="0"/>
+      <c r="TN2" s="0"/>
+      <c r="TO2" s="0"/>
+      <c r="TP2" s="0"/>
+      <c r="TQ2" s="0"/>
+      <c r="TR2" s="0"/>
+      <c r="TS2" s="0"/>
+      <c r="TT2" s="0"/>
+      <c r="TU2" s="0"/>
+      <c r="TV2" s="0"/>
+      <c r="TW2" s="0"/>
+      <c r="TX2" s="0"/>
+      <c r="TY2" s="0"/>
+      <c r="TZ2" s="0"/>
+      <c r="UA2" s="0"/>
+      <c r="UB2" s="0"/>
+      <c r="UC2" s="0"/>
+      <c r="UD2" s="0"/>
+      <c r="UE2" s="0"/>
+      <c r="UF2" s="0"/>
+      <c r="UG2" s="0"/>
+      <c r="UH2" s="0"/>
+      <c r="UI2" s="0"/>
+      <c r="UJ2" s="0"/>
+      <c r="UK2" s="0"/>
+      <c r="UL2" s="0"/>
+      <c r="UM2" s="0"/>
+      <c r="UN2" s="0"/>
+      <c r="UO2" s="0"/>
+      <c r="UP2" s="0"/>
+      <c r="UQ2" s="0"/>
+      <c r="UR2" s="0"/>
+      <c r="US2" s="0"/>
+      <c r="UT2" s="0"/>
+      <c r="UU2" s="0"/>
+      <c r="UV2" s="0"/>
+      <c r="UW2" s="0"/>
+      <c r="UX2" s="0"/>
+      <c r="UY2" s="0"/>
+      <c r="UZ2" s="0"/>
+      <c r="VA2" s="0"/>
+      <c r="VB2" s="0"/>
+      <c r="VC2" s="0"/>
+      <c r="VD2" s="0"/>
+      <c r="VE2" s="0"/>
+      <c r="VF2" s="0"/>
+      <c r="VG2" s="0"/>
+      <c r="VH2" s="0"/>
+      <c r="VI2" s="0"/>
+      <c r="VJ2" s="0"/>
+      <c r="VK2" s="0"/>
+      <c r="VL2" s="0"/>
+      <c r="VM2" s="0"/>
+      <c r="VN2" s="0"/>
+      <c r="VO2" s="0"/>
+      <c r="VP2" s="0"/>
+      <c r="VQ2" s="0"/>
+      <c r="VR2" s="0"/>
+      <c r="VS2" s="0"/>
+      <c r="VT2" s="0"/>
+      <c r="VU2" s="0"/>
+      <c r="VV2" s="0"/>
+      <c r="VW2" s="0"/>
+      <c r="VX2" s="0"/>
+      <c r="VY2" s="0"/>
+      <c r="VZ2" s="0"/>
+      <c r="WA2" s="0"/>
+      <c r="WB2" s="0"/>
+      <c r="WC2" s="0"/>
+      <c r="WD2" s="0"/>
+      <c r="WE2" s="0"/>
+      <c r="WF2" s="0"/>
+      <c r="WG2" s="0"/>
+      <c r="WH2" s="0"/>
+      <c r="WI2" s="0"/>
+      <c r="WJ2" s="0"/>
+      <c r="WK2" s="0"/>
+      <c r="WL2" s="0"/>
+      <c r="WM2" s="0"/>
+      <c r="WN2" s="0"/>
+      <c r="WO2" s="0"/>
+      <c r="WP2" s="0"/>
+      <c r="WQ2" s="0"/>
+      <c r="WR2" s="0"/>
+      <c r="WS2" s="0"/>
+      <c r="WT2" s="0"/>
+      <c r="WU2" s="0"/>
+      <c r="WV2" s="0"/>
+      <c r="WW2" s="0"/>
+      <c r="WX2" s="0"/>
+      <c r="WY2" s="0"/>
+      <c r="WZ2" s="0"/>
+      <c r="XA2" s="0"/>
+      <c r="XB2" s="0"/>
+      <c r="XC2" s="0"/>
+      <c r="XD2" s="0"/>
+      <c r="XE2" s="0"/>
+      <c r="XF2" s="0"/>
+      <c r="XG2" s="0"/>
+      <c r="XH2" s="0"/>
+      <c r="XI2" s="0"/>
+      <c r="XJ2" s="0"/>
+      <c r="XK2" s="0"/>
+      <c r="XL2" s="0"/>
+      <c r="XM2" s="0"/>
+      <c r="XN2" s="0"/>
+      <c r="XO2" s="0"/>
+      <c r="XP2" s="0"/>
+      <c r="XQ2" s="0"/>
+      <c r="XR2" s="0"/>
+      <c r="XS2" s="0"/>
+      <c r="XT2" s="0"/>
+      <c r="XU2" s="0"/>
+      <c r="XV2" s="0"/>
+      <c r="XW2" s="0"/>
+      <c r="XX2" s="0"/>
+      <c r="XY2" s="0"/>
+      <c r="XZ2" s="0"/>
+      <c r="YA2" s="0"/>
+      <c r="YB2" s="0"/>
+      <c r="YC2" s="0"/>
+      <c r="YD2" s="0"/>
+      <c r="YE2" s="0"/>
+      <c r="YF2" s="0"/>
+      <c r="YG2" s="0"/>
+      <c r="YH2" s="0"/>
+      <c r="YI2" s="0"/>
+      <c r="YJ2" s="0"/>
+      <c r="YK2" s="0"/>
+      <c r="YL2" s="0"/>
+      <c r="YM2" s="0"/>
+      <c r="YN2" s="0"/>
+      <c r="YO2" s="0"/>
+      <c r="YP2" s="0"/>
+      <c r="YQ2" s="0"/>
+      <c r="YR2" s="0"/>
+      <c r="YS2" s="0"/>
+      <c r="YT2" s="0"/>
+      <c r="YU2" s="0"/>
+      <c r="YV2" s="0"/>
+      <c r="YW2" s="0"/>
+      <c r="YX2" s="0"/>
+      <c r="YY2" s="0"/>
+      <c r="YZ2" s="0"/>
+      <c r="ZA2" s="0"/>
+      <c r="ZB2" s="0"/>
+      <c r="ZC2" s="0"/>
+      <c r="ZD2" s="0"/>
+      <c r="ZE2" s="0"/>
+      <c r="ZF2" s="0"/>
+      <c r="ZG2" s="0"/>
+      <c r="ZH2" s="0"/>
+      <c r="ZI2" s="0"/>
+      <c r="ZJ2" s="0"/>
+      <c r="ZK2" s="0"/>
+      <c r="ZL2" s="0"/>
+      <c r="ZM2" s="0"/>
+      <c r="ZN2" s="0"/>
+      <c r="ZO2" s="0"/>
+      <c r="ZP2" s="0"/>
+      <c r="ZQ2" s="0"/>
+      <c r="ZR2" s="0"/>
+      <c r="ZS2" s="0"/>
+      <c r="ZT2" s="0"/>
+      <c r="ZU2" s="0"/>
+      <c r="ZV2" s="0"/>
+      <c r="ZW2" s="0"/>
+      <c r="ZX2" s="0"/>
+      <c r="ZY2" s="0"/>
+      <c r="ZZ2" s="0"/>
+      <c r="AAA2" s="0"/>
+      <c r="AAB2" s="0"/>
+      <c r="AAC2" s="0"/>
+      <c r="AAD2" s="0"/>
+      <c r="AAE2" s="0"/>
+      <c r="AAF2" s="0"/>
+      <c r="AAG2" s="0"/>
+      <c r="AAH2" s="0"/>
+      <c r="AAI2" s="0"/>
+      <c r="AAJ2" s="0"/>
+      <c r="AAK2" s="0"/>
+      <c r="AAL2" s="0"/>
+      <c r="AAM2" s="0"/>
+      <c r="AAN2" s="0"/>
+      <c r="AAO2" s="0"/>
+      <c r="AAP2" s="0"/>
+      <c r="AAQ2" s="0"/>
+      <c r="AAR2" s="0"/>
+      <c r="AAS2" s="0"/>
+      <c r="AAT2" s="0"/>
+      <c r="AAU2" s="0"/>
+      <c r="AAV2" s="0"/>
+      <c r="AAW2" s="0"/>
+      <c r="AAX2" s="0"/>
+      <c r="AAY2" s="0"/>
+      <c r="AAZ2" s="0"/>
+      <c r="ABA2" s="0"/>
+      <c r="ABB2" s="0"/>
+      <c r="ABC2" s="0"/>
+      <c r="ABD2" s="0"/>
+      <c r="ABE2" s="0"/>
+      <c r="ABF2" s="0"/>
+      <c r="ABG2" s="0"/>
+      <c r="ABH2" s="0"/>
+      <c r="ABI2" s="0"/>
+      <c r="ABJ2" s="0"/>
+      <c r="ABK2" s="0"/>
+      <c r="ABL2" s="0"/>
+      <c r="ABM2" s="0"/>
+      <c r="ABN2" s="0"/>
+      <c r="ABO2" s="0"/>
+      <c r="ABP2" s="0"/>
+      <c r="ABQ2" s="0"/>
+      <c r="ABR2" s="0"/>
+      <c r="ABS2" s="0"/>
+      <c r="ABT2" s="0"/>
+      <c r="ABU2" s="0"/>
+      <c r="ABV2" s="0"/>
+      <c r="ABW2" s="0"/>
+      <c r="ABX2" s="0"/>
+      <c r="ABY2" s="0"/>
+      <c r="ABZ2" s="0"/>
+      <c r="ACA2" s="0"/>
+      <c r="ACB2" s="0"/>
+      <c r="ACC2" s="0"/>
+      <c r="ACD2" s="0"/>
+      <c r="ACE2" s="0"/>
+      <c r="ACF2" s="0"/>
+      <c r="ACG2" s="0"/>
+      <c r="ACH2" s="0"/>
+      <c r="ACI2" s="0"/>
+      <c r="ACJ2" s="0"/>
+      <c r="ACK2" s="0"/>
+      <c r="ACL2" s="0"/>
+      <c r="ACM2" s="0"/>
+      <c r="ACN2" s="0"/>
+      <c r="ACO2" s="0"/>
+      <c r="ACP2" s="0"/>
+      <c r="ACQ2" s="0"/>
+      <c r="ACR2" s="0"/>
+      <c r="ACS2" s="0"/>
+      <c r="ACT2" s="0"/>
+      <c r="ACU2" s="0"/>
+      <c r="ACV2" s="0"/>
+      <c r="ACW2" s="0"/>
+      <c r="ACX2" s="0"/>
+      <c r="ACY2" s="0"/>
+      <c r="ACZ2" s="0"/>
+      <c r="ADA2" s="0"/>
+      <c r="ADB2" s="0"/>
+      <c r="ADC2" s="0"/>
+      <c r="ADD2" s="0"/>
+      <c r="ADE2" s="0"/>
+      <c r="ADF2" s="0"/>
+      <c r="ADG2" s="0"/>
+      <c r="ADH2" s="0"/>
+      <c r="ADI2" s="0"/>
+      <c r="ADJ2" s="0"/>
+      <c r="ADK2" s="0"/>
+      <c r="ADL2" s="0"/>
+      <c r="ADM2" s="0"/>
+      <c r="ADN2" s="0"/>
+      <c r="ADO2" s="0"/>
+      <c r="ADP2" s="0"/>
+      <c r="ADQ2" s="0"/>
+      <c r="ADR2" s="0"/>
+      <c r="ADS2" s="0"/>
+      <c r="ADT2" s="0"/>
+      <c r="ADU2" s="0"/>
+      <c r="ADV2" s="0"/>
+      <c r="ADW2" s="0"/>
+      <c r="ADX2" s="0"/>
+      <c r="ADY2" s="0"/>
+      <c r="ADZ2" s="0"/>
+      <c r="AEA2" s="0"/>
+      <c r="AEB2" s="0"/>
+      <c r="AEC2" s="0"/>
+      <c r="AED2" s="0"/>
+      <c r="AEE2" s="0"/>
+      <c r="AEF2" s="0"/>
+      <c r="AEG2" s="0"/>
+      <c r="AEH2" s="0"/>
+      <c r="AEI2" s="0"/>
+      <c r="AEJ2" s="0"/>
+      <c r="AEK2" s="0"/>
+      <c r="AEL2" s="0"/>
+      <c r="AEM2" s="0"/>
+      <c r="AEN2" s="0"/>
+      <c r="AEO2" s="0"/>
+      <c r="AEP2" s="0"/>
+      <c r="AEQ2" s="0"/>
+      <c r="AER2" s="0"/>
+      <c r="AES2" s="0"/>
+      <c r="AET2" s="0"/>
+      <c r="AEU2" s="0"/>
+      <c r="AEV2" s="0"/>
+      <c r="AEW2" s="0"/>
+      <c r="AEX2" s="0"/>
+      <c r="AEY2" s="0"/>
+      <c r="AEZ2" s="0"/>
+      <c r="AFA2" s="0"/>
+      <c r="AFB2" s="0"/>
+      <c r="AFC2" s="0"/>
+      <c r="AFD2" s="0"/>
+      <c r="AFE2" s="0"/>
+      <c r="AFF2" s="0"/>
+      <c r="AFG2" s="0"/>
+      <c r="AFH2" s="0"/>
+      <c r="AFI2" s="0"/>
+      <c r="AFJ2" s="0"/>
+      <c r="AFK2" s="0"/>
+      <c r="AFL2" s="0"/>
+      <c r="AFM2" s="0"/>
+      <c r="AFN2" s="0"/>
+      <c r="AFO2" s="0"/>
+      <c r="AFP2" s="0"/>
+      <c r="AFQ2" s="0"/>
+      <c r="AFR2" s="0"/>
+      <c r="AFS2" s="0"/>
+      <c r="AFT2" s="0"/>
+      <c r="AFU2" s="0"/>
+      <c r="AFV2" s="0"/>
+      <c r="AFW2" s="0"/>
+      <c r="AFX2" s="0"/>
+      <c r="AFY2" s="0"/>
+      <c r="AFZ2" s="0"/>
+      <c r="AGA2" s="0"/>
+      <c r="AGB2" s="0"/>
+      <c r="AGC2" s="0"/>
+      <c r="AGD2" s="0"/>
+      <c r="AGE2" s="0"/>
+      <c r="AGF2" s="0"/>
+      <c r="AGG2" s="0"/>
+      <c r="AGH2" s="0"/>
+      <c r="AGI2" s="0"/>
+      <c r="AGJ2" s="0"/>
+      <c r="AGK2" s="0"/>
+      <c r="AGL2" s="0"/>
+      <c r="AGM2" s="0"/>
+      <c r="AGN2" s="0"/>
+      <c r="AGO2" s="0"/>
+      <c r="AGP2" s="0"/>
+      <c r="AGQ2" s="0"/>
+      <c r="AGR2" s="0"/>
+      <c r="AGS2" s="0"/>
+      <c r="AGT2" s="0"/>
+      <c r="AGU2" s="0"/>
+      <c r="AGV2" s="0"/>
+      <c r="AGW2" s="0"/>
+      <c r="AGX2" s="0"/>
+      <c r="AGY2" s="0"/>
+      <c r="AGZ2" s="0"/>
+      <c r="AHA2" s="0"/>
+      <c r="AHB2" s="0"/>
+      <c r="AHC2" s="0"/>
+      <c r="AHD2" s="0"/>
+      <c r="AHE2" s="0"/>
+      <c r="AHF2" s="0"/>
+      <c r="AHG2" s="0"/>
+      <c r="AHH2" s="0"/>
+      <c r="AHI2" s="0"/>
+      <c r="AHJ2" s="0"/>
+      <c r="AHK2" s="0"/>
+      <c r="AHL2" s="0"/>
+      <c r="AHM2" s="0"/>
+      <c r="AHN2" s="0"/>
+      <c r="AHO2" s="0"/>
+      <c r="AHP2" s="0"/>
+      <c r="AHQ2" s="0"/>
+      <c r="AHR2" s="0"/>
+      <c r="AHS2" s="0"/>
+      <c r="AHT2" s="0"/>
+      <c r="AHU2" s="0"/>
+      <c r="AHV2" s="0"/>
+      <c r="AHW2" s="0"/>
+      <c r="AHX2" s="0"/>
+      <c r="AHY2" s="0"/>
+      <c r="AHZ2" s="0"/>
+      <c r="AIA2" s="0"/>
+      <c r="AIB2" s="0"/>
+      <c r="AIC2" s="0"/>
+      <c r="AID2" s="0"/>
+      <c r="AIE2" s="0"/>
+      <c r="AIF2" s="0"/>
+      <c r="AIG2" s="0"/>
+      <c r="AIH2" s="0"/>
+      <c r="AII2" s="0"/>
+      <c r="AIJ2" s="0"/>
+      <c r="AIK2" s="0"/>
+      <c r="AIL2" s="0"/>
+      <c r="AIM2" s="0"/>
+      <c r="AIN2" s="0"/>
+      <c r="AIO2" s="0"/>
+      <c r="AIP2" s="0"/>
+      <c r="AIQ2" s="0"/>
+      <c r="AIR2" s="0"/>
+      <c r="AIS2" s="0"/>
+      <c r="AIT2" s="0"/>
+      <c r="AIU2" s="0"/>
+      <c r="AIV2" s="0"/>
+      <c r="AIW2" s="0"/>
+      <c r="AIX2" s="0"/>
+      <c r="AIY2" s="0"/>
+      <c r="AIZ2" s="0"/>
+      <c r="AJA2" s="0"/>
+      <c r="AJB2" s="0"/>
+      <c r="AJC2" s="0"/>
+      <c r="AJD2" s="0"/>
+      <c r="AJE2" s="0"/>
+      <c r="AJF2" s="0"/>
+      <c r="AJG2" s="0"/>
+      <c r="AJH2" s="0"/>
+      <c r="AJI2" s="0"/>
+      <c r="AJJ2" s="0"/>
+      <c r="AJK2" s="0"/>
+      <c r="AJL2" s="0"/>
+      <c r="AJM2" s="0"/>
+      <c r="AJN2" s="0"/>
+      <c r="AJO2" s="0"/>
+      <c r="AJP2" s="0"/>
+      <c r="AJQ2" s="0"/>
+      <c r="AJR2" s="0"/>
+      <c r="AJS2" s="0"/>
+      <c r="AJT2" s="0"/>
+      <c r="AJU2" s="0"/>
+      <c r="AJV2" s="0"/>
+      <c r="AJW2" s="0"/>
+      <c r="AJX2" s="0"/>
+      <c r="AJY2" s="0"/>
+      <c r="AJZ2" s="0"/>
+      <c r="AKA2" s="0"/>
+      <c r="AKB2" s="0"/>
+      <c r="AKC2" s="0"/>
+      <c r="AKD2" s="0"/>
+      <c r="AKE2" s="0"/>
+      <c r="AKF2" s="0"/>
+      <c r="AKG2" s="0"/>
+      <c r="AKH2" s="0"/>
+      <c r="AKI2" s="0"/>
+      <c r="AKJ2" s="0"/>
+      <c r="AKK2" s="0"/>
+      <c r="AKL2" s="0"/>
+      <c r="AKM2" s="0"/>
+      <c r="AKN2" s="0"/>
+      <c r="AKO2" s="0"/>
+      <c r="AKP2" s="0"/>
+      <c r="AKQ2" s="0"/>
+      <c r="AKR2" s="0"/>
+      <c r="AKS2" s="0"/>
+      <c r="AKT2" s="0"/>
+      <c r="AKU2" s="0"/>
+      <c r="AKV2" s="0"/>
+      <c r="AKW2" s="0"/>
+      <c r="AKX2" s="0"/>
+      <c r="AKY2" s="0"/>
+      <c r="AKZ2" s="0"/>
+      <c r="ALA2" s="0"/>
+      <c r="ALB2" s="0"/>
+      <c r="ALC2" s="0"/>
+      <c r="ALD2" s="0"/>
+      <c r="ALE2" s="0"/>
+      <c r="ALF2" s="0"/>
+      <c r="ALG2" s="0"/>
+      <c r="ALH2" s="0"/>
+      <c r="ALI2" s="0"/>
+      <c r="ALJ2" s="0"/>
+      <c r="ALK2" s="0"/>
+      <c r="ALL2" s="0"/>
+      <c r="ALM2" s="0"/>
+      <c r="ALN2" s="0"/>
+      <c r="ALO2" s="0"/>
+      <c r="ALP2" s="0"/>
+      <c r="ALQ2" s="0"/>
+      <c r="ALR2" s="0"/>
+      <c r="ALS2" s="0"/>
+      <c r="ALT2" s="0"/>
+      <c r="ALU2" s="0"/>
+      <c r="ALV2" s="0"/>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
@@ -1216,6 +2217,1019 @@
       <c r="K3" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+      <c r="AE3" s="0"/>
+      <c r="AF3" s="0"/>
+      <c r="AG3" s="0"/>
+      <c r="AH3" s="0"/>
+      <c r="AI3" s="0"/>
+      <c r="AJ3" s="0"/>
+      <c r="AK3" s="0"/>
+      <c r="AL3" s="0"/>
+      <c r="AM3" s="0"/>
+      <c r="AN3" s="0"/>
+      <c r="AO3" s="0"/>
+      <c r="AP3" s="0"/>
+      <c r="AQ3" s="0"/>
+      <c r="AR3" s="0"/>
+      <c r="AS3" s="0"/>
+      <c r="AT3" s="0"/>
+      <c r="AU3" s="0"/>
+      <c r="AV3" s="0"/>
+      <c r="AW3" s="0"/>
+      <c r="AX3" s="0"/>
+      <c r="AY3" s="0"/>
+      <c r="AZ3" s="0"/>
+      <c r="BA3" s="0"/>
+      <c r="BB3" s="0"/>
+      <c r="BC3" s="0"/>
+      <c r="BD3" s="0"/>
+      <c r="BE3" s="0"/>
+      <c r="BF3" s="0"/>
+      <c r="BG3" s="0"/>
+      <c r="BH3" s="0"/>
+      <c r="BI3" s="0"/>
+      <c r="BJ3" s="0"/>
+      <c r="BK3" s="0"/>
+      <c r="BL3" s="0"/>
+      <c r="BM3" s="0"/>
+      <c r="BN3" s="0"/>
+      <c r="BO3" s="0"/>
+      <c r="BP3" s="0"/>
+      <c r="BQ3" s="0"/>
+      <c r="BR3" s="0"/>
+      <c r="BS3" s="0"/>
+      <c r="BT3" s="0"/>
+      <c r="BU3" s="0"/>
+      <c r="BV3" s="0"/>
+      <c r="BW3" s="0"/>
+      <c r="BX3" s="0"/>
+      <c r="BY3" s="0"/>
+      <c r="BZ3" s="0"/>
+      <c r="CA3" s="0"/>
+      <c r="CB3" s="0"/>
+      <c r="CC3" s="0"/>
+      <c r="CD3" s="0"/>
+      <c r="CE3" s="0"/>
+      <c r="CF3" s="0"/>
+      <c r="CG3" s="0"/>
+      <c r="CH3" s="0"/>
+      <c r="CI3" s="0"/>
+      <c r="CJ3" s="0"/>
+      <c r="CK3" s="0"/>
+      <c r="CL3" s="0"/>
+      <c r="CM3" s="0"/>
+      <c r="CN3" s="0"/>
+      <c r="CO3" s="0"/>
+      <c r="CP3" s="0"/>
+      <c r="CQ3" s="0"/>
+      <c r="CR3" s="0"/>
+      <c r="CS3" s="0"/>
+      <c r="CT3" s="0"/>
+      <c r="CU3" s="0"/>
+      <c r="CV3" s="0"/>
+      <c r="CW3" s="0"/>
+      <c r="CX3" s="0"/>
+      <c r="CY3" s="0"/>
+      <c r="CZ3" s="0"/>
+      <c r="DA3" s="0"/>
+      <c r="DB3" s="0"/>
+      <c r="DC3" s="0"/>
+      <c r="DD3" s="0"/>
+      <c r="DE3" s="0"/>
+      <c r="DF3" s="0"/>
+      <c r="DG3" s="0"/>
+      <c r="DH3" s="0"/>
+      <c r="DI3" s="0"/>
+      <c r="DJ3" s="0"/>
+      <c r="DK3" s="0"/>
+      <c r="DL3" s="0"/>
+      <c r="DM3" s="0"/>
+      <c r="DN3" s="0"/>
+      <c r="DO3" s="0"/>
+      <c r="DP3" s="0"/>
+      <c r="DQ3" s="0"/>
+      <c r="DR3" s="0"/>
+      <c r="DS3" s="0"/>
+      <c r="DT3" s="0"/>
+      <c r="DU3" s="0"/>
+      <c r="DV3" s="0"/>
+      <c r="DW3" s="0"/>
+      <c r="DX3" s="0"/>
+      <c r="DY3" s="0"/>
+      <c r="DZ3" s="0"/>
+      <c r="EA3" s="0"/>
+      <c r="EB3" s="0"/>
+      <c r="EC3" s="0"/>
+      <c r="ED3" s="0"/>
+      <c r="EE3" s="0"/>
+      <c r="EF3" s="0"/>
+      <c r="EG3" s="0"/>
+      <c r="EH3" s="0"/>
+      <c r="EI3" s="0"/>
+      <c r="EJ3" s="0"/>
+      <c r="EK3" s="0"/>
+      <c r="EL3" s="0"/>
+      <c r="EM3" s="0"/>
+      <c r="EN3" s="0"/>
+      <c r="EO3" s="0"/>
+      <c r="EP3" s="0"/>
+      <c r="EQ3" s="0"/>
+      <c r="ER3" s="0"/>
+      <c r="ES3" s="0"/>
+      <c r="ET3" s="0"/>
+      <c r="EU3" s="0"/>
+      <c r="EV3" s="0"/>
+      <c r="EW3" s="0"/>
+      <c r="EX3" s="0"/>
+      <c r="EY3" s="0"/>
+      <c r="EZ3" s="0"/>
+      <c r="FA3" s="0"/>
+      <c r="FB3" s="0"/>
+      <c r="FC3" s="0"/>
+      <c r="FD3" s="0"/>
+      <c r="FE3" s="0"/>
+      <c r="FF3" s="0"/>
+      <c r="FG3" s="0"/>
+      <c r="FH3" s="0"/>
+      <c r="FI3" s="0"/>
+      <c r="FJ3" s="0"/>
+      <c r="FK3" s="0"/>
+      <c r="FL3" s="0"/>
+      <c r="FM3" s="0"/>
+      <c r="FN3" s="0"/>
+      <c r="FO3" s="0"/>
+      <c r="FP3" s="0"/>
+      <c r="FQ3" s="0"/>
+      <c r="FR3" s="0"/>
+      <c r="FS3" s="0"/>
+      <c r="FT3" s="0"/>
+      <c r="FU3" s="0"/>
+      <c r="FV3" s="0"/>
+      <c r="FW3" s="0"/>
+      <c r="FX3" s="0"/>
+      <c r="FY3" s="0"/>
+      <c r="FZ3" s="0"/>
+      <c r="GA3" s="0"/>
+      <c r="GB3" s="0"/>
+      <c r="GC3" s="0"/>
+      <c r="GD3" s="0"/>
+      <c r="GE3" s="0"/>
+      <c r="GF3" s="0"/>
+      <c r="GG3" s="0"/>
+      <c r="GH3" s="0"/>
+      <c r="GI3" s="0"/>
+      <c r="GJ3" s="0"/>
+      <c r="GK3" s="0"/>
+      <c r="GL3" s="0"/>
+      <c r="GM3" s="0"/>
+      <c r="GN3" s="0"/>
+      <c r="GO3" s="0"/>
+      <c r="GP3" s="0"/>
+      <c r="GQ3" s="0"/>
+      <c r="GR3" s="0"/>
+      <c r="GS3" s="0"/>
+      <c r="GT3" s="0"/>
+      <c r="GU3" s="0"/>
+      <c r="GV3" s="0"/>
+      <c r="GW3" s="0"/>
+      <c r="GX3" s="0"/>
+      <c r="GY3" s="0"/>
+      <c r="GZ3" s="0"/>
+      <c r="HA3" s="0"/>
+      <c r="HB3" s="0"/>
+      <c r="HC3" s="0"/>
+      <c r="HD3" s="0"/>
+      <c r="HE3" s="0"/>
+      <c r="HF3" s="0"/>
+      <c r="HG3" s="0"/>
+      <c r="HH3" s="0"/>
+      <c r="HI3" s="0"/>
+      <c r="HJ3" s="0"/>
+      <c r="HK3" s="0"/>
+      <c r="HL3" s="0"/>
+      <c r="HM3" s="0"/>
+      <c r="HN3" s="0"/>
+      <c r="HO3" s="0"/>
+      <c r="HP3" s="0"/>
+      <c r="HQ3" s="0"/>
+      <c r="HR3" s="0"/>
+      <c r="HS3" s="0"/>
+      <c r="HT3" s="0"/>
+      <c r="HU3" s="0"/>
+      <c r="HV3" s="0"/>
+      <c r="HW3" s="0"/>
+      <c r="HX3" s="0"/>
+      <c r="HY3" s="0"/>
+      <c r="HZ3" s="0"/>
+      <c r="IA3" s="0"/>
+      <c r="IB3" s="0"/>
+      <c r="IC3" s="0"/>
+      <c r="ID3" s="0"/>
+      <c r="IE3" s="0"/>
+      <c r="IF3" s="0"/>
+      <c r="IG3" s="0"/>
+      <c r="IH3" s="0"/>
+      <c r="II3" s="0"/>
+      <c r="IJ3" s="0"/>
+      <c r="IK3" s="0"/>
+      <c r="IL3" s="0"/>
+      <c r="IM3" s="0"/>
+      <c r="IN3" s="0"/>
+      <c r="IO3" s="0"/>
+      <c r="IP3" s="0"/>
+      <c r="IQ3" s="0"/>
+      <c r="IR3" s="0"/>
+      <c r="IS3" s="0"/>
+      <c r="IT3" s="0"/>
+      <c r="IU3" s="0"/>
+      <c r="IV3" s="0"/>
+      <c r="IW3" s="0"/>
+      <c r="IX3" s="0"/>
+      <c r="IY3" s="0"/>
+      <c r="IZ3" s="0"/>
+      <c r="JA3" s="0"/>
+      <c r="JB3" s="0"/>
+      <c r="JC3" s="0"/>
+      <c r="JD3" s="0"/>
+      <c r="JE3" s="0"/>
+      <c r="JF3" s="0"/>
+      <c r="JG3" s="0"/>
+      <c r="JH3" s="0"/>
+      <c r="JI3" s="0"/>
+      <c r="JJ3" s="0"/>
+      <c r="JK3" s="0"/>
+      <c r="JL3" s="0"/>
+      <c r="JM3" s="0"/>
+      <c r="JN3" s="0"/>
+      <c r="JO3" s="0"/>
+      <c r="JP3" s="0"/>
+      <c r="JQ3" s="0"/>
+      <c r="JR3" s="0"/>
+      <c r="JS3" s="0"/>
+      <c r="JT3" s="0"/>
+      <c r="JU3" s="0"/>
+      <c r="JV3" s="0"/>
+      <c r="JW3" s="0"/>
+      <c r="JX3" s="0"/>
+      <c r="JY3" s="0"/>
+      <c r="JZ3" s="0"/>
+      <c r="KA3" s="0"/>
+      <c r="KB3" s="0"/>
+      <c r="KC3" s="0"/>
+      <c r="KD3" s="0"/>
+      <c r="KE3" s="0"/>
+      <c r="KF3" s="0"/>
+      <c r="KG3" s="0"/>
+      <c r="KH3" s="0"/>
+      <c r="KI3" s="0"/>
+      <c r="KJ3" s="0"/>
+      <c r="KK3" s="0"/>
+      <c r="KL3" s="0"/>
+      <c r="KM3" s="0"/>
+      <c r="KN3" s="0"/>
+      <c r="KO3" s="0"/>
+      <c r="KP3" s="0"/>
+      <c r="KQ3" s="0"/>
+      <c r="KR3" s="0"/>
+      <c r="KS3" s="0"/>
+      <c r="KT3" s="0"/>
+      <c r="KU3" s="0"/>
+      <c r="KV3" s="0"/>
+      <c r="KW3" s="0"/>
+      <c r="KX3" s="0"/>
+      <c r="KY3" s="0"/>
+      <c r="KZ3" s="0"/>
+      <c r="LA3" s="0"/>
+      <c r="LB3" s="0"/>
+      <c r="LC3" s="0"/>
+      <c r="LD3" s="0"/>
+      <c r="LE3" s="0"/>
+      <c r="LF3" s="0"/>
+      <c r="LG3" s="0"/>
+      <c r="LH3" s="0"/>
+      <c r="LI3" s="0"/>
+      <c r="LJ3" s="0"/>
+      <c r="LK3" s="0"/>
+      <c r="LL3" s="0"/>
+      <c r="LM3" s="0"/>
+      <c r="LN3" s="0"/>
+      <c r="LO3" s="0"/>
+      <c r="LP3" s="0"/>
+      <c r="LQ3" s="0"/>
+      <c r="LR3" s="0"/>
+      <c r="LS3" s="0"/>
+      <c r="LT3" s="0"/>
+      <c r="LU3" s="0"/>
+      <c r="LV3" s="0"/>
+      <c r="LW3" s="0"/>
+      <c r="LX3" s="0"/>
+      <c r="LY3" s="0"/>
+      <c r="LZ3" s="0"/>
+      <c r="MA3" s="0"/>
+      <c r="MB3" s="0"/>
+      <c r="MC3" s="0"/>
+      <c r="MD3" s="0"/>
+      <c r="ME3" s="0"/>
+      <c r="MF3" s="0"/>
+      <c r="MG3" s="0"/>
+      <c r="MH3" s="0"/>
+      <c r="MI3" s="0"/>
+      <c r="MJ3" s="0"/>
+      <c r="MK3" s="0"/>
+      <c r="ML3" s="0"/>
+      <c r="MM3" s="0"/>
+      <c r="MN3" s="0"/>
+      <c r="MO3" s="0"/>
+      <c r="MP3" s="0"/>
+      <c r="MQ3" s="0"/>
+      <c r="MR3" s="0"/>
+      <c r="MS3" s="0"/>
+      <c r="MT3" s="0"/>
+      <c r="MU3" s="0"/>
+      <c r="MV3" s="0"/>
+      <c r="MW3" s="0"/>
+      <c r="MX3" s="0"/>
+      <c r="MY3" s="0"/>
+      <c r="MZ3" s="0"/>
+      <c r="NA3" s="0"/>
+      <c r="NB3" s="0"/>
+      <c r="NC3" s="0"/>
+      <c r="ND3" s="0"/>
+      <c r="NE3" s="0"/>
+      <c r="NF3" s="0"/>
+      <c r="NG3" s="0"/>
+      <c r="NH3" s="0"/>
+      <c r="NI3" s="0"/>
+      <c r="NJ3" s="0"/>
+      <c r="NK3" s="0"/>
+      <c r="NL3" s="0"/>
+      <c r="NM3" s="0"/>
+      <c r="NN3" s="0"/>
+      <c r="NO3" s="0"/>
+      <c r="NP3" s="0"/>
+      <c r="NQ3" s="0"/>
+      <c r="NR3" s="0"/>
+      <c r="NS3" s="0"/>
+      <c r="NT3" s="0"/>
+      <c r="NU3" s="0"/>
+      <c r="NV3" s="0"/>
+      <c r="NW3" s="0"/>
+      <c r="NX3" s="0"/>
+      <c r="NY3" s="0"/>
+      <c r="NZ3" s="0"/>
+      <c r="OA3" s="0"/>
+      <c r="OB3" s="0"/>
+      <c r="OC3" s="0"/>
+      <c r="OD3" s="0"/>
+      <c r="OE3" s="0"/>
+      <c r="OF3" s="0"/>
+      <c r="OG3" s="0"/>
+      <c r="OH3" s="0"/>
+      <c r="OI3" s="0"/>
+      <c r="OJ3" s="0"/>
+      <c r="OK3" s="0"/>
+      <c r="OL3" s="0"/>
+      <c r="OM3" s="0"/>
+      <c r="ON3" s="0"/>
+      <c r="OO3" s="0"/>
+      <c r="OP3" s="0"/>
+      <c r="OQ3" s="0"/>
+      <c r="OR3" s="0"/>
+      <c r="OS3" s="0"/>
+      <c r="OT3" s="0"/>
+      <c r="OU3" s="0"/>
+      <c r="OV3" s="0"/>
+      <c r="OW3" s="0"/>
+      <c r="OX3" s="0"/>
+      <c r="OY3" s="0"/>
+      <c r="OZ3" s="0"/>
+      <c r="PA3" s="0"/>
+      <c r="PB3" s="0"/>
+      <c r="PC3" s="0"/>
+      <c r="PD3" s="0"/>
+      <c r="PE3" s="0"/>
+      <c r="PF3" s="0"/>
+      <c r="PG3" s="0"/>
+      <c r="PH3" s="0"/>
+      <c r="PI3" s="0"/>
+      <c r="PJ3" s="0"/>
+      <c r="PK3" s="0"/>
+      <c r="PL3" s="0"/>
+      <c r="PM3" s="0"/>
+      <c r="PN3" s="0"/>
+      <c r="PO3" s="0"/>
+      <c r="PP3" s="0"/>
+      <c r="PQ3" s="0"/>
+      <c r="PR3" s="0"/>
+      <c r="PS3" s="0"/>
+      <c r="PT3" s="0"/>
+      <c r="PU3" s="0"/>
+      <c r="PV3" s="0"/>
+      <c r="PW3" s="0"/>
+      <c r="PX3" s="0"/>
+      <c r="PY3" s="0"/>
+      <c r="PZ3" s="0"/>
+      <c r="QA3" s="0"/>
+      <c r="QB3" s="0"/>
+      <c r="QC3" s="0"/>
+      <c r="QD3" s="0"/>
+      <c r="QE3" s="0"/>
+      <c r="QF3" s="0"/>
+      <c r="QG3" s="0"/>
+      <c r="QH3" s="0"/>
+      <c r="QI3" s="0"/>
+      <c r="QJ3" s="0"/>
+      <c r="QK3" s="0"/>
+      <c r="QL3" s="0"/>
+      <c r="QM3" s="0"/>
+      <c r="QN3" s="0"/>
+      <c r="QO3" s="0"/>
+      <c r="QP3" s="0"/>
+      <c r="QQ3" s="0"/>
+      <c r="QR3" s="0"/>
+      <c r="QS3" s="0"/>
+      <c r="QT3" s="0"/>
+      <c r="QU3" s="0"/>
+      <c r="QV3" s="0"/>
+      <c r="QW3" s="0"/>
+      <c r="QX3" s="0"/>
+      <c r="QY3" s="0"/>
+      <c r="QZ3" s="0"/>
+      <c r="RA3" s="0"/>
+      <c r="RB3" s="0"/>
+      <c r="RC3" s="0"/>
+      <c r="RD3" s="0"/>
+      <c r="RE3" s="0"/>
+      <c r="RF3" s="0"/>
+      <c r="RG3" s="0"/>
+      <c r="RH3" s="0"/>
+      <c r="RI3" s="0"/>
+      <c r="RJ3" s="0"/>
+      <c r="RK3" s="0"/>
+      <c r="RL3" s="0"/>
+      <c r="RM3" s="0"/>
+      <c r="RN3" s="0"/>
+      <c r="RO3" s="0"/>
+      <c r="RP3" s="0"/>
+      <c r="RQ3" s="0"/>
+      <c r="RR3" s="0"/>
+      <c r="RS3" s="0"/>
+      <c r="RT3" s="0"/>
+      <c r="RU3" s="0"/>
+      <c r="RV3" s="0"/>
+      <c r="RW3" s="0"/>
+      <c r="RX3" s="0"/>
+      <c r="RY3" s="0"/>
+      <c r="RZ3" s="0"/>
+      <c r="SA3" s="0"/>
+      <c r="SB3" s="0"/>
+      <c r="SC3" s="0"/>
+      <c r="SD3" s="0"/>
+      <c r="SE3" s="0"/>
+      <c r="SF3" s="0"/>
+      <c r="SG3" s="0"/>
+      <c r="SH3" s="0"/>
+      <c r="SI3" s="0"/>
+      <c r="SJ3" s="0"/>
+      <c r="SK3" s="0"/>
+      <c r="SL3" s="0"/>
+      <c r="SM3" s="0"/>
+      <c r="SN3" s="0"/>
+      <c r="SO3" s="0"/>
+      <c r="SP3" s="0"/>
+      <c r="SQ3" s="0"/>
+      <c r="SR3" s="0"/>
+      <c r="SS3" s="0"/>
+      <c r="ST3" s="0"/>
+      <c r="SU3" s="0"/>
+      <c r="SV3" s="0"/>
+      <c r="SW3" s="0"/>
+      <c r="SX3" s="0"/>
+      <c r="SY3" s="0"/>
+      <c r="SZ3" s="0"/>
+      <c r="TA3" s="0"/>
+      <c r="TB3" s="0"/>
+      <c r="TC3" s="0"/>
+      <c r="TD3" s="0"/>
+      <c r="TE3" s="0"/>
+      <c r="TF3" s="0"/>
+      <c r="TG3" s="0"/>
+      <c r="TH3" s="0"/>
+      <c r="TI3" s="0"/>
+      <c r="TJ3" s="0"/>
+      <c r="TK3" s="0"/>
+      <c r="TL3" s="0"/>
+      <c r="TM3" s="0"/>
+      <c r="TN3" s="0"/>
+      <c r="TO3" s="0"/>
+      <c r="TP3" s="0"/>
+      <c r="TQ3" s="0"/>
+      <c r="TR3" s="0"/>
+      <c r="TS3" s="0"/>
+      <c r="TT3" s="0"/>
+      <c r="TU3" s="0"/>
+      <c r="TV3" s="0"/>
+      <c r="TW3" s="0"/>
+      <c r="TX3" s="0"/>
+      <c r="TY3" s="0"/>
+      <c r="TZ3" s="0"/>
+      <c r="UA3" s="0"/>
+      <c r="UB3" s="0"/>
+      <c r="UC3" s="0"/>
+      <c r="UD3" s="0"/>
+      <c r="UE3" s="0"/>
+      <c r="UF3" s="0"/>
+      <c r="UG3" s="0"/>
+      <c r="UH3" s="0"/>
+      <c r="UI3" s="0"/>
+      <c r="UJ3" s="0"/>
+      <c r="UK3" s="0"/>
+      <c r="UL3" s="0"/>
+      <c r="UM3" s="0"/>
+      <c r="UN3" s="0"/>
+      <c r="UO3" s="0"/>
+      <c r="UP3" s="0"/>
+      <c r="UQ3" s="0"/>
+      <c r="UR3" s="0"/>
+      <c r="US3" s="0"/>
+      <c r="UT3" s="0"/>
+      <c r="UU3" s="0"/>
+      <c r="UV3" s="0"/>
+      <c r="UW3" s="0"/>
+      <c r="UX3" s="0"/>
+      <c r="UY3" s="0"/>
+      <c r="UZ3" s="0"/>
+      <c r="VA3" s="0"/>
+      <c r="VB3" s="0"/>
+      <c r="VC3" s="0"/>
+      <c r="VD3" s="0"/>
+      <c r="VE3" s="0"/>
+      <c r="VF3" s="0"/>
+      <c r="VG3" s="0"/>
+      <c r="VH3" s="0"/>
+      <c r="VI3" s="0"/>
+      <c r="VJ3" s="0"/>
+      <c r="VK3" s="0"/>
+      <c r="VL3" s="0"/>
+      <c r="VM3" s="0"/>
+      <c r="VN3" s="0"/>
+      <c r="VO3" s="0"/>
+      <c r="VP3" s="0"/>
+      <c r="VQ3" s="0"/>
+      <c r="VR3" s="0"/>
+      <c r="VS3" s="0"/>
+      <c r="VT3" s="0"/>
+      <c r="VU3" s="0"/>
+      <c r="VV3" s="0"/>
+      <c r="VW3" s="0"/>
+      <c r="VX3" s="0"/>
+      <c r="VY3" s="0"/>
+      <c r="VZ3" s="0"/>
+      <c r="WA3" s="0"/>
+      <c r="WB3" s="0"/>
+      <c r="WC3" s="0"/>
+      <c r="WD3" s="0"/>
+      <c r="WE3" s="0"/>
+      <c r="WF3" s="0"/>
+      <c r="WG3" s="0"/>
+      <c r="WH3" s="0"/>
+      <c r="WI3" s="0"/>
+      <c r="WJ3" s="0"/>
+      <c r="WK3" s="0"/>
+      <c r="WL3" s="0"/>
+      <c r="WM3" s="0"/>
+      <c r="WN3" s="0"/>
+      <c r="WO3" s="0"/>
+      <c r="WP3" s="0"/>
+      <c r="WQ3" s="0"/>
+      <c r="WR3" s="0"/>
+      <c r="WS3" s="0"/>
+      <c r="WT3" s="0"/>
+      <c r="WU3" s="0"/>
+      <c r="WV3" s="0"/>
+      <c r="WW3" s="0"/>
+      <c r="WX3" s="0"/>
+      <c r="WY3" s="0"/>
+      <c r="WZ3" s="0"/>
+      <c r="XA3" s="0"/>
+      <c r="XB3" s="0"/>
+      <c r="XC3" s="0"/>
+      <c r="XD3" s="0"/>
+      <c r="XE3" s="0"/>
+      <c r="XF3" s="0"/>
+      <c r="XG3" s="0"/>
+      <c r="XH3" s="0"/>
+      <c r="XI3" s="0"/>
+      <c r="XJ3" s="0"/>
+      <c r="XK3" s="0"/>
+      <c r="XL3" s="0"/>
+      <c r="XM3" s="0"/>
+      <c r="XN3" s="0"/>
+      <c r="XO3" s="0"/>
+      <c r="XP3" s="0"/>
+      <c r="XQ3" s="0"/>
+      <c r="XR3" s="0"/>
+      <c r="XS3" s="0"/>
+      <c r="XT3" s="0"/>
+      <c r="XU3" s="0"/>
+      <c r="XV3" s="0"/>
+      <c r="XW3" s="0"/>
+      <c r="XX3" s="0"/>
+      <c r="XY3" s="0"/>
+      <c r="XZ3" s="0"/>
+      <c r="YA3" s="0"/>
+      <c r="YB3" s="0"/>
+      <c r="YC3" s="0"/>
+      <c r="YD3" s="0"/>
+      <c r="YE3" s="0"/>
+      <c r="YF3" s="0"/>
+      <c r="YG3" s="0"/>
+      <c r="YH3" s="0"/>
+      <c r="YI3" s="0"/>
+      <c r="YJ3" s="0"/>
+      <c r="YK3" s="0"/>
+      <c r="YL3" s="0"/>
+      <c r="YM3" s="0"/>
+      <c r="YN3" s="0"/>
+      <c r="YO3" s="0"/>
+      <c r="YP3" s="0"/>
+      <c r="YQ3" s="0"/>
+      <c r="YR3" s="0"/>
+      <c r="YS3" s="0"/>
+      <c r="YT3" s="0"/>
+      <c r="YU3" s="0"/>
+      <c r="YV3" s="0"/>
+      <c r="YW3" s="0"/>
+      <c r="YX3" s="0"/>
+      <c r="YY3" s="0"/>
+      <c r="YZ3" s="0"/>
+      <c r="ZA3" s="0"/>
+      <c r="ZB3" s="0"/>
+      <c r="ZC3" s="0"/>
+      <c r="ZD3" s="0"/>
+      <c r="ZE3" s="0"/>
+      <c r="ZF3" s="0"/>
+      <c r="ZG3" s="0"/>
+      <c r="ZH3" s="0"/>
+      <c r="ZI3" s="0"/>
+      <c r="ZJ3" s="0"/>
+      <c r="ZK3" s="0"/>
+      <c r="ZL3" s="0"/>
+      <c r="ZM3" s="0"/>
+      <c r="ZN3" s="0"/>
+      <c r="ZO3" s="0"/>
+      <c r="ZP3" s="0"/>
+      <c r="ZQ3" s="0"/>
+      <c r="ZR3" s="0"/>
+      <c r="ZS3" s="0"/>
+      <c r="ZT3" s="0"/>
+      <c r="ZU3" s="0"/>
+      <c r="ZV3" s="0"/>
+      <c r="ZW3" s="0"/>
+      <c r="ZX3" s="0"/>
+      <c r="ZY3" s="0"/>
+      <c r="ZZ3" s="0"/>
+      <c r="AAA3" s="0"/>
+      <c r="AAB3" s="0"/>
+      <c r="AAC3" s="0"/>
+      <c r="AAD3" s="0"/>
+      <c r="AAE3" s="0"/>
+      <c r="AAF3" s="0"/>
+      <c r="AAG3" s="0"/>
+      <c r="AAH3" s="0"/>
+      <c r="AAI3" s="0"/>
+      <c r="AAJ3" s="0"/>
+      <c r="AAK3" s="0"/>
+      <c r="AAL3" s="0"/>
+      <c r="AAM3" s="0"/>
+      <c r="AAN3" s="0"/>
+      <c r="AAO3" s="0"/>
+      <c r="AAP3" s="0"/>
+      <c r="AAQ3" s="0"/>
+      <c r="AAR3" s="0"/>
+      <c r="AAS3" s="0"/>
+      <c r="AAT3" s="0"/>
+      <c r="AAU3" s="0"/>
+      <c r="AAV3" s="0"/>
+      <c r="AAW3" s="0"/>
+      <c r="AAX3" s="0"/>
+      <c r="AAY3" s="0"/>
+      <c r="AAZ3" s="0"/>
+      <c r="ABA3" s="0"/>
+      <c r="ABB3" s="0"/>
+      <c r="ABC3" s="0"/>
+      <c r="ABD3" s="0"/>
+      <c r="ABE3" s="0"/>
+      <c r="ABF3" s="0"/>
+      <c r="ABG3" s="0"/>
+      <c r="ABH3" s="0"/>
+      <c r="ABI3" s="0"/>
+      <c r="ABJ3" s="0"/>
+      <c r="ABK3" s="0"/>
+      <c r="ABL3" s="0"/>
+      <c r="ABM3" s="0"/>
+      <c r="ABN3" s="0"/>
+      <c r="ABO3" s="0"/>
+      <c r="ABP3" s="0"/>
+      <c r="ABQ3" s="0"/>
+      <c r="ABR3" s="0"/>
+      <c r="ABS3" s="0"/>
+      <c r="ABT3" s="0"/>
+      <c r="ABU3" s="0"/>
+      <c r="ABV3" s="0"/>
+      <c r="ABW3" s="0"/>
+      <c r="ABX3" s="0"/>
+      <c r="ABY3" s="0"/>
+      <c r="ABZ3" s="0"/>
+      <c r="ACA3" s="0"/>
+      <c r="ACB3" s="0"/>
+      <c r="ACC3" s="0"/>
+      <c r="ACD3" s="0"/>
+      <c r="ACE3" s="0"/>
+      <c r="ACF3" s="0"/>
+      <c r="ACG3" s="0"/>
+      <c r="ACH3" s="0"/>
+      <c r="ACI3" s="0"/>
+      <c r="ACJ3" s="0"/>
+      <c r="ACK3" s="0"/>
+      <c r="ACL3" s="0"/>
+      <c r="ACM3" s="0"/>
+      <c r="ACN3" s="0"/>
+      <c r="ACO3" s="0"/>
+      <c r="ACP3" s="0"/>
+      <c r="ACQ3" s="0"/>
+      <c r="ACR3" s="0"/>
+      <c r="ACS3" s="0"/>
+      <c r="ACT3" s="0"/>
+      <c r="ACU3" s="0"/>
+      <c r="ACV3" s="0"/>
+      <c r="ACW3" s="0"/>
+      <c r="ACX3" s="0"/>
+      <c r="ACY3" s="0"/>
+      <c r="ACZ3" s="0"/>
+      <c r="ADA3" s="0"/>
+      <c r="ADB3" s="0"/>
+      <c r="ADC3" s="0"/>
+      <c r="ADD3" s="0"/>
+      <c r="ADE3" s="0"/>
+      <c r="ADF3" s="0"/>
+      <c r="ADG3" s="0"/>
+      <c r="ADH3" s="0"/>
+      <c r="ADI3" s="0"/>
+      <c r="ADJ3" s="0"/>
+      <c r="ADK3" s="0"/>
+      <c r="ADL3" s="0"/>
+      <c r="ADM3" s="0"/>
+      <c r="ADN3" s="0"/>
+      <c r="ADO3" s="0"/>
+      <c r="ADP3" s="0"/>
+      <c r="ADQ3" s="0"/>
+      <c r="ADR3" s="0"/>
+      <c r="ADS3" s="0"/>
+      <c r="ADT3" s="0"/>
+      <c r="ADU3" s="0"/>
+      <c r="ADV3" s="0"/>
+      <c r="ADW3" s="0"/>
+      <c r="ADX3" s="0"/>
+      <c r="ADY3" s="0"/>
+      <c r="ADZ3" s="0"/>
+      <c r="AEA3" s="0"/>
+      <c r="AEB3" s="0"/>
+      <c r="AEC3" s="0"/>
+      <c r="AED3" s="0"/>
+      <c r="AEE3" s="0"/>
+      <c r="AEF3" s="0"/>
+      <c r="AEG3" s="0"/>
+      <c r="AEH3" s="0"/>
+      <c r="AEI3" s="0"/>
+      <c r="AEJ3" s="0"/>
+      <c r="AEK3" s="0"/>
+      <c r="AEL3" s="0"/>
+      <c r="AEM3" s="0"/>
+      <c r="AEN3" s="0"/>
+      <c r="AEO3" s="0"/>
+      <c r="AEP3" s="0"/>
+      <c r="AEQ3" s="0"/>
+      <c r="AER3" s="0"/>
+      <c r="AES3" s="0"/>
+      <c r="AET3" s="0"/>
+      <c r="AEU3" s="0"/>
+      <c r="AEV3" s="0"/>
+      <c r="AEW3" s="0"/>
+      <c r="AEX3" s="0"/>
+      <c r="AEY3" s="0"/>
+      <c r="AEZ3" s="0"/>
+      <c r="AFA3" s="0"/>
+      <c r="AFB3" s="0"/>
+      <c r="AFC3" s="0"/>
+      <c r="AFD3" s="0"/>
+      <c r="AFE3" s="0"/>
+      <c r="AFF3" s="0"/>
+      <c r="AFG3" s="0"/>
+      <c r="AFH3" s="0"/>
+      <c r="AFI3" s="0"/>
+      <c r="AFJ3" s="0"/>
+      <c r="AFK3" s="0"/>
+      <c r="AFL3" s="0"/>
+      <c r="AFM3" s="0"/>
+      <c r="AFN3" s="0"/>
+      <c r="AFO3" s="0"/>
+      <c r="AFP3" s="0"/>
+      <c r="AFQ3" s="0"/>
+      <c r="AFR3" s="0"/>
+      <c r="AFS3" s="0"/>
+      <c r="AFT3" s="0"/>
+      <c r="AFU3" s="0"/>
+      <c r="AFV3" s="0"/>
+      <c r="AFW3" s="0"/>
+      <c r="AFX3" s="0"/>
+      <c r="AFY3" s="0"/>
+      <c r="AFZ3" s="0"/>
+      <c r="AGA3" s="0"/>
+      <c r="AGB3" s="0"/>
+      <c r="AGC3" s="0"/>
+      <c r="AGD3" s="0"/>
+      <c r="AGE3" s="0"/>
+      <c r="AGF3" s="0"/>
+      <c r="AGG3" s="0"/>
+      <c r="AGH3" s="0"/>
+      <c r="AGI3" s="0"/>
+      <c r="AGJ3" s="0"/>
+      <c r="AGK3" s="0"/>
+      <c r="AGL3" s="0"/>
+      <c r="AGM3" s="0"/>
+      <c r="AGN3" s="0"/>
+      <c r="AGO3" s="0"/>
+      <c r="AGP3" s="0"/>
+      <c r="AGQ3" s="0"/>
+      <c r="AGR3" s="0"/>
+      <c r="AGS3" s="0"/>
+      <c r="AGT3" s="0"/>
+      <c r="AGU3" s="0"/>
+      <c r="AGV3" s="0"/>
+      <c r="AGW3" s="0"/>
+      <c r="AGX3" s="0"/>
+      <c r="AGY3" s="0"/>
+      <c r="AGZ3" s="0"/>
+      <c r="AHA3" s="0"/>
+      <c r="AHB3" s="0"/>
+      <c r="AHC3" s="0"/>
+      <c r="AHD3" s="0"/>
+      <c r="AHE3" s="0"/>
+      <c r="AHF3" s="0"/>
+      <c r="AHG3" s="0"/>
+      <c r="AHH3" s="0"/>
+      <c r="AHI3" s="0"/>
+      <c r="AHJ3" s="0"/>
+      <c r="AHK3" s="0"/>
+      <c r="AHL3" s="0"/>
+      <c r="AHM3" s="0"/>
+      <c r="AHN3" s="0"/>
+      <c r="AHO3" s="0"/>
+      <c r="AHP3" s="0"/>
+      <c r="AHQ3" s="0"/>
+      <c r="AHR3" s="0"/>
+      <c r="AHS3" s="0"/>
+      <c r="AHT3" s="0"/>
+      <c r="AHU3" s="0"/>
+      <c r="AHV3" s="0"/>
+      <c r="AHW3" s="0"/>
+      <c r="AHX3" s="0"/>
+      <c r="AHY3" s="0"/>
+      <c r="AHZ3" s="0"/>
+      <c r="AIA3" s="0"/>
+      <c r="AIB3" s="0"/>
+      <c r="AIC3" s="0"/>
+      <c r="AID3" s="0"/>
+      <c r="AIE3" s="0"/>
+      <c r="AIF3" s="0"/>
+      <c r="AIG3" s="0"/>
+      <c r="AIH3" s="0"/>
+      <c r="AII3" s="0"/>
+      <c r="AIJ3" s="0"/>
+      <c r="AIK3" s="0"/>
+      <c r="AIL3" s="0"/>
+      <c r="AIM3" s="0"/>
+      <c r="AIN3" s="0"/>
+      <c r="AIO3" s="0"/>
+      <c r="AIP3" s="0"/>
+      <c r="AIQ3" s="0"/>
+      <c r="AIR3" s="0"/>
+      <c r="AIS3" s="0"/>
+      <c r="AIT3" s="0"/>
+      <c r="AIU3" s="0"/>
+      <c r="AIV3" s="0"/>
+      <c r="AIW3" s="0"/>
+      <c r="AIX3" s="0"/>
+      <c r="AIY3" s="0"/>
+      <c r="AIZ3" s="0"/>
+      <c r="AJA3" s="0"/>
+      <c r="AJB3" s="0"/>
+      <c r="AJC3" s="0"/>
+      <c r="AJD3" s="0"/>
+      <c r="AJE3" s="0"/>
+      <c r="AJF3" s="0"/>
+      <c r="AJG3" s="0"/>
+      <c r="AJH3" s="0"/>
+      <c r="AJI3" s="0"/>
+      <c r="AJJ3" s="0"/>
+      <c r="AJK3" s="0"/>
+      <c r="AJL3" s="0"/>
+      <c r="AJM3" s="0"/>
+      <c r="AJN3" s="0"/>
+      <c r="AJO3" s="0"/>
+      <c r="AJP3" s="0"/>
+      <c r="AJQ3" s="0"/>
+      <c r="AJR3" s="0"/>
+      <c r="AJS3" s="0"/>
+      <c r="AJT3" s="0"/>
+      <c r="AJU3" s="0"/>
+      <c r="AJV3" s="0"/>
+      <c r="AJW3" s="0"/>
+      <c r="AJX3" s="0"/>
+      <c r="AJY3" s="0"/>
+      <c r="AJZ3" s="0"/>
+      <c r="AKA3" s="0"/>
+      <c r="AKB3" s="0"/>
+      <c r="AKC3" s="0"/>
+      <c r="AKD3" s="0"/>
+      <c r="AKE3" s="0"/>
+      <c r="AKF3" s="0"/>
+      <c r="AKG3" s="0"/>
+      <c r="AKH3" s="0"/>
+      <c r="AKI3" s="0"/>
+      <c r="AKJ3" s="0"/>
+      <c r="AKK3" s="0"/>
+      <c r="AKL3" s="0"/>
+      <c r="AKM3" s="0"/>
+      <c r="AKN3" s="0"/>
+      <c r="AKO3" s="0"/>
+      <c r="AKP3" s="0"/>
+      <c r="AKQ3" s="0"/>
+      <c r="AKR3" s="0"/>
+      <c r="AKS3" s="0"/>
+      <c r="AKT3" s="0"/>
+      <c r="AKU3" s="0"/>
+      <c r="AKV3" s="0"/>
+      <c r="AKW3" s="0"/>
+      <c r="AKX3" s="0"/>
+      <c r="AKY3" s="0"/>
+      <c r="AKZ3" s="0"/>
+      <c r="ALA3" s="0"/>
+      <c r="ALB3" s="0"/>
+      <c r="ALC3" s="0"/>
+      <c r="ALD3" s="0"/>
+      <c r="ALE3" s="0"/>
+      <c r="ALF3" s="0"/>
+      <c r="ALG3" s="0"/>
+      <c r="ALH3" s="0"/>
+      <c r="ALI3" s="0"/>
+      <c r="ALJ3" s="0"/>
+      <c r="ALK3" s="0"/>
+      <c r="ALL3" s="0"/>
+      <c r="ALM3" s="0"/>
+      <c r="ALN3" s="0"/>
+      <c r="ALO3" s="0"/>
+      <c r="ALP3" s="0"/>
+      <c r="ALQ3" s="0"/>
+      <c r="ALR3" s="0"/>
+      <c r="ALS3" s="0"/>
+      <c r="ALT3" s="0"/>
+      <c r="ALU3" s="0"/>
+      <c r="ALV3" s="0"/>
+      <c r="ALW3" s="0"/>
+      <c r="ALX3" s="0"/>
+      <c r="ALY3" s="0"/>
+      <c r="ALZ3" s="0"/>
+      <c r="AMA3" s="0"/>
+      <c r="AMB3" s="0"/>
+      <c r="AMC3" s="0"/>
+      <c r="AMD3" s="0"/>
+      <c r="AME3" s="0"/>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
@@ -1281,6 +3295,16 @@
       <c r="K5" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
@@ -1314,6 +3338,16 @@
       <c r="K6" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -1347,6 +3381,16 @@
       <c r="K7" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
@@ -1380,6 +3424,16 @@
       <c r="K8" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
@@ -1413,6 +3467,16 @@
       <c r="K9" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
@@ -1446,6 +3510,16 @@
       <c r="K10" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
@@ -1479,6 +3553,16 @@
       <c r="K11" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
@@ -1512,6 +3596,16 @@
       <c r="K12" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
@@ -1545,6 +3639,16 @@
       <c r="K13" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
@@ -1558,6 +3662,16 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
@@ -1593,6 +3707,16 @@
       <c r="K15" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
@@ -1628,6 +3752,16 @@
       <c r="K16" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
@@ -1663,6 +3797,16 @@
       <c r="K17" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
@@ -1698,6 +3842,16 @@
       <c r="K18" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
+      <c r="T18" s="0"/>
+      <c r="U18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
@@ -1733,6 +3887,16 @@
       <c r="K19" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
@@ -1768,6 +3932,16 @@
       <c r="K20" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
+      <c r="T20" s="0"/>
+      <c r="U20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
@@ -1803,6 +3977,16 @@
       <c r="K21" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
+      <c r="S21" s="0"/>
+      <c r="T21" s="0"/>
+      <c r="U21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
@@ -1838,6 +4022,16 @@
       <c r="K22" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
@@ -1873,6 +4067,16 @@
       <c r="K23" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
+      <c r="P23" s="0"/>
+      <c r="Q23" s="0"/>
+      <c r="R23" s="0"/>
+      <c r="S23" s="0"/>
+      <c r="T23" s="0"/>
+      <c r="U23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
@@ -1885,6 +4089,16 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
@@ -1915,6 +4129,16 @@
         <v>110</v>
       </c>
       <c r="K25" s="5"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="0"/>
+      <c r="U25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
@@ -1945,6 +4169,16 @@
         <v>115</v>
       </c>
       <c r="K26" s="5"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
+      <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
+      <c r="T26" s="0"/>
+      <c r="U26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
@@ -1975,6 +4209,16 @@
         <v>119</v>
       </c>
       <c r="K27" s="5"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="T27" s="0"/>
+      <c r="U27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
@@ -2007,6 +4251,16 @@
       <c r="K28" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L28" s="0"/>
+      <c r="M28" s="0"/>
+      <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
+      <c r="T28" s="0"/>
+      <c r="U28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
@@ -2019,6 +4273,16 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="5"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="T29" s="0"/>
+      <c r="U29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
@@ -2051,6 +4315,16 @@
       <c r="K30" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
@@ -2725,7 +4999,7 @@
   </sheetPr>
   <dimension ref="1:18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2733,13 +5007,13 @@
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.0404858299595"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="2" width="9.10526315789474"/>
   </cols>
@@ -4899,6 +7173,1017 @@
       <c r="K6" s="2" t="s">
         <v>254</v>
       </c>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
+      <c r="V6" s="0"/>
+      <c r="W6" s="0"/>
+      <c r="X6" s="0"/>
+      <c r="Y6" s="0"/>
+      <c r="Z6" s="0"/>
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0"/>
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="0"/>
+      <c r="AE6" s="0"/>
+      <c r="AF6" s="0"/>
+      <c r="AG6" s="0"/>
+      <c r="AH6" s="0"/>
+      <c r="AI6" s="0"/>
+      <c r="AJ6" s="0"/>
+      <c r="AK6" s="0"/>
+      <c r="AL6" s="0"/>
+      <c r="AM6" s="0"/>
+      <c r="AN6" s="0"/>
+      <c r="AO6" s="0"/>
+      <c r="AP6" s="0"/>
+      <c r="AQ6" s="0"/>
+      <c r="AR6" s="0"/>
+      <c r="AS6" s="0"/>
+      <c r="AT6" s="0"/>
+      <c r="AU6" s="0"/>
+      <c r="AV6" s="0"/>
+      <c r="AW6" s="0"/>
+      <c r="AX6" s="0"/>
+      <c r="AY6" s="0"/>
+      <c r="AZ6" s="0"/>
+      <c r="BA6" s="0"/>
+      <c r="BB6" s="0"/>
+      <c r="BC6" s="0"/>
+      <c r="BD6" s="0"/>
+      <c r="BE6" s="0"/>
+      <c r="BF6" s="0"/>
+      <c r="BG6" s="0"/>
+      <c r="BH6" s="0"/>
+      <c r="BI6" s="0"/>
+      <c r="BJ6" s="0"/>
+      <c r="BK6" s="0"/>
+      <c r="BL6" s="0"/>
+      <c r="BM6" s="0"/>
+      <c r="BN6" s="0"/>
+      <c r="BO6" s="0"/>
+      <c r="BP6" s="0"/>
+      <c r="BQ6" s="0"/>
+      <c r="BR6" s="0"/>
+      <c r="BS6" s="0"/>
+      <c r="BT6" s="0"/>
+      <c r="BU6" s="0"/>
+      <c r="BV6" s="0"/>
+      <c r="BW6" s="0"/>
+      <c r="BX6" s="0"/>
+      <c r="BY6" s="0"/>
+      <c r="BZ6" s="0"/>
+      <c r="CA6" s="0"/>
+      <c r="CB6" s="0"/>
+      <c r="CC6" s="0"/>
+      <c r="CD6" s="0"/>
+      <c r="CE6" s="0"/>
+      <c r="CF6" s="0"/>
+      <c r="CG6" s="0"/>
+      <c r="CH6" s="0"/>
+      <c r="CI6" s="0"/>
+      <c r="CJ6" s="0"/>
+      <c r="CK6" s="0"/>
+      <c r="CL6" s="0"/>
+      <c r="CM6" s="0"/>
+      <c r="CN6" s="0"/>
+      <c r="CO6" s="0"/>
+      <c r="CP6" s="0"/>
+      <c r="CQ6" s="0"/>
+      <c r="CR6" s="0"/>
+      <c r="CS6" s="0"/>
+      <c r="CT6" s="0"/>
+      <c r="CU6" s="0"/>
+      <c r="CV6" s="0"/>
+      <c r="CW6" s="0"/>
+      <c r="CX6" s="0"/>
+      <c r="CY6" s="0"/>
+      <c r="CZ6" s="0"/>
+      <c r="DA6" s="0"/>
+      <c r="DB6" s="0"/>
+      <c r="DC6" s="0"/>
+      <c r="DD6" s="0"/>
+      <c r="DE6" s="0"/>
+      <c r="DF6" s="0"/>
+      <c r="DG6" s="0"/>
+      <c r="DH6" s="0"/>
+      <c r="DI6" s="0"/>
+      <c r="DJ6" s="0"/>
+      <c r="DK6" s="0"/>
+      <c r="DL6" s="0"/>
+      <c r="DM6" s="0"/>
+      <c r="DN6" s="0"/>
+      <c r="DO6" s="0"/>
+      <c r="DP6" s="0"/>
+      <c r="DQ6" s="0"/>
+      <c r="DR6" s="0"/>
+      <c r="DS6" s="0"/>
+      <c r="DT6" s="0"/>
+      <c r="DU6" s="0"/>
+      <c r="DV6" s="0"/>
+      <c r="DW6" s="0"/>
+      <c r="DX6" s="0"/>
+      <c r="DY6" s="0"/>
+      <c r="DZ6" s="0"/>
+      <c r="EA6" s="0"/>
+      <c r="EB6" s="0"/>
+      <c r="EC6" s="0"/>
+      <c r="ED6" s="0"/>
+      <c r="EE6" s="0"/>
+      <c r="EF6" s="0"/>
+      <c r="EG6" s="0"/>
+      <c r="EH6" s="0"/>
+      <c r="EI6" s="0"/>
+      <c r="EJ6" s="0"/>
+      <c r="EK6" s="0"/>
+      <c r="EL6" s="0"/>
+      <c r="EM6" s="0"/>
+      <c r="EN6" s="0"/>
+      <c r="EO6" s="0"/>
+      <c r="EP6" s="0"/>
+      <c r="EQ6" s="0"/>
+      <c r="ER6" s="0"/>
+      <c r="ES6" s="0"/>
+      <c r="ET6" s="0"/>
+      <c r="EU6" s="0"/>
+      <c r="EV6" s="0"/>
+      <c r="EW6" s="0"/>
+      <c r="EX6" s="0"/>
+      <c r="EY6" s="0"/>
+      <c r="EZ6" s="0"/>
+      <c r="FA6" s="0"/>
+      <c r="FB6" s="0"/>
+      <c r="FC6" s="0"/>
+      <c r="FD6" s="0"/>
+      <c r="FE6" s="0"/>
+      <c r="FF6" s="0"/>
+      <c r="FG6" s="0"/>
+      <c r="FH6" s="0"/>
+      <c r="FI6" s="0"/>
+      <c r="FJ6" s="0"/>
+      <c r="FK6" s="0"/>
+      <c r="FL6" s="0"/>
+      <c r="FM6" s="0"/>
+      <c r="FN6" s="0"/>
+      <c r="FO6" s="0"/>
+      <c r="FP6" s="0"/>
+      <c r="FQ6" s="0"/>
+      <c r="FR6" s="0"/>
+      <c r="FS6" s="0"/>
+      <c r="FT6" s="0"/>
+      <c r="FU6" s="0"/>
+      <c r="FV6" s="0"/>
+      <c r="FW6" s="0"/>
+      <c r="FX6" s="0"/>
+      <c r="FY6" s="0"/>
+      <c r="FZ6" s="0"/>
+      <c r="GA6" s="0"/>
+      <c r="GB6" s="0"/>
+      <c r="GC6" s="0"/>
+      <c r="GD6" s="0"/>
+      <c r="GE6" s="0"/>
+      <c r="GF6" s="0"/>
+      <c r="GG6" s="0"/>
+      <c r="GH6" s="0"/>
+      <c r="GI6" s="0"/>
+      <c r="GJ6" s="0"/>
+      <c r="GK6" s="0"/>
+      <c r="GL6" s="0"/>
+      <c r="GM6" s="0"/>
+      <c r="GN6" s="0"/>
+      <c r="GO6" s="0"/>
+      <c r="GP6" s="0"/>
+      <c r="GQ6" s="0"/>
+      <c r="GR6" s="0"/>
+      <c r="GS6" s="0"/>
+      <c r="GT6" s="0"/>
+      <c r="GU6" s="0"/>
+      <c r="GV6" s="0"/>
+      <c r="GW6" s="0"/>
+      <c r="GX6" s="0"/>
+      <c r="GY6" s="0"/>
+      <c r="GZ6" s="0"/>
+      <c r="HA6" s="0"/>
+      <c r="HB6" s="0"/>
+      <c r="HC6" s="0"/>
+      <c r="HD6" s="0"/>
+      <c r="HE6" s="0"/>
+      <c r="HF6" s="0"/>
+      <c r="HG6" s="0"/>
+      <c r="HH6" s="0"/>
+      <c r="HI6" s="0"/>
+      <c r="HJ6" s="0"/>
+      <c r="HK6" s="0"/>
+      <c r="HL6" s="0"/>
+      <c r="HM6" s="0"/>
+      <c r="HN6" s="0"/>
+      <c r="HO6" s="0"/>
+      <c r="HP6" s="0"/>
+      <c r="HQ6" s="0"/>
+      <c r="HR6" s="0"/>
+      <c r="HS6" s="0"/>
+      <c r="HT6" s="0"/>
+      <c r="HU6" s="0"/>
+      <c r="HV6" s="0"/>
+      <c r="HW6" s="0"/>
+      <c r="HX6" s="0"/>
+      <c r="HY6" s="0"/>
+      <c r="HZ6" s="0"/>
+      <c r="IA6" s="0"/>
+      <c r="IB6" s="0"/>
+      <c r="IC6" s="0"/>
+      <c r="ID6" s="0"/>
+      <c r="IE6" s="0"/>
+      <c r="IF6" s="0"/>
+      <c r="IG6" s="0"/>
+      <c r="IH6" s="0"/>
+      <c r="II6" s="0"/>
+      <c r="IJ6" s="0"/>
+      <c r="IK6" s="0"/>
+      <c r="IL6" s="0"/>
+      <c r="IM6" s="0"/>
+      <c r="IN6" s="0"/>
+      <c r="IO6" s="0"/>
+      <c r="IP6" s="0"/>
+      <c r="IQ6" s="0"/>
+      <c r="IR6" s="0"/>
+      <c r="IS6" s="0"/>
+      <c r="IT6" s="0"/>
+      <c r="IU6" s="0"/>
+      <c r="IV6" s="0"/>
+      <c r="IW6" s="0"/>
+      <c r="IX6" s="0"/>
+      <c r="IY6" s="0"/>
+      <c r="IZ6" s="0"/>
+      <c r="JA6" s="0"/>
+      <c r="JB6" s="0"/>
+      <c r="JC6" s="0"/>
+      <c r="JD6" s="0"/>
+      <c r="JE6" s="0"/>
+      <c r="JF6" s="0"/>
+      <c r="JG6" s="0"/>
+      <c r="JH6" s="0"/>
+      <c r="JI6" s="0"/>
+      <c r="JJ6" s="0"/>
+      <c r="JK6" s="0"/>
+      <c r="JL6" s="0"/>
+      <c r="JM6" s="0"/>
+      <c r="JN6" s="0"/>
+      <c r="JO6" s="0"/>
+      <c r="JP6" s="0"/>
+      <c r="JQ6" s="0"/>
+      <c r="JR6" s="0"/>
+      <c r="JS6" s="0"/>
+      <c r="JT6" s="0"/>
+      <c r="JU6" s="0"/>
+      <c r="JV6" s="0"/>
+      <c r="JW6" s="0"/>
+      <c r="JX6" s="0"/>
+      <c r="JY6" s="0"/>
+      <c r="JZ6" s="0"/>
+      <c r="KA6" s="0"/>
+      <c r="KB6" s="0"/>
+      <c r="KC6" s="0"/>
+      <c r="KD6" s="0"/>
+      <c r="KE6" s="0"/>
+      <c r="KF6" s="0"/>
+      <c r="KG6" s="0"/>
+      <c r="KH6" s="0"/>
+      <c r="KI6" s="0"/>
+      <c r="KJ6" s="0"/>
+      <c r="KK6" s="0"/>
+      <c r="KL6" s="0"/>
+      <c r="KM6" s="0"/>
+      <c r="KN6" s="0"/>
+      <c r="KO6" s="0"/>
+      <c r="KP6" s="0"/>
+      <c r="KQ6" s="0"/>
+      <c r="KR6" s="0"/>
+      <c r="KS6" s="0"/>
+      <c r="KT6" s="0"/>
+      <c r="KU6" s="0"/>
+      <c r="KV6" s="0"/>
+      <c r="KW6" s="0"/>
+      <c r="KX6" s="0"/>
+      <c r="KY6" s="0"/>
+      <c r="KZ6" s="0"/>
+      <c r="LA6" s="0"/>
+      <c r="LB6" s="0"/>
+      <c r="LC6" s="0"/>
+      <c r="LD6" s="0"/>
+      <c r="LE6" s="0"/>
+      <c r="LF6" s="0"/>
+      <c r="LG6" s="0"/>
+      <c r="LH6" s="0"/>
+      <c r="LI6" s="0"/>
+      <c r="LJ6" s="0"/>
+      <c r="LK6" s="0"/>
+      <c r="LL6" s="0"/>
+      <c r="LM6" s="0"/>
+      <c r="LN6" s="0"/>
+      <c r="LO6" s="0"/>
+      <c r="LP6" s="0"/>
+      <c r="LQ6" s="0"/>
+      <c r="LR6" s="0"/>
+      <c r="LS6" s="0"/>
+      <c r="LT6" s="0"/>
+      <c r="LU6" s="0"/>
+      <c r="LV6" s="0"/>
+      <c r="LW6" s="0"/>
+      <c r="LX6" s="0"/>
+      <c r="LY6" s="0"/>
+      <c r="LZ6" s="0"/>
+      <c r="MA6" s="0"/>
+      <c r="MB6" s="0"/>
+      <c r="MC6" s="0"/>
+      <c r="MD6" s="0"/>
+      <c r="ME6" s="0"/>
+      <c r="MF6" s="0"/>
+      <c r="MG6" s="0"/>
+      <c r="MH6" s="0"/>
+      <c r="MI6" s="0"/>
+      <c r="MJ6" s="0"/>
+      <c r="MK6" s="0"/>
+      <c r="ML6" s="0"/>
+      <c r="MM6" s="0"/>
+      <c r="MN6" s="0"/>
+      <c r="MO6" s="0"/>
+      <c r="MP6" s="0"/>
+      <c r="MQ6" s="0"/>
+      <c r="MR6" s="0"/>
+      <c r="MS6" s="0"/>
+      <c r="MT6" s="0"/>
+      <c r="MU6" s="0"/>
+      <c r="MV6" s="0"/>
+      <c r="MW6" s="0"/>
+      <c r="MX6" s="0"/>
+      <c r="MY6" s="0"/>
+      <c r="MZ6" s="0"/>
+      <c r="NA6" s="0"/>
+      <c r="NB6" s="0"/>
+      <c r="NC6" s="0"/>
+      <c r="ND6" s="0"/>
+      <c r="NE6" s="0"/>
+      <c r="NF6" s="0"/>
+      <c r="NG6" s="0"/>
+      <c r="NH6" s="0"/>
+      <c r="NI6" s="0"/>
+      <c r="NJ6" s="0"/>
+      <c r="NK6" s="0"/>
+      <c r="NL6" s="0"/>
+      <c r="NM6" s="0"/>
+      <c r="NN6" s="0"/>
+      <c r="NO6" s="0"/>
+      <c r="NP6" s="0"/>
+      <c r="NQ6" s="0"/>
+      <c r="NR6" s="0"/>
+      <c r="NS6" s="0"/>
+      <c r="NT6" s="0"/>
+      <c r="NU6" s="0"/>
+      <c r="NV6" s="0"/>
+      <c r="NW6" s="0"/>
+      <c r="NX6" s="0"/>
+      <c r="NY6" s="0"/>
+      <c r="NZ6" s="0"/>
+      <c r="OA6" s="0"/>
+      <c r="OB6" s="0"/>
+      <c r="OC6" s="0"/>
+      <c r="OD6" s="0"/>
+      <c r="OE6" s="0"/>
+      <c r="OF6" s="0"/>
+      <c r="OG6" s="0"/>
+      <c r="OH6" s="0"/>
+      <c r="OI6" s="0"/>
+      <c r="OJ6" s="0"/>
+      <c r="OK6" s="0"/>
+      <c r="OL6" s="0"/>
+      <c r="OM6" s="0"/>
+      <c r="ON6" s="0"/>
+      <c r="OO6" s="0"/>
+      <c r="OP6" s="0"/>
+      <c r="OQ6" s="0"/>
+      <c r="OR6" s="0"/>
+      <c r="OS6" s="0"/>
+      <c r="OT6" s="0"/>
+      <c r="OU6" s="0"/>
+      <c r="OV6" s="0"/>
+      <c r="OW6" s="0"/>
+      <c r="OX6" s="0"/>
+      <c r="OY6" s="0"/>
+      <c r="OZ6" s="0"/>
+      <c r="PA6" s="0"/>
+      <c r="PB6" s="0"/>
+      <c r="PC6" s="0"/>
+      <c r="PD6" s="0"/>
+      <c r="PE6" s="0"/>
+      <c r="PF6" s="0"/>
+      <c r="PG6" s="0"/>
+      <c r="PH6" s="0"/>
+      <c r="PI6" s="0"/>
+      <c r="PJ6" s="0"/>
+      <c r="PK6" s="0"/>
+      <c r="PL6" s="0"/>
+      <c r="PM6" s="0"/>
+      <c r="PN6" s="0"/>
+      <c r="PO6" s="0"/>
+      <c r="PP6" s="0"/>
+      <c r="PQ6" s="0"/>
+      <c r="PR6" s="0"/>
+      <c r="PS6" s="0"/>
+      <c r="PT6" s="0"/>
+      <c r="PU6" s="0"/>
+      <c r="PV6" s="0"/>
+      <c r="PW6" s="0"/>
+      <c r="PX6" s="0"/>
+      <c r="PY6" s="0"/>
+      <c r="PZ6" s="0"/>
+      <c r="QA6" s="0"/>
+      <c r="QB6" s="0"/>
+      <c r="QC6" s="0"/>
+      <c r="QD6" s="0"/>
+      <c r="QE6" s="0"/>
+      <c r="QF6" s="0"/>
+      <c r="QG6" s="0"/>
+      <c r="QH6" s="0"/>
+      <c r="QI6" s="0"/>
+      <c r="QJ6" s="0"/>
+      <c r="QK6" s="0"/>
+      <c r="QL6" s="0"/>
+      <c r="QM6" s="0"/>
+      <c r="QN6" s="0"/>
+      <c r="QO6" s="0"/>
+      <c r="QP6" s="0"/>
+      <c r="QQ6" s="0"/>
+      <c r="QR6" s="0"/>
+      <c r="QS6" s="0"/>
+      <c r="QT6" s="0"/>
+      <c r="QU6" s="0"/>
+      <c r="QV6" s="0"/>
+      <c r="QW6" s="0"/>
+      <c r="QX6" s="0"/>
+      <c r="QY6" s="0"/>
+      <c r="QZ6" s="0"/>
+      <c r="RA6" s="0"/>
+      <c r="RB6" s="0"/>
+      <c r="RC6" s="0"/>
+      <c r="RD6" s="0"/>
+      <c r="RE6" s="0"/>
+      <c r="RF6" s="0"/>
+      <c r="RG6" s="0"/>
+      <c r="RH6" s="0"/>
+      <c r="RI6" s="0"/>
+      <c r="RJ6" s="0"/>
+      <c r="RK6" s="0"/>
+      <c r="RL6" s="0"/>
+      <c r="RM6" s="0"/>
+      <c r="RN6" s="0"/>
+      <c r="RO6" s="0"/>
+      <c r="RP6" s="0"/>
+      <c r="RQ6" s="0"/>
+      <c r="RR6" s="0"/>
+      <c r="RS6" s="0"/>
+      <c r="RT6" s="0"/>
+      <c r="RU6" s="0"/>
+      <c r="RV6" s="0"/>
+      <c r="RW6" s="0"/>
+      <c r="RX6" s="0"/>
+      <c r="RY6" s="0"/>
+      <c r="RZ6" s="0"/>
+      <c r="SA6" s="0"/>
+      <c r="SB6" s="0"/>
+      <c r="SC6" s="0"/>
+      <c r="SD6" s="0"/>
+      <c r="SE6" s="0"/>
+      <c r="SF6" s="0"/>
+      <c r="SG6" s="0"/>
+      <c r="SH6" s="0"/>
+      <c r="SI6" s="0"/>
+      <c r="SJ6" s="0"/>
+      <c r="SK6" s="0"/>
+      <c r="SL6" s="0"/>
+      <c r="SM6" s="0"/>
+      <c r="SN6" s="0"/>
+      <c r="SO6" s="0"/>
+      <c r="SP6" s="0"/>
+      <c r="SQ6" s="0"/>
+      <c r="SR6" s="0"/>
+      <c r="SS6" s="0"/>
+      <c r="ST6" s="0"/>
+      <c r="SU6" s="0"/>
+      <c r="SV6" s="0"/>
+      <c r="SW6" s="0"/>
+      <c r="SX6" s="0"/>
+      <c r="SY6" s="0"/>
+      <c r="SZ6" s="0"/>
+      <c r="TA6" s="0"/>
+      <c r="TB6" s="0"/>
+      <c r="TC6" s="0"/>
+      <c r="TD6" s="0"/>
+      <c r="TE6" s="0"/>
+      <c r="TF6" s="0"/>
+      <c r="TG6" s="0"/>
+      <c r="TH6" s="0"/>
+      <c r="TI6" s="0"/>
+      <c r="TJ6" s="0"/>
+      <c r="TK6" s="0"/>
+      <c r="TL6" s="0"/>
+      <c r="TM6" s="0"/>
+      <c r="TN6" s="0"/>
+      <c r="TO6" s="0"/>
+      <c r="TP6" s="0"/>
+      <c r="TQ6" s="0"/>
+      <c r="TR6" s="0"/>
+      <c r="TS6" s="0"/>
+      <c r="TT6" s="0"/>
+      <c r="TU6" s="0"/>
+      <c r="TV6" s="0"/>
+      <c r="TW6" s="0"/>
+      <c r="TX6" s="0"/>
+      <c r="TY6" s="0"/>
+      <c r="TZ6" s="0"/>
+      <c r="UA6" s="0"/>
+      <c r="UB6" s="0"/>
+      <c r="UC6" s="0"/>
+      <c r="UD6" s="0"/>
+      <c r="UE6" s="0"/>
+      <c r="UF6" s="0"/>
+      <c r="UG6" s="0"/>
+      <c r="UH6" s="0"/>
+      <c r="UI6" s="0"/>
+      <c r="UJ6" s="0"/>
+      <c r="UK6" s="0"/>
+      <c r="UL6" s="0"/>
+      <c r="UM6" s="0"/>
+      <c r="UN6" s="0"/>
+      <c r="UO6" s="0"/>
+      <c r="UP6" s="0"/>
+      <c r="UQ6" s="0"/>
+      <c r="UR6" s="0"/>
+      <c r="US6" s="0"/>
+      <c r="UT6" s="0"/>
+      <c r="UU6" s="0"/>
+      <c r="UV6" s="0"/>
+      <c r="UW6" s="0"/>
+      <c r="UX6" s="0"/>
+      <c r="UY6" s="0"/>
+      <c r="UZ6" s="0"/>
+      <c r="VA6" s="0"/>
+      <c r="VB6" s="0"/>
+      <c r="VC6" s="0"/>
+      <c r="VD6" s="0"/>
+      <c r="VE6" s="0"/>
+      <c r="VF6" s="0"/>
+      <c r="VG6" s="0"/>
+      <c r="VH6" s="0"/>
+      <c r="VI6" s="0"/>
+      <c r="VJ6" s="0"/>
+      <c r="VK6" s="0"/>
+      <c r="VL6" s="0"/>
+      <c r="VM6" s="0"/>
+      <c r="VN6" s="0"/>
+      <c r="VO6" s="0"/>
+      <c r="VP6" s="0"/>
+      <c r="VQ6" s="0"/>
+      <c r="VR6" s="0"/>
+      <c r="VS6" s="0"/>
+      <c r="VT6" s="0"/>
+      <c r="VU6" s="0"/>
+      <c r="VV6" s="0"/>
+      <c r="VW6" s="0"/>
+      <c r="VX6" s="0"/>
+      <c r="VY6" s="0"/>
+      <c r="VZ6" s="0"/>
+      <c r="WA6" s="0"/>
+      <c r="WB6" s="0"/>
+      <c r="WC6" s="0"/>
+      <c r="WD6" s="0"/>
+      <c r="WE6" s="0"/>
+      <c r="WF6" s="0"/>
+      <c r="WG6" s="0"/>
+      <c r="WH6" s="0"/>
+      <c r="WI6" s="0"/>
+      <c r="WJ6" s="0"/>
+      <c r="WK6" s="0"/>
+      <c r="WL6" s="0"/>
+      <c r="WM6" s="0"/>
+      <c r="WN6" s="0"/>
+      <c r="WO6" s="0"/>
+      <c r="WP6" s="0"/>
+      <c r="WQ6" s="0"/>
+      <c r="WR6" s="0"/>
+      <c r="WS6" s="0"/>
+      <c r="WT6" s="0"/>
+      <c r="WU6" s="0"/>
+      <c r="WV6" s="0"/>
+      <c r="WW6" s="0"/>
+      <c r="WX6" s="0"/>
+      <c r="WY6" s="0"/>
+      <c r="WZ6" s="0"/>
+      <c r="XA6" s="0"/>
+      <c r="XB6" s="0"/>
+      <c r="XC6" s="0"/>
+      <c r="XD6" s="0"/>
+      <c r="XE6" s="0"/>
+      <c r="XF6" s="0"/>
+      <c r="XG6" s="0"/>
+      <c r="XH6" s="0"/>
+      <c r="XI6" s="0"/>
+      <c r="XJ6" s="0"/>
+      <c r="XK6" s="0"/>
+      <c r="XL6" s="0"/>
+      <c r="XM6" s="0"/>
+      <c r="XN6" s="0"/>
+      <c r="XO6" s="0"/>
+      <c r="XP6" s="0"/>
+      <c r="XQ6" s="0"/>
+      <c r="XR6" s="0"/>
+      <c r="XS6" s="0"/>
+      <c r="XT6" s="0"/>
+      <c r="XU6" s="0"/>
+      <c r="XV6" s="0"/>
+      <c r="XW6" s="0"/>
+      <c r="XX6" s="0"/>
+      <c r="XY6" s="0"/>
+      <c r="XZ6" s="0"/>
+      <c r="YA6" s="0"/>
+      <c r="YB6" s="0"/>
+      <c r="YC6" s="0"/>
+      <c r="YD6" s="0"/>
+      <c r="YE6" s="0"/>
+      <c r="YF6" s="0"/>
+      <c r="YG6" s="0"/>
+      <c r="YH6" s="0"/>
+      <c r="YI6" s="0"/>
+      <c r="YJ6" s="0"/>
+      <c r="YK6" s="0"/>
+      <c r="YL6" s="0"/>
+      <c r="YM6" s="0"/>
+      <c r="YN6" s="0"/>
+      <c r="YO6" s="0"/>
+      <c r="YP6" s="0"/>
+      <c r="YQ6" s="0"/>
+      <c r="YR6" s="0"/>
+      <c r="YS6" s="0"/>
+      <c r="YT6" s="0"/>
+      <c r="YU6" s="0"/>
+      <c r="YV6" s="0"/>
+      <c r="YW6" s="0"/>
+      <c r="YX6" s="0"/>
+      <c r="YY6" s="0"/>
+      <c r="YZ6" s="0"/>
+      <c r="ZA6" s="0"/>
+      <c r="ZB6" s="0"/>
+      <c r="ZC6" s="0"/>
+      <c r="ZD6" s="0"/>
+      <c r="ZE6" s="0"/>
+      <c r="ZF6" s="0"/>
+      <c r="ZG6" s="0"/>
+      <c r="ZH6" s="0"/>
+      <c r="ZI6" s="0"/>
+      <c r="ZJ6" s="0"/>
+      <c r="ZK6" s="0"/>
+      <c r="ZL6" s="0"/>
+      <c r="ZM6" s="0"/>
+      <c r="ZN6" s="0"/>
+      <c r="ZO6" s="0"/>
+      <c r="ZP6" s="0"/>
+      <c r="ZQ6" s="0"/>
+      <c r="ZR6" s="0"/>
+      <c r="ZS6" s="0"/>
+      <c r="ZT6" s="0"/>
+      <c r="ZU6" s="0"/>
+      <c r="ZV6" s="0"/>
+      <c r="ZW6" s="0"/>
+      <c r="ZX6" s="0"/>
+      <c r="ZY6" s="0"/>
+      <c r="ZZ6" s="0"/>
+      <c r="AAA6" s="0"/>
+      <c r="AAB6" s="0"/>
+      <c r="AAC6" s="0"/>
+      <c r="AAD6" s="0"/>
+      <c r="AAE6" s="0"/>
+      <c r="AAF6" s="0"/>
+      <c r="AAG6" s="0"/>
+      <c r="AAH6" s="0"/>
+      <c r="AAI6" s="0"/>
+      <c r="AAJ6" s="0"/>
+      <c r="AAK6" s="0"/>
+      <c r="AAL6" s="0"/>
+      <c r="AAM6" s="0"/>
+      <c r="AAN6" s="0"/>
+      <c r="AAO6" s="0"/>
+      <c r="AAP6" s="0"/>
+      <c r="AAQ6" s="0"/>
+      <c r="AAR6" s="0"/>
+      <c r="AAS6" s="0"/>
+      <c r="AAT6" s="0"/>
+      <c r="AAU6" s="0"/>
+      <c r="AAV6" s="0"/>
+      <c r="AAW6" s="0"/>
+      <c r="AAX6" s="0"/>
+      <c r="AAY6" s="0"/>
+      <c r="AAZ6" s="0"/>
+      <c r="ABA6" s="0"/>
+      <c r="ABB6" s="0"/>
+      <c r="ABC6" s="0"/>
+      <c r="ABD6" s="0"/>
+      <c r="ABE6" s="0"/>
+      <c r="ABF6" s="0"/>
+      <c r="ABG6" s="0"/>
+      <c r="ABH6" s="0"/>
+      <c r="ABI6" s="0"/>
+      <c r="ABJ6" s="0"/>
+      <c r="ABK6" s="0"/>
+      <c r="ABL6" s="0"/>
+      <c r="ABM6" s="0"/>
+      <c r="ABN6" s="0"/>
+      <c r="ABO6" s="0"/>
+      <c r="ABP6" s="0"/>
+      <c r="ABQ6" s="0"/>
+      <c r="ABR6" s="0"/>
+      <c r="ABS6" s="0"/>
+      <c r="ABT6" s="0"/>
+      <c r="ABU6" s="0"/>
+      <c r="ABV6" s="0"/>
+      <c r="ABW6" s="0"/>
+      <c r="ABX6" s="0"/>
+      <c r="ABY6" s="0"/>
+      <c r="ABZ6" s="0"/>
+      <c r="ACA6" s="0"/>
+      <c r="ACB6" s="0"/>
+      <c r="ACC6" s="0"/>
+      <c r="ACD6" s="0"/>
+      <c r="ACE6" s="0"/>
+      <c r="ACF6" s="0"/>
+      <c r="ACG6" s="0"/>
+      <c r="ACH6" s="0"/>
+      <c r="ACI6" s="0"/>
+      <c r="ACJ6" s="0"/>
+      <c r="ACK6" s="0"/>
+      <c r="ACL6" s="0"/>
+      <c r="ACM6" s="0"/>
+      <c r="ACN6" s="0"/>
+      <c r="ACO6" s="0"/>
+      <c r="ACP6" s="0"/>
+      <c r="ACQ6" s="0"/>
+      <c r="ACR6" s="0"/>
+      <c r="ACS6" s="0"/>
+      <c r="ACT6" s="0"/>
+      <c r="ACU6" s="0"/>
+      <c r="ACV6" s="0"/>
+      <c r="ACW6" s="0"/>
+      <c r="ACX6" s="0"/>
+      <c r="ACY6" s="0"/>
+      <c r="ACZ6" s="0"/>
+      <c r="ADA6" s="0"/>
+      <c r="ADB6" s="0"/>
+      <c r="ADC6" s="0"/>
+      <c r="ADD6" s="0"/>
+      <c r="ADE6" s="0"/>
+      <c r="ADF6" s="0"/>
+      <c r="ADG6" s="0"/>
+      <c r="ADH6" s="0"/>
+      <c r="ADI6" s="0"/>
+      <c r="ADJ6" s="0"/>
+      <c r="ADK6" s="0"/>
+      <c r="ADL6" s="0"/>
+      <c r="ADM6" s="0"/>
+      <c r="ADN6" s="0"/>
+      <c r="ADO6" s="0"/>
+      <c r="ADP6" s="0"/>
+      <c r="ADQ6" s="0"/>
+      <c r="ADR6" s="0"/>
+      <c r="ADS6" s="0"/>
+      <c r="ADT6" s="0"/>
+      <c r="ADU6" s="0"/>
+      <c r="ADV6" s="0"/>
+      <c r="ADW6" s="0"/>
+      <c r="ADX6" s="0"/>
+      <c r="ADY6" s="0"/>
+      <c r="ADZ6" s="0"/>
+      <c r="AEA6" s="0"/>
+      <c r="AEB6" s="0"/>
+      <c r="AEC6" s="0"/>
+      <c r="AED6" s="0"/>
+      <c r="AEE6" s="0"/>
+      <c r="AEF6" s="0"/>
+      <c r="AEG6" s="0"/>
+      <c r="AEH6" s="0"/>
+      <c r="AEI6" s="0"/>
+      <c r="AEJ6" s="0"/>
+      <c r="AEK6" s="0"/>
+      <c r="AEL6" s="0"/>
+      <c r="AEM6" s="0"/>
+      <c r="AEN6" s="0"/>
+      <c r="AEO6" s="0"/>
+      <c r="AEP6" s="0"/>
+      <c r="AEQ6" s="0"/>
+      <c r="AER6" s="0"/>
+      <c r="AES6" s="0"/>
+      <c r="AET6" s="0"/>
+      <c r="AEU6" s="0"/>
+      <c r="AEV6" s="0"/>
+      <c r="AEW6" s="0"/>
+      <c r="AEX6" s="0"/>
+      <c r="AEY6" s="0"/>
+      <c r="AEZ6" s="0"/>
+      <c r="AFA6" s="0"/>
+      <c r="AFB6" s="0"/>
+      <c r="AFC6" s="0"/>
+      <c r="AFD6" s="0"/>
+      <c r="AFE6" s="0"/>
+      <c r="AFF6" s="0"/>
+      <c r="AFG6" s="0"/>
+      <c r="AFH6" s="0"/>
+      <c r="AFI6" s="0"/>
+      <c r="AFJ6" s="0"/>
+      <c r="AFK6" s="0"/>
+      <c r="AFL6" s="0"/>
+      <c r="AFM6" s="0"/>
+      <c r="AFN6" s="0"/>
+      <c r="AFO6" s="0"/>
+      <c r="AFP6" s="0"/>
+      <c r="AFQ6" s="0"/>
+      <c r="AFR6" s="0"/>
+      <c r="AFS6" s="0"/>
+      <c r="AFT6" s="0"/>
+      <c r="AFU6" s="0"/>
+      <c r="AFV6" s="0"/>
+      <c r="AFW6" s="0"/>
+      <c r="AFX6" s="0"/>
+      <c r="AFY6" s="0"/>
+      <c r="AFZ6" s="0"/>
+      <c r="AGA6" s="0"/>
+      <c r="AGB6" s="0"/>
+      <c r="AGC6" s="0"/>
+      <c r="AGD6" s="0"/>
+      <c r="AGE6" s="0"/>
+      <c r="AGF6" s="0"/>
+      <c r="AGG6" s="0"/>
+      <c r="AGH6" s="0"/>
+      <c r="AGI6" s="0"/>
+      <c r="AGJ6" s="0"/>
+      <c r="AGK6" s="0"/>
+      <c r="AGL6" s="0"/>
+      <c r="AGM6" s="0"/>
+      <c r="AGN6" s="0"/>
+      <c r="AGO6" s="0"/>
+      <c r="AGP6" s="0"/>
+      <c r="AGQ6" s="0"/>
+      <c r="AGR6" s="0"/>
+      <c r="AGS6" s="0"/>
+      <c r="AGT6" s="0"/>
+      <c r="AGU6" s="0"/>
+      <c r="AGV6" s="0"/>
+      <c r="AGW6" s="0"/>
+      <c r="AGX6" s="0"/>
+      <c r="AGY6" s="0"/>
+      <c r="AGZ6" s="0"/>
+      <c r="AHA6" s="0"/>
+      <c r="AHB6" s="0"/>
+      <c r="AHC6" s="0"/>
+      <c r="AHD6" s="0"/>
+      <c r="AHE6" s="0"/>
+      <c r="AHF6" s="0"/>
+      <c r="AHG6" s="0"/>
+      <c r="AHH6" s="0"/>
+      <c r="AHI6" s="0"/>
+      <c r="AHJ6" s="0"/>
+      <c r="AHK6" s="0"/>
+      <c r="AHL6" s="0"/>
+      <c r="AHM6" s="0"/>
+      <c r="AHN6" s="0"/>
+      <c r="AHO6" s="0"/>
+      <c r="AHP6" s="0"/>
+      <c r="AHQ6" s="0"/>
+      <c r="AHR6" s="0"/>
+      <c r="AHS6" s="0"/>
+      <c r="AHT6" s="0"/>
+      <c r="AHU6" s="0"/>
+      <c r="AHV6" s="0"/>
+      <c r="AHW6" s="0"/>
+      <c r="AHX6" s="0"/>
+      <c r="AHY6" s="0"/>
+      <c r="AHZ6" s="0"/>
+      <c r="AIA6" s="0"/>
+      <c r="AIB6" s="0"/>
+      <c r="AIC6" s="0"/>
+      <c r="AID6" s="0"/>
+      <c r="AIE6" s="0"/>
+      <c r="AIF6" s="0"/>
+      <c r="AIG6" s="0"/>
+      <c r="AIH6" s="0"/>
+      <c r="AII6" s="0"/>
+      <c r="AIJ6" s="0"/>
+      <c r="AIK6" s="0"/>
+      <c r="AIL6" s="0"/>
+      <c r="AIM6" s="0"/>
+      <c r="AIN6" s="0"/>
+      <c r="AIO6" s="0"/>
+      <c r="AIP6" s="0"/>
+      <c r="AIQ6" s="0"/>
+      <c r="AIR6" s="0"/>
+      <c r="AIS6" s="0"/>
+      <c r="AIT6" s="0"/>
+      <c r="AIU6" s="0"/>
+      <c r="AIV6" s="0"/>
+      <c r="AIW6" s="0"/>
+      <c r="AIX6" s="0"/>
+      <c r="AIY6" s="0"/>
+      <c r="AIZ6" s="0"/>
+      <c r="AJA6" s="0"/>
+      <c r="AJB6" s="0"/>
+      <c r="AJC6" s="0"/>
+      <c r="AJD6" s="0"/>
+      <c r="AJE6" s="0"/>
+      <c r="AJF6" s="0"/>
+      <c r="AJG6" s="0"/>
+      <c r="AJH6" s="0"/>
+      <c r="AJI6" s="0"/>
+      <c r="AJJ6" s="0"/>
+      <c r="AJK6" s="0"/>
+      <c r="AJL6" s="0"/>
+      <c r="AJM6" s="0"/>
+      <c r="AJN6" s="0"/>
+      <c r="AJO6" s="0"/>
+      <c r="AJP6" s="0"/>
+      <c r="AJQ6" s="0"/>
+      <c r="AJR6" s="0"/>
+      <c r="AJS6" s="0"/>
+      <c r="AJT6" s="0"/>
+      <c r="AJU6" s="0"/>
+      <c r="AJV6" s="0"/>
+      <c r="AJW6" s="0"/>
+      <c r="AJX6" s="0"/>
+      <c r="AJY6" s="0"/>
+      <c r="AJZ6" s="0"/>
+      <c r="AKA6" s="0"/>
+      <c r="AKB6" s="0"/>
+      <c r="AKC6" s="0"/>
+      <c r="AKD6" s="0"/>
+      <c r="AKE6" s="0"/>
+      <c r="AKF6" s="0"/>
+      <c r="AKG6" s="0"/>
+      <c r="AKH6" s="0"/>
+      <c r="AKI6" s="0"/>
+      <c r="AKJ6" s="0"/>
+      <c r="AKK6" s="0"/>
+      <c r="AKL6" s="0"/>
+      <c r="AKM6" s="0"/>
+      <c r="AKN6" s="0"/>
+      <c r="AKO6" s="0"/>
+      <c r="AKP6" s="0"/>
+      <c r="AKQ6" s="0"/>
+      <c r="AKR6" s="0"/>
+      <c r="AKS6" s="0"/>
+      <c r="AKT6" s="0"/>
+      <c r="AKU6" s="0"/>
+      <c r="AKV6" s="0"/>
+      <c r="AKW6" s="0"/>
+      <c r="AKX6" s="0"/>
+      <c r="AKY6" s="0"/>
+      <c r="AKZ6" s="0"/>
+      <c r="ALA6" s="0"/>
+      <c r="ALB6" s="0"/>
+      <c r="ALC6" s="0"/>
+      <c r="ALD6" s="0"/>
+      <c r="ALE6" s="0"/>
+      <c r="ALF6" s="0"/>
+      <c r="ALG6" s="0"/>
+      <c r="ALH6" s="0"/>
+      <c r="ALI6" s="0"/>
+      <c r="ALJ6" s="0"/>
+      <c r="ALK6" s="0"/>
+      <c r="ALL6" s="0"/>
+      <c r="ALM6" s="0"/>
+      <c r="ALN6" s="0"/>
+      <c r="ALO6" s="0"/>
+      <c r="ALP6" s="0"/>
+      <c r="ALQ6" s="0"/>
+      <c r="ALR6" s="0"/>
+      <c r="ALS6" s="0"/>
+      <c r="ALT6" s="0"/>
+      <c r="ALU6" s="0"/>
+      <c r="ALV6" s="0"/>
+      <c r="ALW6" s="0"/>
+      <c r="ALX6" s="0"/>
+      <c r="ALY6" s="0"/>
+      <c r="ALZ6" s="0"/>
+      <c r="AMA6" s="0"/>
+      <c r="AMB6" s="0"/>
+      <c r="AMC6" s="0"/>
+      <c r="AMD6" s="0"/>
+      <c r="AME6" s="0"/>
+      <c r="AMF6" s="0"/>
+      <c r="AMG6" s="0"/>
+      <c r="AMH6" s="0"/>
+      <c r="AMI6" s="0"/>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -4918,6 +8203,1017 @@
       <c r="K7" s="2" t="s">
         <v>257</v>
       </c>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="0"/>
+      <c r="AK7" s="0"/>
+      <c r="AL7" s="0"/>
+      <c r="AM7" s="0"/>
+      <c r="AN7" s="0"/>
+      <c r="AO7" s="0"/>
+      <c r="AP7" s="0"/>
+      <c r="AQ7" s="0"/>
+      <c r="AR7" s="0"/>
+      <c r="AS7" s="0"/>
+      <c r="AT7" s="0"/>
+      <c r="AU7" s="0"/>
+      <c r="AV7" s="0"/>
+      <c r="AW7" s="0"/>
+      <c r="AX7" s="0"/>
+      <c r="AY7" s="0"/>
+      <c r="AZ7" s="0"/>
+      <c r="BA7" s="0"/>
+      <c r="BB7" s="0"/>
+      <c r="BC7" s="0"/>
+      <c r="BD7" s="0"/>
+      <c r="BE7" s="0"/>
+      <c r="BF7" s="0"/>
+      <c r="BG7" s="0"/>
+      <c r="BH7" s="0"/>
+      <c r="BI7" s="0"/>
+      <c r="BJ7" s="0"/>
+      <c r="BK7" s="0"/>
+      <c r="BL7" s="0"/>
+      <c r="BM7" s="0"/>
+      <c r="BN7" s="0"/>
+      <c r="BO7" s="0"/>
+      <c r="BP7" s="0"/>
+      <c r="BQ7" s="0"/>
+      <c r="BR7" s="0"/>
+      <c r="BS7" s="0"/>
+      <c r="BT7" s="0"/>
+      <c r="BU7" s="0"/>
+      <c r="BV7" s="0"/>
+      <c r="BW7" s="0"/>
+      <c r="BX7" s="0"/>
+      <c r="BY7" s="0"/>
+      <c r="BZ7" s="0"/>
+      <c r="CA7" s="0"/>
+      <c r="CB7" s="0"/>
+      <c r="CC7" s="0"/>
+      <c r="CD7" s="0"/>
+      <c r="CE7" s="0"/>
+      <c r="CF7" s="0"/>
+      <c r="CG7" s="0"/>
+      <c r="CH7" s="0"/>
+      <c r="CI7" s="0"/>
+      <c r="CJ7" s="0"/>
+      <c r="CK7" s="0"/>
+      <c r="CL7" s="0"/>
+      <c r="CM7" s="0"/>
+      <c r="CN7" s="0"/>
+      <c r="CO7" s="0"/>
+      <c r="CP7" s="0"/>
+      <c r="CQ7" s="0"/>
+      <c r="CR7" s="0"/>
+      <c r="CS7" s="0"/>
+      <c r="CT7" s="0"/>
+      <c r="CU7" s="0"/>
+      <c r="CV7" s="0"/>
+      <c r="CW7" s="0"/>
+      <c r="CX7" s="0"/>
+      <c r="CY7" s="0"/>
+      <c r="CZ7" s="0"/>
+      <c r="DA7" s="0"/>
+      <c r="DB7" s="0"/>
+      <c r="DC7" s="0"/>
+      <c r="DD7" s="0"/>
+      <c r="DE7" s="0"/>
+      <c r="DF7" s="0"/>
+      <c r="DG7" s="0"/>
+      <c r="DH7" s="0"/>
+      <c r="DI7" s="0"/>
+      <c r="DJ7" s="0"/>
+      <c r="DK7" s="0"/>
+      <c r="DL7" s="0"/>
+      <c r="DM7" s="0"/>
+      <c r="DN7" s="0"/>
+      <c r="DO7" s="0"/>
+      <c r="DP7" s="0"/>
+      <c r="DQ7" s="0"/>
+      <c r="DR7" s="0"/>
+      <c r="DS7" s="0"/>
+      <c r="DT7" s="0"/>
+      <c r="DU7" s="0"/>
+      <c r="DV7" s="0"/>
+      <c r="DW7" s="0"/>
+      <c r="DX7" s="0"/>
+      <c r="DY7" s="0"/>
+      <c r="DZ7" s="0"/>
+      <c r="EA7" s="0"/>
+      <c r="EB7" s="0"/>
+      <c r="EC7" s="0"/>
+      <c r="ED7" s="0"/>
+      <c r="EE7" s="0"/>
+      <c r="EF7" s="0"/>
+      <c r="EG7" s="0"/>
+      <c r="EH7" s="0"/>
+      <c r="EI7" s="0"/>
+      <c r="EJ7" s="0"/>
+      <c r="EK7" s="0"/>
+      <c r="EL7" s="0"/>
+      <c r="EM7" s="0"/>
+      <c r="EN7" s="0"/>
+      <c r="EO7" s="0"/>
+      <c r="EP7" s="0"/>
+      <c r="EQ7" s="0"/>
+      <c r="ER7" s="0"/>
+      <c r="ES7" s="0"/>
+      <c r="ET7" s="0"/>
+      <c r="EU7" s="0"/>
+      <c r="EV7" s="0"/>
+      <c r="EW7" s="0"/>
+      <c r="EX7" s="0"/>
+      <c r="EY7" s="0"/>
+      <c r="EZ7" s="0"/>
+      <c r="FA7" s="0"/>
+      <c r="FB7" s="0"/>
+      <c r="FC7" s="0"/>
+      <c r="FD7" s="0"/>
+      <c r="FE7" s="0"/>
+      <c r="FF7" s="0"/>
+      <c r="FG7" s="0"/>
+      <c r="FH7" s="0"/>
+      <c r="FI7" s="0"/>
+      <c r="FJ7" s="0"/>
+      <c r="FK7" s="0"/>
+      <c r="FL7" s="0"/>
+      <c r="FM7" s="0"/>
+      <c r="FN7" s="0"/>
+      <c r="FO7" s="0"/>
+      <c r="FP7" s="0"/>
+      <c r="FQ7" s="0"/>
+      <c r="FR7" s="0"/>
+      <c r="FS7" s="0"/>
+      <c r="FT7" s="0"/>
+      <c r="FU7" s="0"/>
+      <c r="FV7" s="0"/>
+      <c r="FW7" s="0"/>
+      <c r="FX7" s="0"/>
+      <c r="FY7" s="0"/>
+      <c r="FZ7" s="0"/>
+      <c r="GA7" s="0"/>
+      <c r="GB7" s="0"/>
+      <c r="GC7" s="0"/>
+      <c r="GD7" s="0"/>
+      <c r="GE7" s="0"/>
+      <c r="GF7" s="0"/>
+      <c r="GG7" s="0"/>
+      <c r="GH7" s="0"/>
+      <c r="GI7" s="0"/>
+      <c r="GJ7" s="0"/>
+      <c r="GK7" s="0"/>
+      <c r="GL7" s="0"/>
+      <c r="GM7" s="0"/>
+      <c r="GN7" s="0"/>
+      <c r="GO7" s="0"/>
+      <c r="GP7" s="0"/>
+      <c r="GQ7" s="0"/>
+      <c r="GR7" s="0"/>
+      <c r="GS7" s="0"/>
+      <c r="GT7" s="0"/>
+      <c r="GU7" s="0"/>
+      <c r="GV7" s="0"/>
+      <c r="GW7" s="0"/>
+      <c r="GX7" s="0"/>
+      <c r="GY7" s="0"/>
+      <c r="GZ7" s="0"/>
+      <c r="HA7" s="0"/>
+      <c r="HB7" s="0"/>
+      <c r="HC7" s="0"/>
+      <c r="HD7" s="0"/>
+      <c r="HE7" s="0"/>
+      <c r="HF7" s="0"/>
+      <c r="HG7" s="0"/>
+      <c r="HH7" s="0"/>
+      <c r="HI7" s="0"/>
+      <c r="HJ7" s="0"/>
+      <c r="HK7" s="0"/>
+      <c r="HL7" s="0"/>
+      <c r="HM7" s="0"/>
+      <c r="HN7" s="0"/>
+      <c r="HO7" s="0"/>
+      <c r="HP7" s="0"/>
+      <c r="HQ7" s="0"/>
+      <c r="HR7" s="0"/>
+      <c r="HS7" s="0"/>
+      <c r="HT7" s="0"/>
+      <c r="HU7" s="0"/>
+      <c r="HV7" s="0"/>
+      <c r="HW7" s="0"/>
+      <c r="HX7" s="0"/>
+      <c r="HY7" s="0"/>
+      <c r="HZ7" s="0"/>
+      <c r="IA7" s="0"/>
+      <c r="IB7" s="0"/>
+      <c r="IC7" s="0"/>
+      <c r="ID7" s="0"/>
+      <c r="IE7" s="0"/>
+      <c r="IF7" s="0"/>
+      <c r="IG7" s="0"/>
+      <c r="IH7" s="0"/>
+      <c r="II7" s="0"/>
+      <c r="IJ7" s="0"/>
+      <c r="IK7" s="0"/>
+      <c r="IL7" s="0"/>
+      <c r="IM7" s="0"/>
+      <c r="IN7" s="0"/>
+      <c r="IO7" s="0"/>
+      <c r="IP7" s="0"/>
+      <c r="IQ7" s="0"/>
+      <c r="IR7" s="0"/>
+      <c r="IS7" s="0"/>
+      <c r="IT7" s="0"/>
+      <c r="IU7" s="0"/>
+      <c r="IV7" s="0"/>
+      <c r="IW7" s="0"/>
+      <c r="IX7" s="0"/>
+      <c r="IY7" s="0"/>
+      <c r="IZ7" s="0"/>
+      <c r="JA7" s="0"/>
+      <c r="JB7" s="0"/>
+      <c r="JC7" s="0"/>
+      <c r="JD7" s="0"/>
+      <c r="JE7" s="0"/>
+      <c r="JF7" s="0"/>
+      <c r="JG7" s="0"/>
+      <c r="JH7" s="0"/>
+      <c r="JI7" s="0"/>
+      <c r="JJ7" s="0"/>
+      <c r="JK7" s="0"/>
+      <c r="JL7" s="0"/>
+      <c r="JM7" s="0"/>
+      <c r="JN7" s="0"/>
+      <c r="JO7" s="0"/>
+      <c r="JP7" s="0"/>
+      <c r="JQ7" s="0"/>
+      <c r="JR7" s="0"/>
+      <c r="JS7" s="0"/>
+      <c r="JT7" s="0"/>
+      <c r="JU7" s="0"/>
+      <c r="JV7" s="0"/>
+      <c r="JW7" s="0"/>
+      <c r="JX7" s="0"/>
+      <c r="JY7" s="0"/>
+      <c r="JZ7" s="0"/>
+      <c r="KA7" s="0"/>
+      <c r="KB7" s="0"/>
+      <c r="KC7" s="0"/>
+      <c r="KD7" s="0"/>
+      <c r="KE7" s="0"/>
+      <c r="KF7" s="0"/>
+      <c r="KG7" s="0"/>
+      <c r="KH7" s="0"/>
+      <c r="KI7" s="0"/>
+      <c r="KJ7" s="0"/>
+      <c r="KK7" s="0"/>
+      <c r="KL7" s="0"/>
+      <c r="KM7" s="0"/>
+      <c r="KN7" s="0"/>
+      <c r="KO7" s="0"/>
+      <c r="KP7" s="0"/>
+      <c r="KQ7" s="0"/>
+      <c r="KR7" s="0"/>
+      <c r="KS7" s="0"/>
+      <c r="KT7" s="0"/>
+      <c r="KU7" s="0"/>
+      <c r="KV7" s="0"/>
+      <c r="KW7" s="0"/>
+      <c r="KX7" s="0"/>
+      <c r="KY7" s="0"/>
+      <c r="KZ7" s="0"/>
+      <c r="LA7" s="0"/>
+      <c r="LB7" s="0"/>
+      <c r="LC7" s="0"/>
+      <c r="LD7" s="0"/>
+      <c r="LE7" s="0"/>
+      <c r="LF7" s="0"/>
+      <c r="LG7" s="0"/>
+      <c r="LH7" s="0"/>
+      <c r="LI7" s="0"/>
+      <c r="LJ7" s="0"/>
+      <c r="LK7" s="0"/>
+      <c r="LL7" s="0"/>
+      <c r="LM7" s="0"/>
+      <c r="LN7" s="0"/>
+      <c r="LO7" s="0"/>
+      <c r="LP7" s="0"/>
+      <c r="LQ7" s="0"/>
+      <c r="LR7" s="0"/>
+      <c r="LS7" s="0"/>
+      <c r="LT7" s="0"/>
+      <c r="LU7" s="0"/>
+      <c r="LV7" s="0"/>
+      <c r="LW7" s="0"/>
+      <c r="LX7" s="0"/>
+      <c r="LY7" s="0"/>
+      <c r="LZ7" s="0"/>
+      <c r="MA7" s="0"/>
+      <c r="MB7" s="0"/>
+      <c r="MC7" s="0"/>
+      <c r="MD7" s="0"/>
+      <c r="ME7" s="0"/>
+      <c r="MF7" s="0"/>
+      <c r="MG7" s="0"/>
+      <c r="MH7" s="0"/>
+      <c r="MI7" s="0"/>
+      <c r="MJ7" s="0"/>
+      <c r="MK7" s="0"/>
+      <c r="ML7" s="0"/>
+      <c r="MM7" s="0"/>
+      <c r="MN7" s="0"/>
+      <c r="MO7" s="0"/>
+      <c r="MP7" s="0"/>
+      <c r="MQ7" s="0"/>
+      <c r="MR7" s="0"/>
+      <c r="MS7" s="0"/>
+      <c r="MT7" s="0"/>
+      <c r="MU7" s="0"/>
+      <c r="MV7" s="0"/>
+      <c r="MW7" s="0"/>
+      <c r="MX7" s="0"/>
+      <c r="MY7" s="0"/>
+      <c r="MZ7" s="0"/>
+      <c r="NA7" s="0"/>
+      <c r="NB7" s="0"/>
+      <c r="NC7" s="0"/>
+      <c r="ND7" s="0"/>
+      <c r="NE7" s="0"/>
+      <c r="NF7" s="0"/>
+      <c r="NG7" s="0"/>
+      <c r="NH7" s="0"/>
+      <c r="NI7" s="0"/>
+      <c r="NJ7" s="0"/>
+      <c r="NK7" s="0"/>
+      <c r="NL7" s="0"/>
+      <c r="NM7" s="0"/>
+      <c r="NN7" s="0"/>
+      <c r="NO7" s="0"/>
+      <c r="NP7" s="0"/>
+      <c r="NQ7" s="0"/>
+      <c r="NR7" s="0"/>
+      <c r="NS7" s="0"/>
+      <c r="NT7" s="0"/>
+      <c r="NU7" s="0"/>
+      <c r="NV7" s="0"/>
+      <c r="NW7" s="0"/>
+      <c r="NX7" s="0"/>
+      <c r="NY7" s="0"/>
+      <c r="NZ7" s="0"/>
+      <c r="OA7" s="0"/>
+      <c r="OB7" s="0"/>
+      <c r="OC7" s="0"/>
+      <c r="OD7" s="0"/>
+      <c r="OE7" s="0"/>
+      <c r="OF7" s="0"/>
+      <c r="OG7" s="0"/>
+      <c r="OH7" s="0"/>
+      <c r="OI7" s="0"/>
+      <c r="OJ7" s="0"/>
+      <c r="OK7" s="0"/>
+      <c r="OL7" s="0"/>
+      <c r="OM7" s="0"/>
+      <c r="ON7" s="0"/>
+      <c r="OO7" s="0"/>
+      <c r="OP7" s="0"/>
+      <c r="OQ7" s="0"/>
+      <c r="OR7" s="0"/>
+      <c r="OS7" s="0"/>
+      <c r="OT7" s="0"/>
+      <c r="OU7" s="0"/>
+      <c r="OV7" s="0"/>
+      <c r="OW7" s="0"/>
+      <c r="OX7" s="0"/>
+      <c r="OY7" s="0"/>
+      <c r="OZ7" s="0"/>
+      <c r="PA7" s="0"/>
+      <c r="PB7" s="0"/>
+      <c r="PC7" s="0"/>
+      <c r="PD7" s="0"/>
+      <c r="PE7" s="0"/>
+      <c r="PF7" s="0"/>
+      <c r="PG7" s="0"/>
+      <c r="PH7" s="0"/>
+      <c r="PI7" s="0"/>
+      <c r="PJ7" s="0"/>
+      <c r="PK7" s="0"/>
+      <c r="PL7" s="0"/>
+      <c r="PM7" s="0"/>
+      <c r="PN7" s="0"/>
+      <c r="PO7" s="0"/>
+      <c r="PP7" s="0"/>
+      <c r="PQ7" s="0"/>
+      <c r="PR7" s="0"/>
+      <c r="PS7" s="0"/>
+      <c r="PT7" s="0"/>
+      <c r="PU7" s="0"/>
+      <c r="PV7" s="0"/>
+      <c r="PW7" s="0"/>
+      <c r="PX7" s="0"/>
+      <c r="PY7" s="0"/>
+      <c r="PZ7" s="0"/>
+      <c r="QA7" s="0"/>
+      <c r="QB7" s="0"/>
+      <c r="QC7" s="0"/>
+      <c r="QD7" s="0"/>
+      <c r="QE7" s="0"/>
+      <c r="QF7" s="0"/>
+      <c r="QG7" s="0"/>
+      <c r="QH7" s="0"/>
+      <c r="QI7" s="0"/>
+      <c r="QJ7" s="0"/>
+      <c r="QK7" s="0"/>
+      <c r="QL7" s="0"/>
+      <c r="QM7" s="0"/>
+      <c r="QN7" s="0"/>
+      <c r="QO7" s="0"/>
+      <c r="QP7" s="0"/>
+      <c r="QQ7" s="0"/>
+      <c r="QR7" s="0"/>
+      <c r="QS7" s="0"/>
+      <c r="QT7" s="0"/>
+      <c r="QU7" s="0"/>
+      <c r="QV7" s="0"/>
+      <c r="QW7" s="0"/>
+      <c r="QX7" s="0"/>
+      <c r="QY7" s="0"/>
+      <c r="QZ7" s="0"/>
+      <c r="RA7" s="0"/>
+      <c r="RB7" s="0"/>
+      <c r="RC7" s="0"/>
+      <c r="RD7" s="0"/>
+      <c r="RE7" s="0"/>
+      <c r="RF7" s="0"/>
+      <c r="RG7" s="0"/>
+      <c r="RH7" s="0"/>
+      <c r="RI7" s="0"/>
+      <c r="RJ7" s="0"/>
+      <c r="RK7" s="0"/>
+      <c r="RL7" s="0"/>
+      <c r="RM7" s="0"/>
+      <c r="RN7" s="0"/>
+      <c r="RO7" s="0"/>
+      <c r="RP7" s="0"/>
+      <c r="RQ7" s="0"/>
+      <c r="RR7" s="0"/>
+      <c r="RS7" s="0"/>
+      <c r="RT7" s="0"/>
+      <c r="RU7" s="0"/>
+      <c r="RV7" s="0"/>
+      <c r="RW7" s="0"/>
+      <c r="RX7" s="0"/>
+      <c r="RY7" s="0"/>
+      <c r="RZ7" s="0"/>
+      <c r="SA7" s="0"/>
+      <c r="SB7" s="0"/>
+      <c r="SC7" s="0"/>
+      <c r="SD7" s="0"/>
+      <c r="SE7" s="0"/>
+      <c r="SF7" s="0"/>
+      <c r="SG7" s="0"/>
+      <c r="SH7" s="0"/>
+      <c r="SI7" s="0"/>
+      <c r="SJ7" s="0"/>
+      <c r="SK7" s="0"/>
+      <c r="SL7" s="0"/>
+      <c r="SM7" s="0"/>
+      <c r="SN7" s="0"/>
+      <c r="SO7" s="0"/>
+      <c r="SP7" s="0"/>
+      <c r="SQ7" s="0"/>
+      <c r="SR7" s="0"/>
+      <c r="SS7" s="0"/>
+      <c r="ST7" s="0"/>
+      <c r="SU7" s="0"/>
+      <c r="SV7" s="0"/>
+      <c r="SW7" s="0"/>
+      <c r="SX7" s="0"/>
+      <c r="SY7" s="0"/>
+      <c r="SZ7" s="0"/>
+      <c r="TA7" s="0"/>
+      <c r="TB7" s="0"/>
+      <c r="TC7" s="0"/>
+      <c r="TD7" s="0"/>
+      <c r="TE7" s="0"/>
+      <c r="TF7" s="0"/>
+      <c r="TG7" s="0"/>
+      <c r="TH7" s="0"/>
+      <c r="TI7" s="0"/>
+      <c r="TJ7" s="0"/>
+      <c r="TK7" s="0"/>
+      <c r="TL7" s="0"/>
+      <c r="TM7" s="0"/>
+      <c r="TN7" s="0"/>
+      <c r="TO7" s="0"/>
+      <c r="TP7" s="0"/>
+      <c r="TQ7" s="0"/>
+      <c r="TR7" s="0"/>
+      <c r="TS7" s="0"/>
+      <c r="TT7" s="0"/>
+      <c r="TU7" s="0"/>
+      <c r="TV7" s="0"/>
+      <c r="TW7" s="0"/>
+      <c r="TX7" s="0"/>
+      <c r="TY7" s="0"/>
+      <c r="TZ7" s="0"/>
+      <c r="UA7" s="0"/>
+      <c r="UB7" s="0"/>
+      <c r="UC7" s="0"/>
+      <c r="UD7" s="0"/>
+      <c r="UE7" s="0"/>
+      <c r="UF7" s="0"/>
+      <c r="UG7" s="0"/>
+      <c r="UH7" s="0"/>
+      <c r="UI7" s="0"/>
+      <c r="UJ7" s="0"/>
+      <c r="UK7" s="0"/>
+      <c r="UL7" s="0"/>
+      <c r="UM7" s="0"/>
+      <c r="UN7" s="0"/>
+      <c r="UO7" s="0"/>
+      <c r="UP7" s="0"/>
+      <c r="UQ7" s="0"/>
+      <c r="UR7" s="0"/>
+      <c r="US7" s="0"/>
+      <c r="UT7" s="0"/>
+      <c r="UU7" s="0"/>
+      <c r="UV7" s="0"/>
+      <c r="UW7" s="0"/>
+      <c r="UX7" s="0"/>
+      <c r="UY7" s="0"/>
+      <c r="UZ7" s="0"/>
+      <c r="VA7" s="0"/>
+      <c r="VB7" s="0"/>
+      <c r="VC7" s="0"/>
+      <c r="VD7" s="0"/>
+      <c r="VE7" s="0"/>
+      <c r="VF7" s="0"/>
+      <c r="VG7" s="0"/>
+      <c r="VH7" s="0"/>
+      <c r="VI7" s="0"/>
+      <c r="VJ7" s="0"/>
+      <c r="VK7" s="0"/>
+      <c r="VL7" s="0"/>
+      <c r="VM7" s="0"/>
+      <c r="VN7" s="0"/>
+      <c r="VO7" s="0"/>
+      <c r="VP7" s="0"/>
+      <c r="VQ7" s="0"/>
+      <c r="VR7" s="0"/>
+      <c r="VS7" s="0"/>
+      <c r="VT7" s="0"/>
+      <c r="VU7" s="0"/>
+      <c r="VV7" s="0"/>
+      <c r="VW7" s="0"/>
+      <c r="VX7" s="0"/>
+      <c r="VY7" s="0"/>
+      <c r="VZ7" s="0"/>
+      <c r="WA7" s="0"/>
+      <c r="WB7" s="0"/>
+      <c r="WC7" s="0"/>
+      <c r="WD7" s="0"/>
+      <c r="WE7" s="0"/>
+      <c r="WF7" s="0"/>
+      <c r="WG7" s="0"/>
+      <c r="WH7" s="0"/>
+      <c r="WI7" s="0"/>
+      <c r="WJ7" s="0"/>
+      <c r="WK7" s="0"/>
+      <c r="WL7" s="0"/>
+      <c r="WM7" s="0"/>
+      <c r="WN7" s="0"/>
+      <c r="WO7" s="0"/>
+      <c r="WP7" s="0"/>
+      <c r="WQ7" s="0"/>
+      <c r="WR7" s="0"/>
+      <c r="WS7" s="0"/>
+      <c r="WT7" s="0"/>
+      <c r="WU7" s="0"/>
+      <c r="WV7" s="0"/>
+      <c r="WW7" s="0"/>
+      <c r="WX7" s="0"/>
+      <c r="WY7" s="0"/>
+      <c r="WZ7" s="0"/>
+      <c r="XA7" s="0"/>
+      <c r="XB7" s="0"/>
+      <c r="XC7" s="0"/>
+      <c r="XD7" s="0"/>
+      <c r="XE7" s="0"/>
+      <c r="XF7" s="0"/>
+      <c r="XG7" s="0"/>
+      <c r="XH7" s="0"/>
+      <c r="XI7" s="0"/>
+      <c r="XJ7" s="0"/>
+      <c r="XK7" s="0"/>
+      <c r="XL7" s="0"/>
+      <c r="XM7" s="0"/>
+      <c r="XN7" s="0"/>
+      <c r="XO7" s="0"/>
+      <c r="XP7" s="0"/>
+      <c r="XQ7" s="0"/>
+      <c r="XR7" s="0"/>
+      <c r="XS7" s="0"/>
+      <c r="XT7" s="0"/>
+      <c r="XU7" s="0"/>
+      <c r="XV7" s="0"/>
+      <c r="XW7" s="0"/>
+      <c r="XX7" s="0"/>
+      <c r="XY7" s="0"/>
+      <c r="XZ7" s="0"/>
+      <c r="YA7" s="0"/>
+      <c r="YB7" s="0"/>
+      <c r="YC7" s="0"/>
+      <c r="YD7" s="0"/>
+      <c r="YE7" s="0"/>
+      <c r="YF7" s="0"/>
+      <c r="YG7" s="0"/>
+      <c r="YH7" s="0"/>
+      <c r="YI7" s="0"/>
+      <c r="YJ7" s="0"/>
+      <c r="YK7" s="0"/>
+      <c r="YL7" s="0"/>
+      <c r="YM7" s="0"/>
+      <c r="YN7" s="0"/>
+      <c r="YO7" s="0"/>
+      <c r="YP7" s="0"/>
+      <c r="YQ7" s="0"/>
+      <c r="YR7" s="0"/>
+      <c r="YS7" s="0"/>
+      <c r="YT7" s="0"/>
+      <c r="YU7" s="0"/>
+      <c r="YV7" s="0"/>
+      <c r="YW7" s="0"/>
+      <c r="YX7" s="0"/>
+      <c r="YY7" s="0"/>
+      <c r="YZ7" s="0"/>
+      <c r="ZA7" s="0"/>
+      <c r="ZB7" s="0"/>
+      <c r="ZC7" s="0"/>
+      <c r="ZD7" s="0"/>
+      <c r="ZE7" s="0"/>
+      <c r="ZF7" s="0"/>
+      <c r="ZG7" s="0"/>
+      <c r="ZH7" s="0"/>
+      <c r="ZI7" s="0"/>
+      <c r="ZJ7" s="0"/>
+      <c r="ZK7" s="0"/>
+      <c r="ZL7" s="0"/>
+      <c r="ZM7" s="0"/>
+      <c r="ZN7" s="0"/>
+      <c r="ZO7" s="0"/>
+      <c r="ZP7" s="0"/>
+      <c r="ZQ7" s="0"/>
+      <c r="ZR7" s="0"/>
+      <c r="ZS7" s="0"/>
+      <c r="ZT7" s="0"/>
+      <c r="ZU7" s="0"/>
+      <c r="ZV7" s="0"/>
+      <c r="ZW7" s="0"/>
+      <c r="ZX7" s="0"/>
+      <c r="ZY7" s="0"/>
+      <c r="ZZ7" s="0"/>
+      <c r="AAA7" s="0"/>
+      <c r="AAB7" s="0"/>
+      <c r="AAC7" s="0"/>
+      <c r="AAD7" s="0"/>
+      <c r="AAE7" s="0"/>
+      <c r="AAF7" s="0"/>
+      <c r="AAG7" s="0"/>
+      <c r="AAH7" s="0"/>
+      <c r="AAI7" s="0"/>
+      <c r="AAJ7" s="0"/>
+      <c r="AAK7" s="0"/>
+      <c r="AAL7" s="0"/>
+      <c r="AAM7" s="0"/>
+      <c r="AAN7" s="0"/>
+      <c r="AAO7" s="0"/>
+      <c r="AAP7" s="0"/>
+      <c r="AAQ7" s="0"/>
+      <c r="AAR7" s="0"/>
+      <c r="AAS7" s="0"/>
+      <c r="AAT7" s="0"/>
+      <c r="AAU7" s="0"/>
+      <c r="AAV7" s="0"/>
+      <c r="AAW7" s="0"/>
+      <c r="AAX7" s="0"/>
+      <c r="AAY7" s="0"/>
+      <c r="AAZ7" s="0"/>
+      <c r="ABA7" s="0"/>
+      <c r="ABB7" s="0"/>
+      <c r="ABC7" s="0"/>
+      <c r="ABD7" s="0"/>
+      <c r="ABE7" s="0"/>
+      <c r="ABF7" s="0"/>
+      <c r="ABG7" s="0"/>
+      <c r="ABH7" s="0"/>
+      <c r="ABI7" s="0"/>
+      <c r="ABJ7" s="0"/>
+      <c r="ABK7" s="0"/>
+      <c r="ABL7" s="0"/>
+      <c r="ABM7" s="0"/>
+      <c r="ABN7" s="0"/>
+      <c r="ABO7" s="0"/>
+      <c r="ABP7" s="0"/>
+      <c r="ABQ7" s="0"/>
+      <c r="ABR7" s="0"/>
+      <c r="ABS7" s="0"/>
+      <c r="ABT7" s="0"/>
+      <c r="ABU7" s="0"/>
+      <c r="ABV7" s="0"/>
+      <c r="ABW7" s="0"/>
+      <c r="ABX7" s="0"/>
+      <c r="ABY7" s="0"/>
+      <c r="ABZ7" s="0"/>
+      <c r="ACA7" s="0"/>
+      <c r="ACB7" s="0"/>
+      <c r="ACC7" s="0"/>
+      <c r="ACD7" s="0"/>
+      <c r="ACE7" s="0"/>
+      <c r="ACF7" s="0"/>
+      <c r="ACG7" s="0"/>
+      <c r="ACH7" s="0"/>
+      <c r="ACI7" s="0"/>
+      <c r="ACJ7" s="0"/>
+      <c r="ACK7" s="0"/>
+      <c r="ACL7" s="0"/>
+      <c r="ACM7" s="0"/>
+      <c r="ACN7" s="0"/>
+      <c r="ACO7" s="0"/>
+      <c r="ACP7" s="0"/>
+      <c r="ACQ7" s="0"/>
+      <c r="ACR7" s="0"/>
+      <c r="ACS7" s="0"/>
+      <c r="ACT7" s="0"/>
+      <c r="ACU7" s="0"/>
+      <c r="ACV7" s="0"/>
+      <c r="ACW7" s="0"/>
+      <c r="ACX7" s="0"/>
+      <c r="ACY7" s="0"/>
+      <c r="ACZ7" s="0"/>
+      <c r="ADA7" s="0"/>
+      <c r="ADB7" s="0"/>
+      <c r="ADC7" s="0"/>
+      <c r="ADD7" s="0"/>
+      <c r="ADE7" s="0"/>
+      <c r="ADF7" s="0"/>
+      <c r="ADG7" s="0"/>
+      <c r="ADH7" s="0"/>
+      <c r="ADI7" s="0"/>
+      <c r="ADJ7" s="0"/>
+      <c r="ADK7" s="0"/>
+      <c r="ADL7" s="0"/>
+      <c r="ADM7" s="0"/>
+      <c r="ADN7" s="0"/>
+      <c r="ADO7" s="0"/>
+      <c r="ADP7" s="0"/>
+      <c r="ADQ7" s="0"/>
+      <c r="ADR7" s="0"/>
+      <c r="ADS7" s="0"/>
+      <c r="ADT7" s="0"/>
+      <c r="ADU7" s="0"/>
+      <c r="ADV7" s="0"/>
+      <c r="ADW7" s="0"/>
+      <c r="ADX7" s="0"/>
+      <c r="ADY7" s="0"/>
+      <c r="ADZ7" s="0"/>
+      <c r="AEA7" s="0"/>
+      <c r="AEB7" s="0"/>
+      <c r="AEC7" s="0"/>
+      <c r="AED7" s="0"/>
+      <c r="AEE7" s="0"/>
+      <c r="AEF7" s="0"/>
+      <c r="AEG7" s="0"/>
+      <c r="AEH7" s="0"/>
+      <c r="AEI7" s="0"/>
+      <c r="AEJ7" s="0"/>
+      <c r="AEK7" s="0"/>
+      <c r="AEL7" s="0"/>
+      <c r="AEM7" s="0"/>
+      <c r="AEN7" s="0"/>
+      <c r="AEO7" s="0"/>
+      <c r="AEP7" s="0"/>
+      <c r="AEQ7" s="0"/>
+      <c r="AER7" s="0"/>
+      <c r="AES7" s="0"/>
+      <c r="AET7" s="0"/>
+      <c r="AEU7" s="0"/>
+      <c r="AEV7" s="0"/>
+      <c r="AEW7" s="0"/>
+      <c r="AEX7" s="0"/>
+      <c r="AEY7" s="0"/>
+      <c r="AEZ7" s="0"/>
+      <c r="AFA7" s="0"/>
+      <c r="AFB7" s="0"/>
+      <c r="AFC7" s="0"/>
+      <c r="AFD7" s="0"/>
+      <c r="AFE7" s="0"/>
+      <c r="AFF7" s="0"/>
+      <c r="AFG7" s="0"/>
+      <c r="AFH7" s="0"/>
+      <c r="AFI7" s="0"/>
+      <c r="AFJ7" s="0"/>
+      <c r="AFK7" s="0"/>
+      <c r="AFL7" s="0"/>
+      <c r="AFM7" s="0"/>
+      <c r="AFN7" s="0"/>
+      <c r="AFO7" s="0"/>
+      <c r="AFP7" s="0"/>
+      <c r="AFQ7" s="0"/>
+      <c r="AFR7" s="0"/>
+      <c r="AFS7" s="0"/>
+      <c r="AFT7" s="0"/>
+      <c r="AFU7" s="0"/>
+      <c r="AFV7" s="0"/>
+      <c r="AFW7" s="0"/>
+      <c r="AFX7" s="0"/>
+      <c r="AFY7" s="0"/>
+      <c r="AFZ7" s="0"/>
+      <c r="AGA7" s="0"/>
+      <c r="AGB7" s="0"/>
+      <c r="AGC7" s="0"/>
+      <c r="AGD7" s="0"/>
+      <c r="AGE7" s="0"/>
+      <c r="AGF7" s="0"/>
+      <c r="AGG7" s="0"/>
+      <c r="AGH7" s="0"/>
+      <c r="AGI7" s="0"/>
+      <c r="AGJ7" s="0"/>
+      <c r="AGK7" s="0"/>
+      <c r="AGL7" s="0"/>
+      <c r="AGM7" s="0"/>
+      <c r="AGN7" s="0"/>
+      <c r="AGO7" s="0"/>
+      <c r="AGP7" s="0"/>
+      <c r="AGQ7" s="0"/>
+      <c r="AGR7" s="0"/>
+      <c r="AGS7" s="0"/>
+      <c r="AGT7" s="0"/>
+      <c r="AGU7" s="0"/>
+      <c r="AGV7" s="0"/>
+      <c r="AGW7" s="0"/>
+      <c r="AGX7" s="0"/>
+      <c r="AGY7" s="0"/>
+      <c r="AGZ7" s="0"/>
+      <c r="AHA7" s="0"/>
+      <c r="AHB7" s="0"/>
+      <c r="AHC7" s="0"/>
+      <c r="AHD7" s="0"/>
+      <c r="AHE7" s="0"/>
+      <c r="AHF7" s="0"/>
+      <c r="AHG7" s="0"/>
+      <c r="AHH7" s="0"/>
+      <c r="AHI7" s="0"/>
+      <c r="AHJ7" s="0"/>
+      <c r="AHK7" s="0"/>
+      <c r="AHL7" s="0"/>
+      <c r="AHM7" s="0"/>
+      <c r="AHN7" s="0"/>
+      <c r="AHO7" s="0"/>
+      <c r="AHP7" s="0"/>
+      <c r="AHQ7" s="0"/>
+      <c r="AHR7" s="0"/>
+      <c r="AHS7" s="0"/>
+      <c r="AHT7" s="0"/>
+      <c r="AHU7" s="0"/>
+      <c r="AHV7" s="0"/>
+      <c r="AHW7" s="0"/>
+      <c r="AHX7" s="0"/>
+      <c r="AHY7" s="0"/>
+      <c r="AHZ7" s="0"/>
+      <c r="AIA7" s="0"/>
+      <c r="AIB7" s="0"/>
+      <c r="AIC7" s="0"/>
+      <c r="AID7" s="0"/>
+      <c r="AIE7" s="0"/>
+      <c r="AIF7" s="0"/>
+      <c r="AIG7" s="0"/>
+      <c r="AIH7" s="0"/>
+      <c r="AII7" s="0"/>
+      <c r="AIJ7" s="0"/>
+      <c r="AIK7" s="0"/>
+      <c r="AIL7" s="0"/>
+      <c r="AIM7" s="0"/>
+      <c r="AIN7" s="0"/>
+      <c r="AIO7" s="0"/>
+      <c r="AIP7" s="0"/>
+      <c r="AIQ7" s="0"/>
+      <c r="AIR7" s="0"/>
+      <c r="AIS7" s="0"/>
+      <c r="AIT7" s="0"/>
+      <c r="AIU7" s="0"/>
+      <c r="AIV7" s="0"/>
+      <c r="AIW7" s="0"/>
+      <c r="AIX7" s="0"/>
+      <c r="AIY7" s="0"/>
+      <c r="AIZ7" s="0"/>
+      <c r="AJA7" s="0"/>
+      <c r="AJB7" s="0"/>
+      <c r="AJC7" s="0"/>
+      <c r="AJD7" s="0"/>
+      <c r="AJE7" s="0"/>
+      <c r="AJF7" s="0"/>
+      <c r="AJG7" s="0"/>
+      <c r="AJH7" s="0"/>
+      <c r="AJI7" s="0"/>
+      <c r="AJJ7" s="0"/>
+      <c r="AJK7" s="0"/>
+      <c r="AJL7" s="0"/>
+      <c r="AJM7" s="0"/>
+      <c r="AJN7" s="0"/>
+      <c r="AJO7" s="0"/>
+      <c r="AJP7" s="0"/>
+      <c r="AJQ7" s="0"/>
+      <c r="AJR7" s="0"/>
+      <c r="AJS7" s="0"/>
+      <c r="AJT7" s="0"/>
+      <c r="AJU7" s="0"/>
+      <c r="AJV7" s="0"/>
+      <c r="AJW7" s="0"/>
+      <c r="AJX7" s="0"/>
+      <c r="AJY7" s="0"/>
+      <c r="AJZ7" s="0"/>
+      <c r="AKA7" s="0"/>
+      <c r="AKB7" s="0"/>
+      <c r="AKC7" s="0"/>
+      <c r="AKD7" s="0"/>
+      <c r="AKE7" s="0"/>
+      <c r="AKF7" s="0"/>
+      <c r="AKG7" s="0"/>
+      <c r="AKH7" s="0"/>
+      <c r="AKI7" s="0"/>
+      <c r="AKJ7" s="0"/>
+      <c r="AKK7" s="0"/>
+      <c r="AKL7" s="0"/>
+      <c r="AKM7" s="0"/>
+      <c r="AKN7" s="0"/>
+      <c r="AKO7" s="0"/>
+      <c r="AKP7" s="0"/>
+      <c r="AKQ7" s="0"/>
+      <c r="AKR7" s="0"/>
+      <c r="AKS7" s="0"/>
+      <c r="AKT7" s="0"/>
+      <c r="AKU7" s="0"/>
+      <c r="AKV7" s="0"/>
+      <c r="AKW7" s="0"/>
+      <c r="AKX7" s="0"/>
+      <c r="AKY7" s="0"/>
+      <c r="AKZ7" s="0"/>
+      <c r="ALA7" s="0"/>
+      <c r="ALB7" s="0"/>
+      <c r="ALC7" s="0"/>
+      <c r="ALD7" s="0"/>
+      <c r="ALE7" s="0"/>
+      <c r="ALF7" s="0"/>
+      <c r="ALG7" s="0"/>
+      <c r="ALH7" s="0"/>
+      <c r="ALI7" s="0"/>
+      <c r="ALJ7" s="0"/>
+      <c r="ALK7" s="0"/>
+      <c r="ALL7" s="0"/>
+      <c r="ALM7" s="0"/>
+      <c r="ALN7" s="0"/>
+      <c r="ALO7" s="0"/>
+      <c r="ALP7" s="0"/>
+      <c r="ALQ7" s="0"/>
+      <c r="ALR7" s="0"/>
+      <c r="ALS7" s="0"/>
+      <c r="ALT7" s="0"/>
+      <c r="ALU7" s="0"/>
+      <c r="ALV7" s="0"/>
+      <c r="ALW7" s="0"/>
+      <c r="ALX7" s="0"/>
+      <c r="ALY7" s="0"/>
+      <c r="ALZ7" s="0"/>
+      <c r="AMA7" s="0"/>
+      <c r="AMB7" s="0"/>
+      <c r="AMC7" s="0"/>
+      <c r="AMD7" s="0"/>
+      <c r="AME7" s="0"/>
+      <c r="AMF7" s="0"/>
+      <c r="AMG7" s="0"/>
+      <c r="AMH7" s="0"/>
+      <c r="AMI7" s="0"/>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -4935,6 +9231,1017 @@
       <c r="K8" s="2" t="s">
         <v>259</v>
       </c>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
+      <c r="AH8" s="0"/>
+      <c r="AI8" s="0"/>
+      <c r="AJ8" s="0"/>
+      <c r="AK8" s="0"/>
+      <c r="AL8" s="0"/>
+      <c r="AM8" s="0"/>
+      <c r="AN8" s="0"/>
+      <c r="AO8" s="0"/>
+      <c r="AP8" s="0"/>
+      <c r="AQ8" s="0"/>
+      <c r="AR8" s="0"/>
+      <c r="AS8" s="0"/>
+      <c r="AT8" s="0"/>
+      <c r="AU8" s="0"/>
+      <c r="AV8" s="0"/>
+      <c r="AW8" s="0"/>
+      <c r="AX8" s="0"/>
+      <c r="AY8" s="0"/>
+      <c r="AZ8" s="0"/>
+      <c r="BA8" s="0"/>
+      <c r="BB8" s="0"/>
+      <c r="BC8" s="0"/>
+      <c r="BD8" s="0"/>
+      <c r="BE8" s="0"/>
+      <c r="BF8" s="0"/>
+      <c r="BG8" s="0"/>
+      <c r="BH8" s="0"/>
+      <c r="BI8" s="0"/>
+      <c r="BJ8" s="0"/>
+      <c r="BK8" s="0"/>
+      <c r="BL8" s="0"/>
+      <c r="BM8" s="0"/>
+      <c r="BN8" s="0"/>
+      <c r="BO8" s="0"/>
+      <c r="BP8" s="0"/>
+      <c r="BQ8" s="0"/>
+      <c r="BR8" s="0"/>
+      <c r="BS8" s="0"/>
+      <c r="BT8" s="0"/>
+      <c r="BU8" s="0"/>
+      <c r="BV8" s="0"/>
+      <c r="BW8" s="0"/>
+      <c r="BX8" s="0"/>
+      <c r="BY8" s="0"/>
+      <c r="BZ8" s="0"/>
+      <c r="CA8" s="0"/>
+      <c r="CB8" s="0"/>
+      <c r="CC8" s="0"/>
+      <c r="CD8" s="0"/>
+      <c r="CE8" s="0"/>
+      <c r="CF8" s="0"/>
+      <c r="CG8" s="0"/>
+      <c r="CH8" s="0"/>
+      <c r="CI8" s="0"/>
+      <c r="CJ8" s="0"/>
+      <c r="CK8" s="0"/>
+      <c r="CL8" s="0"/>
+      <c r="CM8" s="0"/>
+      <c r="CN8" s="0"/>
+      <c r="CO8" s="0"/>
+      <c r="CP8" s="0"/>
+      <c r="CQ8" s="0"/>
+      <c r="CR8" s="0"/>
+      <c r="CS8" s="0"/>
+      <c r="CT8" s="0"/>
+      <c r="CU8" s="0"/>
+      <c r="CV8" s="0"/>
+      <c r="CW8" s="0"/>
+      <c r="CX8" s="0"/>
+      <c r="CY8" s="0"/>
+      <c r="CZ8" s="0"/>
+      <c r="DA8" s="0"/>
+      <c r="DB8" s="0"/>
+      <c r="DC8" s="0"/>
+      <c r="DD8" s="0"/>
+      <c r="DE8" s="0"/>
+      <c r="DF8" s="0"/>
+      <c r="DG8" s="0"/>
+      <c r="DH8" s="0"/>
+      <c r="DI8" s="0"/>
+      <c r="DJ8" s="0"/>
+      <c r="DK8" s="0"/>
+      <c r="DL8" s="0"/>
+      <c r="DM8" s="0"/>
+      <c r="DN8" s="0"/>
+      <c r="DO8" s="0"/>
+      <c r="DP8" s="0"/>
+      <c r="DQ8" s="0"/>
+      <c r="DR8" s="0"/>
+      <c r="DS8" s="0"/>
+      <c r="DT8" s="0"/>
+      <c r="DU8" s="0"/>
+      <c r="DV8" s="0"/>
+      <c r="DW8" s="0"/>
+      <c r="DX8" s="0"/>
+      <c r="DY8" s="0"/>
+      <c r="DZ8" s="0"/>
+      <c r="EA8" s="0"/>
+      <c r="EB8" s="0"/>
+      <c r="EC8" s="0"/>
+      <c r="ED8" s="0"/>
+      <c r="EE8" s="0"/>
+      <c r="EF8" s="0"/>
+      <c r="EG8" s="0"/>
+      <c r="EH8" s="0"/>
+      <c r="EI8" s="0"/>
+      <c r="EJ8" s="0"/>
+      <c r="EK8" s="0"/>
+      <c r="EL8" s="0"/>
+      <c r="EM8" s="0"/>
+      <c r="EN8" s="0"/>
+      <c r="EO8" s="0"/>
+      <c r="EP8" s="0"/>
+      <c r="EQ8" s="0"/>
+      <c r="ER8" s="0"/>
+      <c r="ES8" s="0"/>
+      <c r="ET8" s="0"/>
+      <c r="EU8" s="0"/>
+      <c r="EV8" s="0"/>
+      <c r="EW8" s="0"/>
+      <c r="EX8" s="0"/>
+      <c r="EY8" s="0"/>
+      <c r="EZ8" s="0"/>
+      <c r="FA8" s="0"/>
+      <c r="FB8" s="0"/>
+      <c r="FC8" s="0"/>
+      <c r="FD8" s="0"/>
+      <c r="FE8" s="0"/>
+      <c r="FF8" s="0"/>
+      <c r="FG8" s="0"/>
+      <c r="FH8" s="0"/>
+      <c r="FI8" s="0"/>
+      <c r="FJ8" s="0"/>
+      <c r="FK8" s="0"/>
+      <c r="FL8" s="0"/>
+      <c r="FM8" s="0"/>
+      <c r="FN8" s="0"/>
+      <c r="FO8" s="0"/>
+      <c r="FP8" s="0"/>
+      <c r="FQ8" s="0"/>
+      <c r="FR8" s="0"/>
+      <c r="FS8" s="0"/>
+      <c r="FT8" s="0"/>
+      <c r="FU8" s="0"/>
+      <c r="FV8" s="0"/>
+      <c r="FW8" s="0"/>
+      <c r="FX8" s="0"/>
+      <c r="FY8" s="0"/>
+      <c r="FZ8" s="0"/>
+      <c r="GA8" s="0"/>
+      <c r="GB8" s="0"/>
+      <c r="GC8" s="0"/>
+      <c r="GD8" s="0"/>
+      <c r="GE8" s="0"/>
+      <c r="GF8" s="0"/>
+      <c r="GG8" s="0"/>
+      <c r="GH8" s="0"/>
+      <c r="GI8" s="0"/>
+      <c r="GJ8" s="0"/>
+      <c r="GK8" s="0"/>
+      <c r="GL8" s="0"/>
+      <c r="GM8" s="0"/>
+      <c r="GN8" s="0"/>
+      <c r="GO8" s="0"/>
+      <c r="GP8" s="0"/>
+      <c r="GQ8" s="0"/>
+      <c r="GR8" s="0"/>
+      <c r="GS8" s="0"/>
+      <c r="GT8" s="0"/>
+      <c r="GU8" s="0"/>
+      <c r="GV8" s="0"/>
+      <c r="GW8" s="0"/>
+      <c r="GX8" s="0"/>
+      <c r="GY8" s="0"/>
+      <c r="GZ8" s="0"/>
+      <c r="HA8" s="0"/>
+      <c r="HB8" s="0"/>
+      <c r="HC8" s="0"/>
+      <c r="HD8" s="0"/>
+      <c r="HE8" s="0"/>
+      <c r="HF8" s="0"/>
+      <c r="HG8" s="0"/>
+      <c r="HH8" s="0"/>
+      <c r="HI8" s="0"/>
+      <c r="HJ8" s="0"/>
+      <c r="HK8" s="0"/>
+      <c r="HL8" s="0"/>
+      <c r="HM8" s="0"/>
+      <c r="HN8" s="0"/>
+      <c r="HO8" s="0"/>
+      <c r="HP8" s="0"/>
+      <c r="HQ8" s="0"/>
+      <c r="HR8" s="0"/>
+      <c r="HS8" s="0"/>
+      <c r="HT8" s="0"/>
+      <c r="HU8" s="0"/>
+      <c r="HV8" s="0"/>
+      <c r="HW8" s="0"/>
+      <c r="HX8" s="0"/>
+      <c r="HY8" s="0"/>
+      <c r="HZ8" s="0"/>
+      <c r="IA8" s="0"/>
+      <c r="IB8" s="0"/>
+      <c r="IC8" s="0"/>
+      <c r="ID8" s="0"/>
+      <c r="IE8" s="0"/>
+      <c r="IF8" s="0"/>
+      <c r="IG8" s="0"/>
+      <c r="IH8" s="0"/>
+      <c r="II8" s="0"/>
+      <c r="IJ8" s="0"/>
+      <c r="IK8" s="0"/>
+      <c r="IL8" s="0"/>
+      <c r="IM8" s="0"/>
+      <c r="IN8" s="0"/>
+      <c r="IO8" s="0"/>
+      <c r="IP8" s="0"/>
+      <c r="IQ8" s="0"/>
+      <c r="IR8" s="0"/>
+      <c r="IS8" s="0"/>
+      <c r="IT8" s="0"/>
+      <c r="IU8" s="0"/>
+      <c r="IV8" s="0"/>
+      <c r="IW8" s="0"/>
+      <c r="IX8" s="0"/>
+      <c r="IY8" s="0"/>
+      <c r="IZ8" s="0"/>
+      <c r="JA8" s="0"/>
+      <c r="JB8" s="0"/>
+      <c r="JC8" s="0"/>
+      <c r="JD8" s="0"/>
+      <c r="JE8" s="0"/>
+      <c r="JF8" s="0"/>
+      <c r="JG8" s="0"/>
+      <c r="JH8" s="0"/>
+      <c r="JI8" s="0"/>
+      <c r="JJ8" s="0"/>
+      <c r="JK8" s="0"/>
+      <c r="JL8" s="0"/>
+      <c r="JM8" s="0"/>
+      <c r="JN8" s="0"/>
+      <c r="JO8" s="0"/>
+      <c r="JP8" s="0"/>
+      <c r="JQ8" s="0"/>
+      <c r="JR8" s="0"/>
+      <c r="JS8" s="0"/>
+      <c r="JT8" s="0"/>
+      <c r="JU8" s="0"/>
+      <c r="JV8" s="0"/>
+      <c r="JW8" s="0"/>
+      <c r="JX8" s="0"/>
+      <c r="JY8" s="0"/>
+      <c r="JZ8" s="0"/>
+      <c r="KA8" s="0"/>
+      <c r="KB8" s="0"/>
+      <c r="KC8" s="0"/>
+      <c r="KD8" s="0"/>
+      <c r="KE8" s="0"/>
+      <c r="KF8" s="0"/>
+      <c r="KG8" s="0"/>
+      <c r="KH8" s="0"/>
+      <c r="KI8" s="0"/>
+      <c r="KJ8" s="0"/>
+      <c r="KK8" s="0"/>
+      <c r="KL8" s="0"/>
+      <c r="KM8" s="0"/>
+      <c r="KN8" s="0"/>
+      <c r="KO8" s="0"/>
+      <c r="KP8" s="0"/>
+      <c r="KQ8" s="0"/>
+      <c r="KR8" s="0"/>
+      <c r="KS8" s="0"/>
+      <c r="KT8" s="0"/>
+      <c r="KU8" s="0"/>
+      <c r="KV8" s="0"/>
+      <c r="KW8" s="0"/>
+      <c r="KX8" s="0"/>
+      <c r="KY8" s="0"/>
+      <c r="KZ8" s="0"/>
+      <c r="LA8" s="0"/>
+      <c r="LB8" s="0"/>
+      <c r="LC8" s="0"/>
+      <c r="LD8" s="0"/>
+      <c r="LE8" s="0"/>
+      <c r="LF8" s="0"/>
+      <c r="LG8" s="0"/>
+      <c r="LH8" s="0"/>
+      <c r="LI8" s="0"/>
+      <c r="LJ8" s="0"/>
+      <c r="LK8" s="0"/>
+      <c r="LL8" s="0"/>
+      <c r="LM8" s="0"/>
+      <c r="LN8" s="0"/>
+      <c r="LO8" s="0"/>
+      <c r="LP8" s="0"/>
+      <c r="LQ8" s="0"/>
+      <c r="LR8" s="0"/>
+      <c r="LS8" s="0"/>
+      <c r="LT8" s="0"/>
+      <c r="LU8" s="0"/>
+      <c r="LV8" s="0"/>
+      <c r="LW8" s="0"/>
+      <c r="LX8" s="0"/>
+      <c r="LY8" s="0"/>
+      <c r="LZ8" s="0"/>
+      <c r="MA8" s="0"/>
+      <c r="MB8" s="0"/>
+      <c r="MC8" s="0"/>
+      <c r="MD8" s="0"/>
+      <c r="ME8" s="0"/>
+      <c r="MF8" s="0"/>
+      <c r="MG8" s="0"/>
+      <c r="MH8" s="0"/>
+      <c r="MI8" s="0"/>
+      <c r="MJ8" s="0"/>
+      <c r="MK8" s="0"/>
+      <c r="ML8" s="0"/>
+      <c r="MM8" s="0"/>
+      <c r="MN8" s="0"/>
+      <c r="MO8" s="0"/>
+      <c r="MP8" s="0"/>
+      <c r="MQ8" s="0"/>
+      <c r="MR8" s="0"/>
+      <c r="MS8" s="0"/>
+      <c r="MT8" s="0"/>
+      <c r="MU8" s="0"/>
+      <c r="MV8" s="0"/>
+      <c r="MW8" s="0"/>
+      <c r="MX8" s="0"/>
+      <c r="MY8" s="0"/>
+      <c r="MZ8" s="0"/>
+      <c r="NA8" s="0"/>
+      <c r="NB8" s="0"/>
+      <c r="NC8" s="0"/>
+      <c r="ND8" s="0"/>
+      <c r="NE8" s="0"/>
+      <c r="NF8" s="0"/>
+      <c r="NG8" s="0"/>
+      <c r="NH8" s="0"/>
+      <c r="NI8" s="0"/>
+      <c r="NJ8" s="0"/>
+      <c r="NK8" s="0"/>
+      <c r="NL8" s="0"/>
+      <c r="NM8" s="0"/>
+      <c r="NN8" s="0"/>
+      <c r="NO8" s="0"/>
+      <c r="NP8" s="0"/>
+      <c r="NQ8" s="0"/>
+      <c r="NR8" s="0"/>
+      <c r="NS8" s="0"/>
+      <c r="NT8" s="0"/>
+      <c r="NU8" s="0"/>
+      <c r="NV8" s="0"/>
+      <c r="NW8" s="0"/>
+      <c r="NX8" s="0"/>
+      <c r="NY8" s="0"/>
+      <c r="NZ8" s="0"/>
+      <c r="OA8" s="0"/>
+      <c r="OB8" s="0"/>
+      <c r="OC8" s="0"/>
+      <c r="OD8" s="0"/>
+      <c r="OE8" s="0"/>
+      <c r="OF8" s="0"/>
+      <c r="OG8" s="0"/>
+      <c r="OH8" s="0"/>
+      <c r="OI8" s="0"/>
+      <c r="OJ8" s="0"/>
+      <c r="OK8" s="0"/>
+      <c r="OL8" s="0"/>
+      <c r="OM8" s="0"/>
+      <c r="ON8" s="0"/>
+      <c r="OO8" s="0"/>
+      <c r="OP8" s="0"/>
+      <c r="OQ8" s="0"/>
+      <c r="OR8" s="0"/>
+      <c r="OS8" s="0"/>
+      <c r="OT8" s="0"/>
+      <c r="OU8" s="0"/>
+      <c r="OV8" s="0"/>
+      <c r="OW8" s="0"/>
+      <c r="OX8" s="0"/>
+      <c r="OY8" s="0"/>
+      <c r="OZ8" s="0"/>
+      <c r="PA8" s="0"/>
+      <c r="PB8" s="0"/>
+      <c r="PC8" s="0"/>
+      <c r="PD8" s="0"/>
+      <c r="PE8" s="0"/>
+      <c r="PF8" s="0"/>
+      <c r="PG8" s="0"/>
+      <c r="PH8" s="0"/>
+      <c r="PI8" s="0"/>
+      <c r="PJ8" s="0"/>
+      <c r="PK8" s="0"/>
+      <c r="PL8" s="0"/>
+      <c r="PM8" s="0"/>
+      <c r="PN8" s="0"/>
+      <c r="PO8" s="0"/>
+      <c r="PP8" s="0"/>
+      <c r="PQ8" s="0"/>
+      <c r="PR8" s="0"/>
+      <c r="PS8" s="0"/>
+      <c r="PT8" s="0"/>
+      <c r="PU8" s="0"/>
+      <c r="PV8" s="0"/>
+      <c r="PW8" s="0"/>
+      <c r="PX8" s="0"/>
+      <c r="PY8" s="0"/>
+      <c r="PZ8" s="0"/>
+      <c r="QA8" s="0"/>
+      <c r="QB8" s="0"/>
+      <c r="QC8" s="0"/>
+      <c r="QD8" s="0"/>
+      <c r="QE8" s="0"/>
+      <c r="QF8" s="0"/>
+      <c r="QG8" s="0"/>
+      <c r="QH8" s="0"/>
+      <c r="QI8" s="0"/>
+      <c r="QJ8" s="0"/>
+      <c r="QK8" s="0"/>
+      <c r="QL8" s="0"/>
+      <c r="QM8" s="0"/>
+      <c r="QN8" s="0"/>
+      <c r="QO8" s="0"/>
+      <c r="QP8" s="0"/>
+      <c r="QQ8" s="0"/>
+      <c r="QR8" s="0"/>
+      <c r="QS8" s="0"/>
+      <c r="QT8" s="0"/>
+      <c r="QU8" s="0"/>
+      <c r="QV8" s="0"/>
+      <c r="QW8" s="0"/>
+      <c r="QX8" s="0"/>
+      <c r="QY8" s="0"/>
+      <c r="QZ8" s="0"/>
+      <c r="RA8" s="0"/>
+      <c r="RB8" s="0"/>
+      <c r="RC8" s="0"/>
+      <c r="RD8" s="0"/>
+      <c r="RE8" s="0"/>
+      <c r="RF8" s="0"/>
+      <c r="RG8" s="0"/>
+      <c r="RH8" s="0"/>
+      <c r="RI8" s="0"/>
+      <c r="RJ8" s="0"/>
+      <c r="RK8" s="0"/>
+      <c r="RL8" s="0"/>
+      <c r="RM8" s="0"/>
+      <c r="RN8" s="0"/>
+      <c r="RO8" s="0"/>
+      <c r="RP8" s="0"/>
+      <c r="RQ8" s="0"/>
+      <c r="RR8" s="0"/>
+      <c r="RS8" s="0"/>
+      <c r="RT8" s="0"/>
+      <c r="RU8" s="0"/>
+      <c r="RV8" s="0"/>
+      <c r="RW8" s="0"/>
+      <c r="RX8" s="0"/>
+      <c r="RY8" s="0"/>
+      <c r="RZ8" s="0"/>
+      <c r="SA8" s="0"/>
+      <c r="SB8" s="0"/>
+      <c r="SC8" s="0"/>
+      <c r="SD8" s="0"/>
+      <c r="SE8" s="0"/>
+      <c r="SF8" s="0"/>
+      <c r="SG8" s="0"/>
+      <c r="SH8" s="0"/>
+      <c r="SI8" s="0"/>
+      <c r="SJ8" s="0"/>
+      <c r="SK8" s="0"/>
+      <c r="SL8" s="0"/>
+      <c r="SM8" s="0"/>
+      <c r="SN8" s="0"/>
+      <c r="SO8" s="0"/>
+      <c r="SP8" s="0"/>
+      <c r="SQ8" s="0"/>
+      <c r="SR8" s="0"/>
+      <c r="SS8" s="0"/>
+      <c r="ST8" s="0"/>
+      <c r="SU8" s="0"/>
+      <c r="SV8" s="0"/>
+      <c r="SW8" s="0"/>
+      <c r="SX8" s="0"/>
+      <c r="SY8" s="0"/>
+      <c r="SZ8" s="0"/>
+      <c r="TA8" s="0"/>
+      <c r="TB8" s="0"/>
+      <c r="TC8" s="0"/>
+      <c r="TD8" s="0"/>
+      <c r="TE8" s="0"/>
+      <c r="TF8" s="0"/>
+      <c r="TG8" s="0"/>
+      <c r="TH8" s="0"/>
+      <c r="TI8" s="0"/>
+      <c r="TJ8" s="0"/>
+      <c r="TK8" s="0"/>
+      <c r="TL8" s="0"/>
+      <c r="TM8" s="0"/>
+      <c r="TN8" s="0"/>
+      <c r="TO8" s="0"/>
+      <c r="TP8" s="0"/>
+      <c r="TQ8" s="0"/>
+      <c r="TR8" s="0"/>
+      <c r="TS8" s="0"/>
+      <c r="TT8" s="0"/>
+      <c r="TU8" s="0"/>
+      <c r="TV8" s="0"/>
+      <c r="TW8" s="0"/>
+      <c r="TX8" s="0"/>
+      <c r="TY8" s="0"/>
+      <c r="TZ8" s="0"/>
+      <c r="UA8" s="0"/>
+      <c r="UB8" s="0"/>
+      <c r="UC8" s="0"/>
+      <c r="UD8" s="0"/>
+      <c r="UE8" s="0"/>
+      <c r="UF8" s="0"/>
+      <c r="UG8" s="0"/>
+      <c r="UH8" s="0"/>
+      <c r="UI8" s="0"/>
+      <c r="UJ8" s="0"/>
+      <c r="UK8" s="0"/>
+      <c r="UL8" s="0"/>
+      <c r="UM8" s="0"/>
+      <c r="UN8" s="0"/>
+      <c r="UO8" s="0"/>
+      <c r="UP8" s="0"/>
+      <c r="UQ8" s="0"/>
+      <c r="UR8" s="0"/>
+      <c r="US8" s="0"/>
+      <c r="UT8" s="0"/>
+      <c r="UU8" s="0"/>
+      <c r="UV8" s="0"/>
+      <c r="UW8" s="0"/>
+      <c r="UX8" s="0"/>
+      <c r="UY8" s="0"/>
+      <c r="UZ8" s="0"/>
+      <c r="VA8" s="0"/>
+      <c r="VB8" s="0"/>
+      <c r="VC8" s="0"/>
+      <c r="VD8" s="0"/>
+      <c r="VE8" s="0"/>
+      <c r="VF8" s="0"/>
+      <c r="VG8" s="0"/>
+      <c r="VH8" s="0"/>
+      <c r="VI8" s="0"/>
+      <c r="VJ8" s="0"/>
+      <c r="VK8" s="0"/>
+      <c r="VL8" s="0"/>
+      <c r="VM8" s="0"/>
+      <c r="VN8" s="0"/>
+      <c r="VO8" s="0"/>
+      <c r="VP8" s="0"/>
+      <c r="VQ8" s="0"/>
+      <c r="VR8" s="0"/>
+      <c r="VS8" s="0"/>
+      <c r="VT8" s="0"/>
+      <c r="VU8" s="0"/>
+      <c r="VV8" s="0"/>
+      <c r="VW8" s="0"/>
+      <c r="VX8" s="0"/>
+      <c r="VY8" s="0"/>
+      <c r="VZ8" s="0"/>
+      <c r="WA8" s="0"/>
+      <c r="WB8" s="0"/>
+      <c r="WC8" s="0"/>
+      <c r="WD8" s="0"/>
+      <c r="WE8" s="0"/>
+      <c r="WF8" s="0"/>
+      <c r="WG8" s="0"/>
+      <c r="WH8" s="0"/>
+      <c r="WI8" s="0"/>
+      <c r="WJ8" s="0"/>
+      <c r="WK8" s="0"/>
+      <c r="WL8" s="0"/>
+      <c r="WM8" s="0"/>
+      <c r="WN8" s="0"/>
+      <c r="WO8" s="0"/>
+      <c r="WP8" s="0"/>
+      <c r="WQ8" s="0"/>
+      <c r="WR8" s="0"/>
+      <c r="WS8" s="0"/>
+      <c r="WT8" s="0"/>
+      <c r="WU8" s="0"/>
+      <c r="WV8" s="0"/>
+      <c r="WW8" s="0"/>
+      <c r="WX8" s="0"/>
+      <c r="WY8" s="0"/>
+      <c r="WZ8" s="0"/>
+      <c r="XA8" s="0"/>
+      <c r="XB8" s="0"/>
+      <c r="XC8" s="0"/>
+      <c r="XD8" s="0"/>
+      <c r="XE8" s="0"/>
+      <c r="XF8" s="0"/>
+      <c r="XG8" s="0"/>
+      <c r="XH8" s="0"/>
+      <c r="XI8" s="0"/>
+      <c r="XJ8" s="0"/>
+      <c r="XK8" s="0"/>
+      <c r="XL8" s="0"/>
+      <c r="XM8" s="0"/>
+      <c r="XN8" s="0"/>
+      <c r="XO8" s="0"/>
+      <c r="XP8" s="0"/>
+      <c r="XQ8" s="0"/>
+      <c r="XR8" s="0"/>
+      <c r="XS8" s="0"/>
+      <c r="XT8" s="0"/>
+      <c r="XU8" s="0"/>
+      <c r="XV8" s="0"/>
+      <c r="XW8" s="0"/>
+      <c r="XX8" s="0"/>
+      <c r="XY8" s="0"/>
+      <c r="XZ8" s="0"/>
+      <c r="YA8" s="0"/>
+      <c r="YB8" s="0"/>
+      <c r="YC8" s="0"/>
+      <c r="YD8" s="0"/>
+      <c r="YE8" s="0"/>
+      <c r="YF8" s="0"/>
+      <c r="YG8" s="0"/>
+      <c r="YH8" s="0"/>
+      <c r="YI8" s="0"/>
+      <c r="YJ8" s="0"/>
+      <c r="YK8" s="0"/>
+      <c r="YL8" s="0"/>
+      <c r="YM8" s="0"/>
+      <c r="YN8" s="0"/>
+      <c r="YO8" s="0"/>
+      <c r="YP8" s="0"/>
+      <c r="YQ8" s="0"/>
+      <c r="YR8" s="0"/>
+      <c r="YS8" s="0"/>
+      <c r="YT8" s="0"/>
+      <c r="YU8" s="0"/>
+      <c r="YV8" s="0"/>
+      <c r="YW8" s="0"/>
+      <c r="YX8" s="0"/>
+      <c r="YY8" s="0"/>
+      <c r="YZ8" s="0"/>
+      <c r="ZA8" s="0"/>
+      <c r="ZB8" s="0"/>
+      <c r="ZC8" s="0"/>
+      <c r="ZD8" s="0"/>
+      <c r="ZE8" s="0"/>
+      <c r="ZF8" s="0"/>
+      <c r="ZG8" s="0"/>
+      <c r="ZH8" s="0"/>
+      <c r="ZI8" s="0"/>
+      <c r="ZJ8" s="0"/>
+      <c r="ZK8" s="0"/>
+      <c r="ZL8" s="0"/>
+      <c r="ZM8" s="0"/>
+      <c r="ZN8" s="0"/>
+      <c r="ZO8" s="0"/>
+      <c r="ZP8" s="0"/>
+      <c r="ZQ8" s="0"/>
+      <c r="ZR8" s="0"/>
+      <c r="ZS8" s="0"/>
+      <c r="ZT8" s="0"/>
+      <c r="ZU8" s="0"/>
+      <c r="ZV8" s="0"/>
+      <c r="ZW8" s="0"/>
+      <c r="ZX8" s="0"/>
+      <c r="ZY8" s="0"/>
+      <c r="ZZ8" s="0"/>
+      <c r="AAA8" s="0"/>
+      <c r="AAB8" s="0"/>
+      <c r="AAC8" s="0"/>
+      <c r="AAD8" s="0"/>
+      <c r="AAE8" s="0"/>
+      <c r="AAF8" s="0"/>
+      <c r="AAG8" s="0"/>
+      <c r="AAH8" s="0"/>
+      <c r="AAI8" s="0"/>
+      <c r="AAJ8" s="0"/>
+      <c r="AAK8" s="0"/>
+      <c r="AAL8" s="0"/>
+      <c r="AAM8" s="0"/>
+      <c r="AAN8" s="0"/>
+      <c r="AAO8" s="0"/>
+      <c r="AAP8" s="0"/>
+      <c r="AAQ8" s="0"/>
+      <c r="AAR8" s="0"/>
+      <c r="AAS8" s="0"/>
+      <c r="AAT8" s="0"/>
+      <c r="AAU8" s="0"/>
+      <c r="AAV8" s="0"/>
+      <c r="AAW8" s="0"/>
+      <c r="AAX8" s="0"/>
+      <c r="AAY8" s="0"/>
+      <c r="AAZ8" s="0"/>
+      <c r="ABA8" s="0"/>
+      <c r="ABB8" s="0"/>
+      <c r="ABC8" s="0"/>
+      <c r="ABD8" s="0"/>
+      <c r="ABE8" s="0"/>
+      <c r="ABF8" s="0"/>
+      <c r="ABG8" s="0"/>
+      <c r="ABH8" s="0"/>
+      <c r="ABI8" s="0"/>
+      <c r="ABJ8" s="0"/>
+      <c r="ABK8" s="0"/>
+      <c r="ABL8" s="0"/>
+      <c r="ABM8" s="0"/>
+      <c r="ABN8" s="0"/>
+      <c r="ABO8" s="0"/>
+      <c r="ABP8" s="0"/>
+      <c r="ABQ8" s="0"/>
+      <c r="ABR8" s="0"/>
+      <c r="ABS8" s="0"/>
+      <c r="ABT8" s="0"/>
+      <c r="ABU8" s="0"/>
+      <c r="ABV8" s="0"/>
+      <c r="ABW8" s="0"/>
+      <c r="ABX8" s="0"/>
+      <c r="ABY8" s="0"/>
+      <c r="ABZ8" s="0"/>
+      <c r="ACA8" s="0"/>
+      <c r="ACB8" s="0"/>
+      <c r="ACC8" s="0"/>
+      <c r="ACD8" s="0"/>
+      <c r="ACE8" s="0"/>
+      <c r="ACF8" s="0"/>
+      <c r="ACG8" s="0"/>
+      <c r="ACH8" s="0"/>
+      <c r="ACI8" s="0"/>
+      <c r="ACJ8" s="0"/>
+      <c r="ACK8" s="0"/>
+      <c r="ACL8" s="0"/>
+      <c r="ACM8" s="0"/>
+      <c r="ACN8" s="0"/>
+      <c r="ACO8" s="0"/>
+      <c r="ACP8" s="0"/>
+      <c r="ACQ8" s="0"/>
+      <c r="ACR8" s="0"/>
+      <c r="ACS8" s="0"/>
+      <c r="ACT8" s="0"/>
+      <c r="ACU8" s="0"/>
+      <c r="ACV8" s="0"/>
+      <c r="ACW8" s="0"/>
+      <c r="ACX8" s="0"/>
+      <c r="ACY8" s="0"/>
+      <c r="ACZ8" s="0"/>
+      <c r="ADA8" s="0"/>
+      <c r="ADB8" s="0"/>
+      <c r="ADC8" s="0"/>
+      <c r="ADD8" s="0"/>
+      <c r="ADE8" s="0"/>
+      <c r="ADF8" s="0"/>
+      <c r="ADG8" s="0"/>
+      <c r="ADH8" s="0"/>
+      <c r="ADI8" s="0"/>
+      <c r="ADJ8" s="0"/>
+      <c r="ADK8" s="0"/>
+      <c r="ADL8" s="0"/>
+      <c r="ADM8" s="0"/>
+      <c r="ADN8" s="0"/>
+      <c r="ADO8" s="0"/>
+      <c r="ADP8" s="0"/>
+      <c r="ADQ8" s="0"/>
+      <c r="ADR8" s="0"/>
+      <c r="ADS8" s="0"/>
+      <c r="ADT8" s="0"/>
+      <c r="ADU8" s="0"/>
+      <c r="ADV8" s="0"/>
+      <c r="ADW8" s="0"/>
+      <c r="ADX8" s="0"/>
+      <c r="ADY8" s="0"/>
+      <c r="ADZ8" s="0"/>
+      <c r="AEA8" s="0"/>
+      <c r="AEB8" s="0"/>
+      <c r="AEC8" s="0"/>
+      <c r="AED8" s="0"/>
+      <c r="AEE8" s="0"/>
+      <c r="AEF8" s="0"/>
+      <c r="AEG8" s="0"/>
+      <c r="AEH8" s="0"/>
+      <c r="AEI8" s="0"/>
+      <c r="AEJ8" s="0"/>
+      <c r="AEK8" s="0"/>
+      <c r="AEL8" s="0"/>
+      <c r="AEM8" s="0"/>
+      <c r="AEN8" s="0"/>
+      <c r="AEO8" s="0"/>
+      <c r="AEP8" s="0"/>
+      <c r="AEQ8" s="0"/>
+      <c r="AER8" s="0"/>
+      <c r="AES8" s="0"/>
+      <c r="AET8" s="0"/>
+      <c r="AEU8" s="0"/>
+      <c r="AEV8" s="0"/>
+      <c r="AEW8" s="0"/>
+      <c r="AEX8" s="0"/>
+      <c r="AEY8" s="0"/>
+      <c r="AEZ8" s="0"/>
+      <c r="AFA8" s="0"/>
+      <c r="AFB8" s="0"/>
+      <c r="AFC8" s="0"/>
+      <c r="AFD8" s="0"/>
+      <c r="AFE8" s="0"/>
+      <c r="AFF8" s="0"/>
+      <c r="AFG8" s="0"/>
+      <c r="AFH8" s="0"/>
+      <c r="AFI8" s="0"/>
+      <c r="AFJ8" s="0"/>
+      <c r="AFK8" s="0"/>
+      <c r="AFL8" s="0"/>
+      <c r="AFM8" s="0"/>
+      <c r="AFN8" s="0"/>
+      <c r="AFO8" s="0"/>
+      <c r="AFP8" s="0"/>
+      <c r="AFQ8" s="0"/>
+      <c r="AFR8" s="0"/>
+      <c r="AFS8" s="0"/>
+      <c r="AFT8" s="0"/>
+      <c r="AFU8" s="0"/>
+      <c r="AFV8" s="0"/>
+      <c r="AFW8" s="0"/>
+      <c r="AFX8" s="0"/>
+      <c r="AFY8" s="0"/>
+      <c r="AFZ8" s="0"/>
+      <c r="AGA8" s="0"/>
+      <c r="AGB8" s="0"/>
+      <c r="AGC8" s="0"/>
+      <c r="AGD8" s="0"/>
+      <c r="AGE8" s="0"/>
+      <c r="AGF8" s="0"/>
+      <c r="AGG8" s="0"/>
+      <c r="AGH8" s="0"/>
+      <c r="AGI8" s="0"/>
+      <c r="AGJ8" s="0"/>
+      <c r="AGK8" s="0"/>
+      <c r="AGL8" s="0"/>
+      <c r="AGM8" s="0"/>
+      <c r="AGN8" s="0"/>
+      <c r="AGO8" s="0"/>
+      <c r="AGP8" s="0"/>
+      <c r="AGQ8" s="0"/>
+      <c r="AGR8" s="0"/>
+      <c r="AGS8" s="0"/>
+      <c r="AGT8" s="0"/>
+      <c r="AGU8" s="0"/>
+      <c r="AGV8" s="0"/>
+      <c r="AGW8" s="0"/>
+      <c r="AGX8" s="0"/>
+      <c r="AGY8" s="0"/>
+      <c r="AGZ8" s="0"/>
+      <c r="AHA8" s="0"/>
+      <c r="AHB8" s="0"/>
+      <c r="AHC8" s="0"/>
+      <c r="AHD8" s="0"/>
+      <c r="AHE8" s="0"/>
+      <c r="AHF8" s="0"/>
+      <c r="AHG8" s="0"/>
+      <c r="AHH8" s="0"/>
+      <c r="AHI8" s="0"/>
+      <c r="AHJ8" s="0"/>
+      <c r="AHK8" s="0"/>
+      <c r="AHL8" s="0"/>
+      <c r="AHM8" s="0"/>
+      <c r="AHN8" s="0"/>
+      <c r="AHO8" s="0"/>
+      <c r="AHP8" s="0"/>
+      <c r="AHQ8" s="0"/>
+      <c r="AHR8" s="0"/>
+      <c r="AHS8" s="0"/>
+      <c r="AHT8" s="0"/>
+      <c r="AHU8" s="0"/>
+      <c r="AHV8" s="0"/>
+      <c r="AHW8" s="0"/>
+      <c r="AHX8" s="0"/>
+      <c r="AHY8" s="0"/>
+      <c r="AHZ8" s="0"/>
+      <c r="AIA8" s="0"/>
+      <c r="AIB8" s="0"/>
+      <c r="AIC8" s="0"/>
+      <c r="AID8" s="0"/>
+      <c r="AIE8" s="0"/>
+      <c r="AIF8" s="0"/>
+      <c r="AIG8" s="0"/>
+      <c r="AIH8" s="0"/>
+      <c r="AII8" s="0"/>
+      <c r="AIJ8" s="0"/>
+      <c r="AIK8" s="0"/>
+      <c r="AIL8" s="0"/>
+      <c r="AIM8" s="0"/>
+      <c r="AIN8" s="0"/>
+      <c r="AIO8" s="0"/>
+      <c r="AIP8" s="0"/>
+      <c r="AIQ8" s="0"/>
+      <c r="AIR8" s="0"/>
+      <c r="AIS8" s="0"/>
+      <c r="AIT8" s="0"/>
+      <c r="AIU8" s="0"/>
+      <c r="AIV8" s="0"/>
+      <c r="AIW8" s="0"/>
+      <c r="AIX8" s="0"/>
+      <c r="AIY8" s="0"/>
+      <c r="AIZ8" s="0"/>
+      <c r="AJA8" s="0"/>
+      <c r="AJB8" s="0"/>
+      <c r="AJC8" s="0"/>
+      <c r="AJD8" s="0"/>
+      <c r="AJE8" s="0"/>
+      <c r="AJF8" s="0"/>
+      <c r="AJG8" s="0"/>
+      <c r="AJH8" s="0"/>
+      <c r="AJI8" s="0"/>
+      <c r="AJJ8" s="0"/>
+      <c r="AJK8" s="0"/>
+      <c r="AJL8" s="0"/>
+      <c r="AJM8" s="0"/>
+      <c r="AJN8" s="0"/>
+      <c r="AJO8" s="0"/>
+      <c r="AJP8" s="0"/>
+      <c r="AJQ8" s="0"/>
+      <c r="AJR8" s="0"/>
+      <c r="AJS8" s="0"/>
+      <c r="AJT8" s="0"/>
+      <c r="AJU8" s="0"/>
+      <c r="AJV8" s="0"/>
+      <c r="AJW8" s="0"/>
+      <c r="AJX8" s="0"/>
+      <c r="AJY8" s="0"/>
+      <c r="AJZ8" s="0"/>
+      <c r="AKA8" s="0"/>
+      <c r="AKB8" s="0"/>
+      <c r="AKC8" s="0"/>
+      <c r="AKD8" s="0"/>
+      <c r="AKE8" s="0"/>
+      <c r="AKF8" s="0"/>
+      <c r="AKG8" s="0"/>
+      <c r="AKH8" s="0"/>
+      <c r="AKI8" s="0"/>
+      <c r="AKJ8" s="0"/>
+      <c r="AKK8" s="0"/>
+      <c r="AKL8" s="0"/>
+      <c r="AKM8" s="0"/>
+      <c r="AKN8" s="0"/>
+      <c r="AKO8" s="0"/>
+      <c r="AKP8" s="0"/>
+      <c r="AKQ8" s="0"/>
+      <c r="AKR8" s="0"/>
+      <c r="AKS8" s="0"/>
+      <c r="AKT8" s="0"/>
+      <c r="AKU8" s="0"/>
+      <c r="AKV8" s="0"/>
+      <c r="AKW8" s="0"/>
+      <c r="AKX8" s="0"/>
+      <c r="AKY8" s="0"/>
+      <c r="AKZ8" s="0"/>
+      <c r="ALA8" s="0"/>
+      <c r="ALB8" s="0"/>
+      <c r="ALC8" s="0"/>
+      <c r="ALD8" s="0"/>
+      <c r="ALE8" s="0"/>
+      <c r="ALF8" s="0"/>
+      <c r="ALG8" s="0"/>
+      <c r="ALH8" s="0"/>
+      <c r="ALI8" s="0"/>
+      <c r="ALJ8" s="0"/>
+      <c r="ALK8" s="0"/>
+      <c r="ALL8" s="0"/>
+      <c r="ALM8" s="0"/>
+      <c r="ALN8" s="0"/>
+      <c r="ALO8" s="0"/>
+      <c r="ALP8" s="0"/>
+      <c r="ALQ8" s="0"/>
+      <c r="ALR8" s="0"/>
+      <c r="ALS8" s="0"/>
+      <c r="ALT8" s="0"/>
+      <c r="ALU8" s="0"/>
+      <c r="ALV8" s="0"/>
+      <c r="ALW8" s="0"/>
+      <c r="ALX8" s="0"/>
+      <c r="ALY8" s="0"/>
+      <c r="ALZ8" s="0"/>
+      <c r="AMA8" s="0"/>
+      <c r="AMB8" s="0"/>
+      <c r="AMC8" s="0"/>
+      <c r="AMD8" s="0"/>
+      <c r="AME8" s="0"/>
+      <c r="AMF8" s="0"/>
+      <c r="AMG8" s="0"/>
+      <c r="AMH8" s="0"/>
+      <c r="AMI8" s="0"/>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
@@ -6152,15 +11459,15 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="9.40485829959514"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="5.78542510121457"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.8097165991903"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="2" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6302,6 +11609,11 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
@@ -6318,6 +11630,24 @@
         <v>289</v>
       </c>
       <c r="F9" s="12"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
@@ -6326,19 +11656,18 @@
       <c r="B11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="14" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="2" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6349,19 +11678,15 @@
       <c r="B12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14" t="s">
+      <c r="F12" s="13"/>
+      <c r="K12" s="2" t="s">
         <v>302</v>
       </c>
     </row>

--- a/Doc/BOM.xlsx
+++ b/Doc/BOM.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="291">
   <si>
     <t xml:space="preserve">Ref.Des.</t>
   </si>
@@ -57,154 +57,142 @@
     <t xml:space="preserve">notes</t>
   </si>
   <si>
-    <t xml:space="preserve">R1</t>
+    <t xml:space="preserve">R7</t>
   </si>
   <si>
     <t xml:space="preserve">Resistor</t>
   </si>
   <si>
-    <t xml:space="preserve">470k</t>
+    <t xml:space="preserve">2k4</t>
   </si>
   <si>
     <t xml:space="preserve">0603</t>
   </si>
   <si>
+    <t xml:space="preserve">Yageo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603JR-072K4L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603-RC0603JR-072K4L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exact part my be changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-0782KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603-RC0603FR-0782KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1, R11, R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603JR-07180KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603-RC0603JR-07180KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-0747KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603-RC0603FR-0747KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6, R10, R21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-0712KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603-RC0603FR-0712KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12, R24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-0734KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603-RC0603FR-0734KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5k1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-075K1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603-RC0603FR-075K1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2,R3,R4,R5,R32,R40,R41,R43,R44,R45,R46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1k6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-071K6L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603-RC0603FR-071K6L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R47,R48,R49,R50,R51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-07330RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603-RC0603FR-07330RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0R1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Panasonic</t>
   </si>
   <si>
-    <t xml:space="preserve">ERJ-PA3J474V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mouser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">667-ERJ-PA3J474V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exact part my be changed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2k4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yageo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603JR-072K4L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-RC0603JR-072K4L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603FR-0782KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-RC0603FR-0782KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R11, R23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603FR-0743KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-RC0603FR-0743KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603FR-0747KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-RC0603FR-0747KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6, R10, R21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603FR-0712KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-RC0603FR-0712KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R12, R24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8k2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603FR-078K2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-RC0603FR-078K2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5k1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603FR-075K1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-RC0603FR-075K1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2,R3,R4,R5,R32,R40,R41,R43,R44,R45,R46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1k6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603FR-071K6L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-RC0603FR-071K6L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R47,R48,R49,R50,R51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603FR-07330RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-RC0603FR-07330RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0R1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ERJ-3RSFR10V</t>
   </si>
   <si>
     <t xml:space="preserve">667-ERJ-3RSFR10V</t>
   </si>
   <si>
-    <t xml:space="preserve">C13</t>
+    <t xml:space="preserve">C16, C24</t>
   </si>
   <si>
     <t xml:space="preserve">Capacitor</t>
@@ -225,39 +213,15 @@
     <t xml:space="preserve">81-GRM31CR60J107ME9L</t>
   </si>
   <si>
-    <t xml:space="preserve">C24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47µF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRM31CR61A476KE15L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81-GRM31CR61A476KE5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22µF</t>
+    <t xml:space="preserve">C10, C11, C12, C20, C30, C34, C52, C54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10µF</t>
   </si>
   <si>
     <t xml:space="preserve">&gt;24V</t>
   </si>
   <si>
-    <t xml:space="preserve">GRM32ER61E226KE15L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81-GRM32ER61E226KE15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C20, C30, C34, C52, C54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10µF</t>
-  </si>
-  <si>
     <t xml:space="preserve">GRM188R6YA106MA73D</t>
   </si>
   <si>
@@ -282,7 +246,7 @@
     <t xml:space="preserve">810-C1608X5R1V225K</t>
   </si>
   <si>
-    <t xml:space="preserve">C11, C12,C40,C51</t>
+    <t xml:space="preserve">C14, C15,C40,C51</t>
   </si>
   <si>
     <t xml:space="preserve">1µF</t>
@@ -294,7 +258,7 @@
     <t xml:space="preserve">81-GRM188R61E105KA12</t>
   </si>
   <si>
-    <t xml:space="preserve">C1,C2,C23,C32,C33,C41,C42,C43,C44, C50,C53,C55,C61,C62,C63</t>
+    <t xml:space="preserve">C1,C2,C13,C23,C32,C33,C41,C42,C43,C44, C50,C53,C55,C61,C62,C63</t>
   </si>
   <si>
     <t xml:space="preserve">100nF</t>
@@ -570,7 +534,7 @@
     <t xml:space="preserve">78-SISS27DN-T1-GE3</t>
   </si>
   <si>
-    <t xml:space="preserve">Better Alternative: SISS27ADN-T1-GE3</t>
+    <t xml:space="preserve">better:: SISS27ADN-T1-GE3</t>
   </si>
   <si>
     <t xml:space="preserve">Q2</t>
@@ -594,13 +558,13 @@
     <t xml:space="preserve">N-MOSFET</t>
   </si>
   <si>
-    <t xml:space="preserve">SI7114ADN-T1-GE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">781-SI7114ADN-T1-GE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternative: SI7114DN-T1-E3</t>
+    <t xml:space="preserve">SIS434DN-T1-GE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">781-SIS434DN-GE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">better: SIS862DN-T1-GE3</t>
   </si>
   <si>
     <t xml:space="preserve">U10</t>
@@ -747,7 +711,7 @@
     <t xml:space="preserve">131-4776</t>
   </si>
   <si>
-    <t xml:space="preserve">type alternative</t>
+    <t xml:space="preserve">combined (preffered)</t>
   </si>
   <si>
     <t xml:space="preserve">note</t>
@@ -1049,16 +1013,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1102,25 +1066,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:54"/>
+  <dimension ref="1:51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="54.3076923076923"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.21457489878543"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1161,16 +1125,15 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
@@ -2185,1112 +2148,109 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="3" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="0"/>
-      <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
-      <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
-      <c r="R3" s="0"/>
-      <c r="S3" s="0"/>
-      <c r="T3" s="0"/>
-      <c r="U3" s="0"/>
-      <c r="V3" s="0"/>
-      <c r="W3" s="0"/>
-      <c r="X3" s="0"/>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="0"/>
-      <c r="AA3" s="0"/>
-      <c r="AB3" s="0"/>
-      <c r="AC3" s="0"/>
-      <c r="AD3" s="0"/>
-      <c r="AE3" s="0"/>
-      <c r="AF3" s="0"/>
-      <c r="AG3" s="0"/>
-      <c r="AH3" s="0"/>
-      <c r="AI3" s="0"/>
-      <c r="AJ3" s="0"/>
-      <c r="AK3" s="0"/>
-      <c r="AL3" s="0"/>
-      <c r="AM3" s="0"/>
-      <c r="AN3" s="0"/>
-      <c r="AO3" s="0"/>
-      <c r="AP3" s="0"/>
-      <c r="AQ3" s="0"/>
-      <c r="AR3" s="0"/>
-      <c r="AS3" s="0"/>
-      <c r="AT3" s="0"/>
-      <c r="AU3" s="0"/>
-      <c r="AV3" s="0"/>
-      <c r="AW3" s="0"/>
-      <c r="AX3" s="0"/>
-      <c r="AY3" s="0"/>
-      <c r="AZ3" s="0"/>
-      <c r="BA3" s="0"/>
-      <c r="BB3" s="0"/>
-      <c r="BC3" s="0"/>
-      <c r="BD3" s="0"/>
-      <c r="BE3" s="0"/>
-      <c r="BF3" s="0"/>
-      <c r="BG3" s="0"/>
-      <c r="BH3" s="0"/>
-      <c r="BI3" s="0"/>
-      <c r="BJ3" s="0"/>
-      <c r="BK3" s="0"/>
-      <c r="BL3" s="0"/>
-      <c r="BM3" s="0"/>
-      <c r="BN3" s="0"/>
-      <c r="BO3" s="0"/>
-      <c r="BP3" s="0"/>
-      <c r="BQ3" s="0"/>
-      <c r="BR3" s="0"/>
-      <c r="BS3" s="0"/>
-      <c r="BT3" s="0"/>
-      <c r="BU3" s="0"/>
-      <c r="BV3" s="0"/>
-      <c r="BW3" s="0"/>
-      <c r="BX3" s="0"/>
-      <c r="BY3" s="0"/>
-      <c r="BZ3" s="0"/>
-      <c r="CA3" s="0"/>
-      <c r="CB3" s="0"/>
-      <c r="CC3" s="0"/>
-      <c r="CD3" s="0"/>
-      <c r="CE3" s="0"/>
-      <c r="CF3" s="0"/>
-      <c r="CG3" s="0"/>
-      <c r="CH3" s="0"/>
-      <c r="CI3" s="0"/>
-      <c r="CJ3" s="0"/>
-      <c r="CK3" s="0"/>
-      <c r="CL3" s="0"/>
-      <c r="CM3" s="0"/>
-      <c r="CN3" s="0"/>
-      <c r="CO3" s="0"/>
-      <c r="CP3" s="0"/>
-      <c r="CQ3" s="0"/>
-      <c r="CR3" s="0"/>
-      <c r="CS3" s="0"/>
-      <c r="CT3" s="0"/>
-      <c r="CU3" s="0"/>
-      <c r="CV3" s="0"/>
-      <c r="CW3" s="0"/>
-      <c r="CX3" s="0"/>
-      <c r="CY3" s="0"/>
-      <c r="CZ3" s="0"/>
-      <c r="DA3" s="0"/>
-      <c r="DB3" s="0"/>
-      <c r="DC3" s="0"/>
-      <c r="DD3" s="0"/>
-      <c r="DE3" s="0"/>
-      <c r="DF3" s="0"/>
-      <c r="DG3" s="0"/>
-      <c r="DH3" s="0"/>
-      <c r="DI3" s="0"/>
-      <c r="DJ3" s="0"/>
-      <c r="DK3" s="0"/>
-      <c r="DL3" s="0"/>
-      <c r="DM3" s="0"/>
-      <c r="DN3" s="0"/>
-      <c r="DO3" s="0"/>
-      <c r="DP3" s="0"/>
-      <c r="DQ3" s="0"/>
-      <c r="DR3" s="0"/>
-      <c r="DS3" s="0"/>
-      <c r="DT3" s="0"/>
-      <c r="DU3" s="0"/>
-      <c r="DV3" s="0"/>
-      <c r="DW3" s="0"/>
-      <c r="DX3" s="0"/>
-      <c r="DY3" s="0"/>
-      <c r="DZ3" s="0"/>
-      <c r="EA3" s="0"/>
-      <c r="EB3" s="0"/>
-      <c r="EC3" s="0"/>
-      <c r="ED3" s="0"/>
-      <c r="EE3" s="0"/>
-      <c r="EF3" s="0"/>
-      <c r="EG3" s="0"/>
-      <c r="EH3" s="0"/>
-      <c r="EI3" s="0"/>
-      <c r="EJ3" s="0"/>
-      <c r="EK3" s="0"/>
-      <c r="EL3" s="0"/>
-      <c r="EM3" s="0"/>
-      <c r="EN3" s="0"/>
-      <c r="EO3" s="0"/>
-      <c r="EP3" s="0"/>
-      <c r="EQ3" s="0"/>
-      <c r="ER3" s="0"/>
-      <c r="ES3" s="0"/>
-      <c r="ET3" s="0"/>
-      <c r="EU3" s="0"/>
-      <c r="EV3" s="0"/>
-      <c r="EW3" s="0"/>
-      <c r="EX3" s="0"/>
-      <c r="EY3" s="0"/>
-      <c r="EZ3" s="0"/>
-      <c r="FA3" s="0"/>
-      <c r="FB3" s="0"/>
-      <c r="FC3" s="0"/>
-      <c r="FD3" s="0"/>
-      <c r="FE3" s="0"/>
-      <c r="FF3" s="0"/>
-      <c r="FG3" s="0"/>
-      <c r="FH3" s="0"/>
-      <c r="FI3" s="0"/>
-      <c r="FJ3" s="0"/>
-      <c r="FK3" s="0"/>
-      <c r="FL3" s="0"/>
-      <c r="FM3" s="0"/>
-      <c r="FN3" s="0"/>
-      <c r="FO3" s="0"/>
-      <c r="FP3" s="0"/>
-      <c r="FQ3" s="0"/>
-      <c r="FR3" s="0"/>
-      <c r="FS3" s="0"/>
-      <c r="FT3" s="0"/>
-      <c r="FU3" s="0"/>
-      <c r="FV3" s="0"/>
-      <c r="FW3" s="0"/>
-      <c r="FX3" s="0"/>
-      <c r="FY3" s="0"/>
-      <c r="FZ3" s="0"/>
-      <c r="GA3" s="0"/>
-      <c r="GB3" s="0"/>
-      <c r="GC3" s="0"/>
-      <c r="GD3" s="0"/>
-      <c r="GE3" s="0"/>
-      <c r="GF3" s="0"/>
-      <c r="GG3" s="0"/>
-      <c r="GH3" s="0"/>
-      <c r="GI3" s="0"/>
-      <c r="GJ3" s="0"/>
-      <c r="GK3" s="0"/>
-      <c r="GL3" s="0"/>
-      <c r="GM3" s="0"/>
-      <c r="GN3" s="0"/>
-      <c r="GO3" s="0"/>
-      <c r="GP3" s="0"/>
-      <c r="GQ3" s="0"/>
-      <c r="GR3" s="0"/>
-      <c r="GS3" s="0"/>
-      <c r="GT3" s="0"/>
-      <c r="GU3" s="0"/>
-      <c r="GV3" s="0"/>
-      <c r="GW3" s="0"/>
-      <c r="GX3" s="0"/>
-      <c r="GY3" s="0"/>
-      <c r="GZ3" s="0"/>
-      <c r="HA3" s="0"/>
-      <c r="HB3" s="0"/>
-      <c r="HC3" s="0"/>
-      <c r="HD3" s="0"/>
-      <c r="HE3" s="0"/>
-      <c r="HF3" s="0"/>
-      <c r="HG3" s="0"/>
-      <c r="HH3" s="0"/>
-      <c r="HI3" s="0"/>
-      <c r="HJ3" s="0"/>
-      <c r="HK3" s="0"/>
-      <c r="HL3" s="0"/>
-      <c r="HM3" s="0"/>
-      <c r="HN3" s="0"/>
-      <c r="HO3" s="0"/>
-      <c r="HP3" s="0"/>
-      <c r="HQ3" s="0"/>
-      <c r="HR3" s="0"/>
-      <c r="HS3" s="0"/>
-      <c r="HT3" s="0"/>
-      <c r="HU3" s="0"/>
-      <c r="HV3" s="0"/>
-      <c r="HW3" s="0"/>
-      <c r="HX3" s="0"/>
-      <c r="HY3" s="0"/>
-      <c r="HZ3" s="0"/>
-      <c r="IA3" s="0"/>
-      <c r="IB3" s="0"/>
-      <c r="IC3" s="0"/>
-      <c r="ID3" s="0"/>
-      <c r="IE3" s="0"/>
-      <c r="IF3" s="0"/>
-      <c r="IG3" s="0"/>
-      <c r="IH3" s="0"/>
-      <c r="II3" s="0"/>
-      <c r="IJ3" s="0"/>
-      <c r="IK3" s="0"/>
-      <c r="IL3" s="0"/>
-      <c r="IM3" s="0"/>
-      <c r="IN3" s="0"/>
-      <c r="IO3" s="0"/>
-      <c r="IP3" s="0"/>
-      <c r="IQ3" s="0"/>
-      <c r="IR3" s="0"/>
-      <c r="IS3" s="0"/>
-      <c r="IT3" s="0"/>
-      <c r="IU3" s="0"/>
-      <c r="IV3" s="0"/>
-      <c r="IW3" s="0"/>
-      <c r="IX3" s="0"/>
-      <c r="IY3" s="0"/>
-      <c r="IZ3" s="0"/>
-      <c r="JA3" s="0"/>
-      <c r="JB3" s="0"/>
-      <c r="JC3" s="0"/>
-      <c r="JD3" s="0"/>
-      <c r="JE3" s="0"/>
-      <c r="JF3" s="0"/>
-      <c r="JG3" s="0"/>
-      <c r="JH3" s="0"/>
-      <c r="JI3" s="0"/>
-      <c r="JJ3" s="0"/>
-      <c r="JK3" s="0"/>
-      <c r="JL3" s="0"/>
-      <c r="JM3" s="0"/>
-      <c r="JN3" s="0"/>
-      <c r="JO3" s="0"/>
-      <c r="JP3" s="0"/>
-      <c r="JQ3" s="0"/>
-      <c r="JR3" s="0"/>
-      <c r="JS3" s="0"/>
-      <c r="JT3" s="0"/>
-      <c r="JU3" s="0"/>
-      <c r="JV3" s="0"/>
-      <c r="JW3" s="0"/>
-      <c r="JX3" s="0"/>
-      <c r="JY3" s="0"/>
-      <c r="JZ3" s="0"/>
-      <c r="KA3" s="0"/>
-      <c r="KB3" s="0"/>
-      <c r="KC3" s="0"/>
-      <c r="KD3" s="0"/>
-      <c r="KE3" s="0"/>
-      <c r="KF3" s="0"/>
-      <c r="KG3" s="0"/>
-      <c r="KH3" s="0"/>
-      <c r="KI3" s="0"/>
-      <c r="KJ3" s="0"/>
-      <c r="KK3" s="0"/>
-      <c r="KL3" s="0"/>
-      <c r="KM3" s="0"/>
-      <c r="KN3" s="0"/>
-      <c r="KO3" s="0"/>
-      <c r="KP3" s="0"/>
-      <c r="KQ3" s="0"/>
-      <c r="KR3" s="0"/>
-      <c r="KS3" s="0"/>
-      <c r="KT3" s="0"/>
-      <c r="KU3" s="0"/>
-      <c r="KV3" s="0"/>
-      <c r="KW3" s="0"/>
-      <c r="KX3" s="0"/>
-      <c r="KY3" s="0"/>
-      <c r="KZ3" s="0"/>
-      <c r="LA3" s="0"/>
-      <c r="LB3" s="0"/>
-      <c r="LC3" s="0"/>
-      <c r="LD3" s="0"/>
-      <c r="LE3" s="0"/>
-      <c r="LF3" s="0"/>
-      <c r="LG3" s="0"/>
-      <c r="LH3" s="0"/>
-      <c r="LI3" s="0"/>
-      <c r="LJ3" s="0"/>
-      <c r="LK3" s="0"/>
-      <c r="LL3" s="0"/>
-      <c r="LM3" s="0"/>
-      <c r="LN3" s="0"/>
-      <c r="LO3" s="0"/>
-      <c r="LP3" s="0"/>
-      <c r="LQ3" s="0"/>
-      <c r="LR3" s="0"/>
-      <c r="LS3" s="0"/>
-      <c r="LT3" s="0"/>
-      <c r="LU3" s="0"/>
-      <c r="LV3" s="0"/>
-      <c r="LW3" s="0"/>
-      <c r="LX3" s="0"/>
-      <c r="LY3" s="0"/>
-      <c r="LZ3" s="0"/>
-      <c r="MA3" s="0"/>
-      <c r="MB3" s="0"/>
-      <c r="MC3" s="0"/>
-      <c r="MD3" s="0"/>
-      <c r="ME3" s="0"/>
-      <c r="MF3" s="0"/>
-      <c r="MG3" s="0"/>
-      <c r="MH3" s="0"/>
-      <c r="MI3" s="0"/>
-      <c r="MJ3" s="0"/>
-      <c r="MK3" s="0"/>
-      <c r="ML3" s="0"/>
-      <c r="MM3" s="0"/>
-      <c r="MN3" s="0"/>
-      <c r="MO3" s="0"/>
-      <c r="MP3" s="0"/>
-      <c r="MQ3" s="0"/>
-      <c r="MR3" s="0"/>
-      <c r="MS3" s="0"/>
-      <c r="MT3" s="0"/>
-      <c r="MU3" s="0"/>
-      <c r="MV3" s="0"/>
-      <c r="MW3" s="0"/>
-      <c r="MX3" s="0"/>
-      <c r="MY3" s="0"/>
-      <c r="MZ3" s="0"/>
-      <c r="NA3" s="0"/>
-      <c r="NB3" s="0"/>
-      <c r="NC3" s="0"/>
-      <c r="ND3" s="0"/>
-      <c r="NE3" s="0"/>
-      <c r="NF3" s="0"/>
-      <c r="NG3" s="0"/>
-      <c r="NH3" s="0"/>
-      <c r="NI3" s="0"/>
-      <c r="NJ3" s="0"/>
-      <c r="NK3" s="0"/>
-      <c r="NL3" s="0"/>
-      <c r="NM3" s="0"/>
-      <c r="NN3" s="0"/>
-      <c r="NO3" s="0"/>
-      <c r="NP3" s="0"/>
-      <c r="NQ3" s="0"/>
-      <c r="NR3" s="0"/>
-      <c r="NS3" s="0"/>
-      <c r="NT3" s="0"/>
-      <c r="NU3" s="0"/>
-      <c r="NV3" s="0"/>
-      <c r="NW3" s="0"/>
-      <c r="NX3" s="0"/>
-      <c r="NY3" s="0"/>
-      <c r="NZ3" s="0"/>
-      <c r="OA3" s="0"/>
-      <c r="OB3" s="0"/>
-      <c r="OC3" s="0"/>
-      <c r="OD3" s="0"/>
-      <c r="OE3" s="0"/>
-      <c r="OF3" s="0"/>
-      <c r="OG3" s="0"/>
-      <c r="OH3" s="0"/>
-      <c r="OI3" s="0"/>
-      <c r="OJ3" s="0"/>
-      <c r="OK3" s="0"/>
-      <c r="OL3" s="0"/>
-      <c r="OM3" s="0"/>
-      <c r="ON3" s="0"/>
-      <c r="OO3" s="0"/>
-      <c r="OP3" s="0"/>
-      <c r="OQ3" s="0"/>
-      <c r="OR3" s="0"/>
-      <c r="OS3" s="0"/>
-      <c r="OT3" s="0"/>
-      <c r="OU3" s="0"/>
-      <c r="OV3" s="0"/>
-      <c r="OW3" s="0"/>
-      <c r="OX3" s="0"/>
-      <c r="OY3" s="0"/>
-      <c r="OZ3" s="0"/>
-      <c r="PA3" s="0"/>
-      <c r="PB3" s="0"/>
-      <c r="PC3" s="0"/>
-      <c r="PD3" s="0"/>
-      <c r="PE3" s="0"/>
-      <c r="PF3" s="0"/>
-      <c r="PG3" s="0"/>
-      <c r="PH3" s="0"/>
-      <c r="PI3" s="0"/>
-      <c r="PJ3" s="0"/>
-      <c r="PK3" s="0"/>
-      <c r="PL3" s="0"/>
-      <c r="PM3" s="0"/>
-      <c r="PN3" s="0"/>
-      <c r="PO3" s="0"/>
-      <c r="PP3" s="0"/>
-      <c r="PQ3" s="0"/>
-      <c r="PR3" s="0"/>
-      <c r="PS3" s="0"/>
-      <c r="PT3" s="0"/>
-      <c r="PU3" s="0"/>
-      <c r="PV3" s="0"/>
-      <c r="PW3" s="0"/>
-      <c r="PX3" s="0"/>
-      <c r="PY3" s="0"/>
-      <c r="PZ3" s="0"/>
-      <c r="QA3" s="0"/>
-      <c r="QB3" s="0"/>
-      <c r="QC3" s="0"/>
-      <c r="QD3" s="0"/>
-      <c r="QE3" s="0"/>
-      <c r="QF3" s="0"/>
-      <c r="QG3" s="0"/>
-      <c r="QH3" s="0"/>
-      <c r="QI3" s="0"/>
-      <c r="QJ3" s="0"/>
-      <c r="QK3" s="0"/>
-      <c r="QL3" s="0"/>
-      <c r="QM3" s="0"/>
-      <c r="QN3" s="0"/>
-      <c r="QO3" s="0"/>
-      <c r="QP3" s="0"/>
-      <c r="QQ3" s="0"/>
-      <c r="QR3" s="0"/>
-      <c r="QS3" s="0"/>
-      <c r="QT3" s="0"/>
-      <c r="QU3" s="0"/>
-      <c r="QV3" s="0"/>
-      <c r="QW3" s="0"/>
-      <c r="QX3" s="0"/>
-      <c r="QY3" s="0"/>
-      <c r="QZ3" s="0"/>
-      <c r="RA3" s="0"/>
-      <c r="RB3" s="0"/>
-      <c r="RC3" s="0"/>
-      <c r="RD3" s="0"/>
-      <c r="RE3" s="0"/>
-      <c r="RF3" s="0"/>
-      <c r="RG3" s="0"/>
-      <c r="RH3" s="0"/>
-      <c r="RI3" s="0"/>
-      <c r="RJ3" s="0"/>
-      <c r="RK3" s="0"/>
-      <c r="RL3" s="0"/>
-      <c r="RM3" s="0"/>
-      <c r="RN3" s="0"/>
-      <c r="RO3" s="0"/>
-      <c r="RP3" s="0"/>
-      <c r="RQ3" s="0"/>
-      <c r="RR3" s="0"/>
-      <c r="RS3" s="0"/>
-      <c r="RT3" s="0"/>
-      <c r="RU3" s="0"/>
-      <c r="RV3" s="0"/>
-      <c r="RW3" s="0"/>
-      <c r="RX3" s="0"/>
-      <c r="RY3" s="0"/>
-      <c r="RZ3" s="0"/>
-      <c r="SA3" s="0"/>
-      <c r="SB3" s="0"/>
-      <c r="SC3" s="0"/>
-      <c r="SD3" s="0"/>
-      <c r="SE3" s="0"/>
-      <c r="SF3" s="0"/>
-      <c r="SG3" s="0"/>
-      <c r="SH3" s="0"/>
-      <c r="SI3" s="0"/>
-      <c r="SJ3" s="0"/>
-      <c r="SK3" s="0"/>
-      <c r="SL3" s="0"/>
-      <c r="SM3" s="0"/>
-      <c r="SN3" s="0"/>
-      <c r="SO3" s="0"/>
-      <c r="SP3" s="0"/>
-      <c r="SQ3" s="0"/>
-      <c r="SR3" s="0"/>
-      <c r="SS3" s="0"/>
-      <c r="ST3" s="0"/>
-      <c r="SU3" s="0"/>
-      <c r="SV3" s="0"/>
-      <c r="SW3" s="0"/>
-      <c r="SX3" s="0"/>
-      <c r="SY3" s="0"/>
-      <c r="SZ3" s="0"/>
-      <c r="TA3" s="0"/>
-      <c r="TB3" s="0"/>
-      <c r="TC3" s="0"/>
-      <c r="TD3" s="0"/>
-      <c r="TE3" s="0"/>
-      <c r="TF3" s="0"/>
-      <c r="TG3" s="0"/>
-      <c r="TH3" s="0"/>
-      <c r="TI3" s="0"/>
-      <c r="TJ3" s="0"/>
-      <c r="TK3" s="0"/>
-      <c r="TL3" s="0"/>
-      <c r="TM3" s="0"/>
-      <c r="TN3" s="0"/>
-      <c r="TO3" s="0"/>
-      <c r="TP3" s="0"/>
-      <c r="TQ3" s="0"/>
-      <c r="TR3" s="0"/>
-      <c r="TS3" s="0"/>
-      <c r="TT3" s="0"/>
-      <c r="TU3" s="0"/>
-      <c r="TV3" s="0"/>
-      <c r="TW3" s="0"/>
-      <c r="TX3" s="0"/>
-      <c r="TY3" s="0"/>
-      <c r="TZ3" s="0"/>
-      <c r="UA3" s="0"/>
-      <c r="UB3" s="0"/>
-      <c r="UC3" s="0"/>
-      <c r="UD3" s="0"/>
-      <c r="UE3" s="0"/>
-      <c r="UF3" s="0"/>
-      <c r="UG3" s="0"/>
-      <c r="UH3" s="0"/>
-      <c r="UI3" s="0"/>
-      <c r="UJ3" s="0"/>
-      <c r="UK3" s="0"/>
-      <c r="UL3" s="0"/>
-      <c r="UM3" s="0"/>
-      <c r="UN3" s="0"/>
-      <c r="UO3" s="0"/>
-      <c r="UP3" s="0"/>
-      <c r="UQ3" s="0"/>
-      <c r="UR3" s="0"/>
-      <c r="US3" s="0"/>
-      <c r="UT3" s="0"/>
-      <c r="UU3" s="0"/>
-      <c r="UV3" s="0"/>
-      <c r="UW3" s="0"/>
-      <c r="UX3" s="0"/>
-      <c r="UY3" s="0"/>
-      <c r="UZ3" s="0"/>
-      <c r="VA3" s="0"/>
-      <c r="VB3" s="0"/>
-      <c r="VC3" s="0"/>
-      <c r="VD3" s="0"/>
-      <c r="VE3" s="0"/>
-      <c r="VF3" s="0"/>
-      <c r="VG3" s="0"/>
-      <c r="VH3" s="0"/>
-      <c r="VI3" s="0"/>
-      <c r="VJ3" s="0"/>
-      <c r="VK3" s="0"/>
-      <c r="VL3" s="0"/>
-      <c r="VM3" s="0"/>
-      <c r="VN3" s="0"/>
-      <c r="VO3" s="0"/>
-      <c r="VP3" s="0"/>
-      <c r="VQ3" s="0"/>
-      <c r="VR3" s="0"/>
-      <c r="VS3" s="0"/>
-      <c r="VT3" s="0"/>
-      <c r="VU3" s="0"/>
-      <c r="VV3" s="0"/>
-      <c r="VW3" s="0"/>
-      <c r="VX3" s="0"/>
-      <c r="VY3" s="0"/>
-      <c r="VZ3" s="0"/>
-      <c r="WA3" s="0"/>
-      <c r="WB3" s="0"/>
-      <c r="WC3" s="0"/>
-      <c r="WD3" s="0"/>
-      <c r="WE3" s="0"/>
-      <c r="WF3" s="0"/>
-      <c r="WG3" s="0"/>
-      <c r="WH3" s="0"/>
-      <c r="WI3" s="0"/>
-      <c r="WJ3" s="0"/>
-      <c r="WK3" s="0"/>
-      <c r="WL3" s="0"/>
-      <c r="WM3" s="0"/>
-      <c r="WN3" s="0"/>
-      <c r="WO3" s="0"/>
-      <c r="WP3" s="0"/>
-      <c r="WQ3" s="0"/>
-      <c r="WR3" s="0"/>
-      <c r="WS3" s="0"/>
-      <c r="WT3" s="0"/>
-      <c r="WU3" s="0"/>
-      <c r="WV3" s="0"/>
-      <c r="WW3" s="0"/>
-      <c r="WX3" s="0"/>
-      <c r="WY3" s="0"/>
-      <c r="WZ3" s="0"/>
-      <c r="XA3" s="0"/>
-      <c r="XB3" s="0"/>
-      <c r="XC3" s="0"/>
-      <c r="XD3" s="0"/>
-      <c r="XE3" s="0"/>
-      <c r="XF3" s="0"/>
-      <c r="XG3" s="0"/>
-      <c r="XH3" s="0"/>
-      <c r="XI3" s="0"/>
-      <c r="XJ3" s="0"/>
-      <c r="XK3" s="0"/>
-      <c r="XL3" s="0"/>
-      <c r="XM3" s="0"/>
-      <c r="XN3" s="0"/>
-      <c r="XO3" s="0"/>
-      <c r="XP3" s="0"/>
-      <c r="XQ3" s="0"/>
-      <c r="XR3" s="0"/>
-      <c r="XS3" s="0"/>
-      <c r="XT3" s="0"/>
-      <c r="XU3" s="0"/>
-      <c r="XV3" s="0"/>
-      <c r="XW3" s="0"/>
-      <c r="XX3" s="0"/>
-      <c r="XY3" s="0"/>
-      <c r="XZ3" s="0"/>
-      <c r="YA3" s="0"/>
-      <c r="YB3" s="0"/>
-      <c r="YC3" s="0"/>
-      <c r="YD3" s="0"/>
-      <c r="YE3" s="0"/>
-      <c r="YF3" s="0"/>
-      <c r="YG3" s="0"/>
-      <c r="YH3" s="0"/>
-      <c r="YI3" s="0"/>
-      <c r="YJ3" s="0"/>
-      <c r="YK3" s="0"/>
-      <c r="YL3" s="0"/>
-      <c r="YM3" s="0"/>
-      <c r="YN3" s="0"/>
-      <c r="YO3" s="0"/>
-      <c r="YP3" s="0"/>
-      <c r="YQ3" s="0"/>
-      <c r="YR3" s="0"/>
-      <c r="YS3" s="0"/>
-      <c r="YT3" s="0"/>
-      <c r="YU3" s="0"/>
-      <c r="YV3" s="0"/>
-      <c r="YW3" s="0"/>
-      <c r="YX3" s="0"/>
-      <c r="YY3" s="0"/>
-      <c r="YZ3" s="0"/>
-      <c r="ZA3" s="0"/>
-      <c r="ZB3" s="0"/>
-      <c r="ZC3" s="0"/>
-      <c r="ZD3" s="0"/>
-      <c r="ZE3" s="0"/>
-      <c r="ZF3" s="0"/>
-      <c r="ZG3" s="0"/>
-      <c r="ZH3" s="0"/>
-      <c r="ZI3" s="0"/>
-      <c r="ZJ3" s="0"/>
-      <c r="ZK3" s="0"/>
-      <c r="ZL3" s="0"/>
-      <c r="ZM3" s="0"/>
-      <c r="ZN3" s="0"/>
-      <c r="ZO3" s="0"/>
-      <c r="ZP3" s="0"/>
-      <c r="ZQ3" s="0"/>
-      <c r="ZR3" s="0"/>
-      <c r="ZS3" s="0"/>
-      <c r="ZT3" s="0"/>
-      <c r="ZU3" s="0"/>
-      <c r="ZV3" s="0"/>
-      <c r="ZW3" s="0"/>
-      <c r="ZX3" s="0"/>
-      <c r="ZY3" s="0"/>
-      <c r="ZZ3" s="0"/>
-      <c r="AAA3" s="0"/>
-      <c r="AAB3" s="0"/>
-      <c r="AAC3" s="0"/>
-      <c r="AAD3" s="0"/>
-      <c r="AAE3" s="0"/>
-      <c r="AAF3" s="0"/>
-      <c r="AAG3" s="0"/>
-      <c r="AAH3" s="0"/>
-      <c r="AAI3" s="0"/>
-      <c r="AAJ3" s="0"/>
-      <c r="AAK3" s="0"/>
-      <c r="AAL3" s="0"/>
-      <c r="AAM3" s="0"/>
-      <c r="AAN3" s="0"/>
-      <c r="AAO3" s="0"/>
-      <c r="AAP3" s="0"/>
-      <c r="AAQ3" s="0"/>
-      <c r="AAR3" s="0"/>
-      <c r="AAS3" s="0"/>
-      <c r="AAT3" s="0"/>
-      <c r="AAU3" s="0"/>
-      <c r="AAV3" s="0"/>
-      <c r="AAW3" s="0"/>
-      <c r="AAX3" s="0"/>
-      <c r="AAY3" s="0"/>
-      <c r="AAZ3" s="0"/>
-      <c r="ABA3" s="0"/>
-      <c r="ABB3" s="0"/>
-      <c r="ABC3" s="0"/>
-      <c r="ABD3" s="0"/>
-      <c r="ABE3" s="0"/>
-      <c r="ABF3" s="0"/>
-      <c r="ABG3" s="0"/>
-      <c r="ABH3" s="0"/>
-      <c r="ABI3" s="0"/>
-      <c r="ABJ3" s="0"/>
-      <c r="ABK3" s="0"/>
-      <c r="ABL3" s="0"/>
-      <c r="ABM3" s="0"/>
-      <c r="ABN3" s="0"/>
-      <c r="ABO3" s="0"/>
-      <c r="ABP3" s="0"/>
-      <c r="ABQ3" s="0"/>
-      <c r="ABR3" s="0"/>
-      <c r="ABS3" s="0"/>
-      <c r="ABT3" s="0"/>
-      <c r="ABU3" s="0"/>
-      <c r="ABV3" s="0"/>
-      <c r="ABW3" s="0"/>
-      <c r="ABX3" s="0"/>
-      <c r="ABY3" s="0"/>
-      <c r="ABZ3" s="0"/>
-      <c r="ACA3" s="0"/>
-      <c r="ACB3" s="0"/>
-      <c r="ACC3" s="0"/>
-      <c r="ACD3" s="0"/>
-      <c r="ACE3" s="0"/>
-      <c r="ACF3" s="0"/>
-      <c r="ACG3" s="0"/>
-      <c r="ACH3" s="0"/>
-      <c r="ACI3" s="0"/>
-      <c r="ACJ3" s="0"/>
-      <c r="ACK3" s="0"/>
-      <c r="ACL3" s="0"/>
-      <c r="ACM3" s="0"/>
-      <c r="ACN3" s="0"/>
-      <c r="ACO3" s="0"/>
-      <c r="ACP3" s="0"/>
-      <c r="ACQ3" s="0"/>
-      <c r="ACR3" s="0"/>
-      <c r="ACS3" s="0"/>
-      <c r="ACT3" s="0"/>
-      <c r="ACU3" s="0"/>
-      <c r="ACV3" s="0"/>
-      <c r="ACW3" s="0"/>
-      <c r="ACX3" s="0"/>
-      <c r="ACY3" s="0"/>
-      <c r="ACZ3" s="0"/>
-      <c r="ADA3" s="0"/>
-      <c r="ADB3" s="0"/>
-      <c r="ADC3" s="0"/>
-      <c r="ADD3" s="0"/>
-      <c r="ADE3" s="0"/>
-      <c r="ADF3" s="0"/>
-      <c r="ADG3" s="0"/>
-      <c r="ADH3" s="0"/>
-      <c r="ADI3" s="0"/>
-      <c r="ADJ3" s="0"/>
-      <c r="ADK3" s="0"/>
-      <c r="ADL3" s="0"/>
-      <c r="ADM3" s="0"/>
-      <c r="ADN3" s="0"/>
-      <c r="ADO3" s="0"/>
-      <c r="ADP3" s="0"/>
-      <c r="ADQ3" s="0"/>
-      <c r="ADR3" s="0"/>
-      <c r="ADS3" s="0"/>
-      <c r="ADT3" s="0"/>
-      <c r="ADU3" s="0"/>
-      <c r="ADV3" s="0"/>
-      <c r="ADW3" s="0"/>
-      <c r="ADX3" s="0"/>
-      <c r="ADY3" s="0"/>
-      <c r="ADZ3" s="0"/>
-      <c r="AEA3" s="0"/>
-      <c r="AEB3" s="0"/>
-      <c r="AEC3" s="0"/>
-      <c r="AED3" s="0"/>
-      <c r="AEE3" s="0"/>
-      <c r="AEF3" s="0"/>
-      <c r="AEG3" s="0"/>
-      <c r="AEH3" s="0"/>
-      <c r="AEI3" s="0"/>
-      <c r="AEJ3" s="0"/>
-      <c r="AEK3" s="0"/>
-      <c r="AEL3" s="0"/>
-      <c r="AEM3" s="0"/>
-      <c r="AEN3" s="0"/>
-      <c r="AEO3" s="0"/>
-      <c r="AEP3" s="0"/>
-      <c r="AEQ3" s="0"/>
-      <c r="AER3" s="0"/>
-      <c r="AES3" s="0"/>
-      <c r="AET3" s="0"/>
-      <c r="AEU3" s="0"/>
-      <c r="AEV3" s="0"/>
-      <c r="AEW3" s="0"/>
-      <c r="AEX3" s="0"/>
-      <c r="AEY3" s="0"/>
-      <c r="AEZ3" s="0"/>
-      <c r="AFA3" s="0"/>
-      <c r="AFB3" s="0"/>
-      <c r="AFC3" s="0"/>
-      <c r="AFD3" s="0"/>
-      <c r="AFE3" s="0"/>
-      <c r="AFF3" s="0"/>
-      <c r="AFG3" s="0"/>
-      <c r="AFH3" s="0"/>
-      <c r="AFI3" s="0"/>
-      <c r="AFJ3" s="0"/>
-      <c r="AFK3" s="0"/>
-      <c r="AFL3" s="0"/>
-      <c r="AFM3" s="0"/>
-      <c r="AFN3" s="0"/>
-      <c r="AFO3" s="0"/>
-      <c r="AFP3" s="0"/>
-      <c r="AFQ3" s="0"/>
-      <c r="AFR3" s="0"/>
-      <c r="AFS3" s="0"/>
-      <c r="AFT3" s="0"/>
-      <c r="AFU3" s="0"/>
-      <c r="AFV3" s="0"/>
-      <c r="AFW3" s="0"/>
-      <c r="AFX3" s="0"/>
-      <c r="AFY3" s="0"/>
-      <c r="AFZ3" s="0"/>
-      <c r="AGA3" s="0"/>
-      <c r="AGB3" s="0"/>
-      <c r="AGC3" s="0"/>
-      <c r="AGD3" s="0"/>
-      <c r="AGE3" s="0"/>
-      <c r="AGF3" s="0"/>
-      <c r="AGG3" s="0"/>
-      <c r="AGH3" s="0"/>
-      <c r="AGI3" s="0"/>
-      <c r="AGJ3" s="0"/>
-      <c r="AGK3" s="0"/>
-      <c r="AGL3" s="0"/>
-      <c r="AGM3" s="0"/>
-      <c r="AGN3" s="0"/>
-      <c r="AGO3" s="0"/>
-      <c r="AGP3" s="0"/>
-      <c r="AGQ3" s="0"/>
-      <c r="AGR3" s="0"/>
-      <c r="AGS3" s="0"/>
-      <c r="AGT3" s="0"/>
-      <c r="AGU3" s="0"/>
-      <c r="AGV3" s="0"/>
-      <c r="AGW3" s="0"/>
-      <c r="AGX3" s="0"/>
-      <c r="AGY3" s="0"/>
-      <c r="AGZ3" s="0"/>
-      <c r="AHA3" s="0"/>
-      <c r="AHB3" s="0"/>
-      <c r="AHC3" s="0"/>
-      <c r="AHD3" s="0"/>
-      <c r="AHE3" s="0"/>
-      <c r="AHF3" s="0"/>
-      <c r="AHG3" s="0"/>
-      <c r="AHH3" s="0"/>
-      <c r="AHI3" s="0"/>
-      <c r="AHJ3" s="0"/>
-      <c r="AHK3" s="0"/>
-      <c r="AHL3" s="0"/>
-      <c r="AHM3" s="0"/>
-      <c r="AHN3" s="0"/>
-      <c r="AHO3" s="0"/>
-      <c r="AHP3" s="0"/>
-      <c r="AHQ3" s="0"/>
-      <c r="AHR3" s="0"/>
-      <c r="AHS3" s="0"/>
-      <c r="AHT3" s="0"/>
-      <c r="AHU3" s="0"/>
-      <c r="AHV3" s="0"/>
-      <c r="AHW3" s="0"/>
-      <c r="AHX3" s="0"/>
-      <c r="AHY3" s="0"/>
-      <c r="AHZ3" s="0"/>
-      <c r="AIA3" s="0"/>
-      <c r="AIB3" s="0"/>
-      <c r="AIC3" s="0"/>
-      <c r="AID3" s="0"/>
-      <c r="AIE3" s="0"/>
-      <c r="AIF3" s="0"/>
-      <c r="AIG3" s="0"/>
-      <c r="AIH3" s="0"/>
-      <c r="AII3" s="0"/>
-      <c r="AIJ3" s="0"/>
-      <c r="AIK3" s="0"/>
-      <c r="AIL3" s="0"/>
-      <c r="AIM3" s="0"/>
-      <c r="AIN3" s="0"/>
-      <c r="AIO3" s="0"/>
-      <c r="AIP3" s="0"/>
-      <c r="AIQ3" s="0"/>
-      <c r="AIR3" s="0"/>
-      <c r="AIS3" s="0"/>
-      <c r="AIT3" s="0"/>
-      <c r="AIU3" s="0"/>
-      <c r="AIV3" s="0"/>
-      <c r="AIW3" s="0"/>
-      <c r="AIX3" s="0"/>
-      <c r="AIY3" s="0"/>
-      <c r="AIZ3" s="0"/>
-      <c r="AJA3" s="0"/>
-      <c r="AJB3" s="0"/>
-      <c r="AJC3" s="0"/>
-      <c r="AJD3" s="0"/>
-      <c r="AJE3" s="0"/>
-      <c r="AJF3" s="0"/>
-      <c r="AJG3" s="0"/>
-      <c r="AJH3" s="0"/>
-      <c r="AJI3" s="0"/>
-      <c r="AJJ3" s="0"/>
-      <c r="AJK3" s="0"/>
-      <c r="AJL3" s="0"/>
-      <c r="AJM3" s="0"/>
-      <c r="AJN3" s="0"/>
-      <c r="AJO3" s="0"/>
-      <c r="AJP3" s="0"/>
-      <c r="AJQ3" s="0"/>
-      <c r="AJR3" s="0"/>
-      <c r="AJS3" s="0"/>
-      <c r="AJT3" s="0"/>
-      <c r="AJU3" s="0"/>
-      <c r="AJV3" s="0"/>
-      <c r="AJW3" s="0"/>
-      <c r="AJX3" s="0"/>
-      <c r="AJY3" s="0"/>
-      <c r="AJZ3" s="0"/>
-      <c r="AKA3" s="0"/>
-      <c r="AKB3" s="0"/>
-      <c r="AKC3" s="0"/>
-      <c r="AKD3" s="0"/>
-      <c r="AKE3" s="0"/>
-      <c r="AKF3" s="0"/>
-      <c r="AKG3" s="0"/>
-      <c r="AKH3" s="0"/>
-      <c r="AKI3" s="0"/>
-      <c r="AKJ3" s="0"/>
-      <c r="AKK3" s="0"/>
-      <c r="AKL3" s="0"/>
-      <c r="AKM3" s="0"/>
-      <c r="AKN3" s="0"/>
-      <c r="AKO3" s="0"/>
-      <c r="AKP3" s="0"/>
-      <c r="AKQ3" s="0"/>
-      <c r="AKR3" s="0"/>
-      <c r="AKS3" s="0"/>
-      <c r="AKT3" s="0"/>
-      <c r="AKU3" s="0"/>
-      <c r="AKV3" s="0"/>
-      <c r="AKW3" s="0"/>
-      <c r="AKX3" s="0"/>
-      <c r="AKY3" s="0"/>
-      <c r="AKZ3" s="0"/>
-      <c r="ALA3" s="0"/>
-      <c r="ALB3" s="0"/>
-      <c r="ALC3" s="0"/>
-      <c r="ALD3" s="0"/>
-      <c r="ALE3" s="0"/>
-      <c r="ALF3" s="0"/>
-      <c r="ALG3" s="0"/>
-      <c r="ALH3" s="0"/>
-      <c r="ALI3" s="0"/>
-      <c r="ALJ3" s="0"/>
-      <c r="ALK3" s="0"/>
-      <c r="ALL3" s="0"/>
-      <c r="ALM3" s="0"/>
-      <c r="ALN3" s="0"/>
-      <c r="ALO3" s="0"/>
-      <c r="ALP3" s="0"/>
-      <c r="ALQ3" s="0"/>
-      <c r="ALR3" s="0"/>
-      <c r="ALS3" s="0"/>
-      <c r="ALT3" s="0"/>
-      <c r="ALU3" s="0"/>
-      <c r="ALV3" s="0"/>
-      <c r="ALW3" s="0"/>
-      <c r="ALX3" s="0"/>
-      <c r="ALY3" s="0"/>
-      <c r="ALZ3" s="0"/>
-      <c r="AMA3" s="0"/>
-      <c r="AMB3" s="0"/>
-      <c r="AMC3" s="0"/>
-      <c r="AMD3" s="0"/>
-      <c r="AME3" s="0"/>
-      <c r="AMF3" s="0"/>
-      <c r="AMG3" s="0"/>
-      <c r="AMH3" s="0"/>
-      <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>19</v>
@@ -3306,34 +2266,34 @@
       <c r="T5" s="0"/>
       <c r="U5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>19</v>
@@ -3349,34 +2309,34 @@
       <c r="T6" s="0"/>
       <c r="U6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>19</v>
@@ -3392,34 +2352,34 @@
       <c r="T7" s="0"/>
       <c r="U7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>19</v>
@@ -3435,34 +2395,34 @@
       <c r="T8" s="0"/>
       <c r="U8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>19</v>
@@ -3478,34 +2438,34 @@
       <c r="T9" s="0"/>
       <c r="U9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>19</v>
@@ -3521,34 +2481,34 @@
       <c r="T10" s="0"/>
       <c r="U10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>330</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="I11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>19</v>
@@ -3564,33 +2524,33 @@
       <c r="T11" s="0"/>
       <c r="U11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>330</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="5" t="s">
         <v>55</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -3608,37 +2568,17 @@
       <c r="U12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
@@ -3651,17 +2591,39 @@
       <c r="U13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1206</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
@@ -3674,35 +2636,35 @@
       <c r="U14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>1206</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="H15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>66</v>
+      <c r="J15" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>19</v>
@@ -3719,35 +2681,35 @@
       <c r="U15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
+      <c r="B16" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>1206</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>70</v>
+      <c r="J16" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>19</v>
@@ -3764,35 +2726,35 @@
       <c r="U16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>72</v>
+      <c r="A17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>1210</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>75</v>
+      <c r="J17" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>19</v>
@@ -3809,35 +2771,35 @@
       <c r="U17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>77</v>
+      <c r="A18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>79</v>
+      <c r="G18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>19</v>
@@ -3854,35 +2816,35 @@
       <c r="U18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>81</v>
+      <c r="A19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>85</v>
+      <c r="J19" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>19</v>
@@ -3899,35 +2861,35 @@
       <c r="U19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>87</v>
+      <c r="A20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="6" t="s">
+      <c r="G20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>89</v>
+      <c r="J20" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>19</v>
@@ -3944,39 +2906,16 @@
       <c r="U20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="0"/>
       <c r="M21" s="0"/>
       <c r="N21" s="0"/>
@@ -3989,39 +2928,34 @@
       <c r="U21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="I22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="K22" s="7"/>
       <c r="L22" s="0"/>
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
@@ -4034,39 +2968,34 @@
       <c r="U22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="G23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" s="6" t="s">
+      <c r="I23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="K23" s="7"/>
       <c r="L23" s="0"/>
       <c r="M23" s="0"/>
       <c r="N23" s="0"/>
@@ -4079,16 +3008,34 @@
       <c r="U23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="7"/>
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -4100,35 +3047,37 @@
       <c r="T24" s="0"/>
       <c r="U24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="7" t="n">
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="6" t="s">
+      <c r="C25" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="6" t="s">
+      <c r="F25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="K25" s="5"/>
+      <c r="H25" s="9" t="n">
+        <v>744786131</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -4141,34 +3090,16 @@
       <c r="U25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="K26" s="5"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -4181,34 +3112,36 @@
       <c r="U26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="K27" s="5"/>
+      <c r="K27" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -4220,300 +3153,290 @@
       <c r="T27" s="0"/>
       <c r="U27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H28" s="9" t="n">
-        <v>744786131</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J28" s="6" t="s">
+      <c r="I28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>123</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="0"/>
-      <c r="M28" s="0"/>
-      <c r="N28" s="0"/>
-      <c r="O28" s="0"/>
-      <c r="P28" s="0"/>
-      <c r="Q28" s="0"/>
-      <c r="R28" s="0"/>
-      <c r="S28" s="0"/>
-      <c r="T28" s="0"/>
-      <c r="U28" s="0"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="0"/>
-      <c r="M29" s="0"/>
-      <c r="N29" s="0"/>
-      <c r="O29" s="0"/>
-      <c r="P29" s="0"/>
-      <c r="Q29" s="0"/>
-      <c r="R29" s="0"/>
-      <c r="S29" s="0"/>
-      <c r="T29" s="0"/>
-      <c r="U29" s="0"/>
+      <c r="A29" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="7" t="n">
+      <c r="A30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I30" s="6" t="s">
+      <c r="C30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>130</v>
+      <c r="J30" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="0"/>
-      <c r="M30" s="0"/>
-      <c r="N30" s="0"/>
-      <c r="O30" s="0"/>
-      <c r="P30" s="0"/>
-      <c r="Q30" s="0"/>
-      <c r="R30" s="0"/>
-      <c r="S30" s="0"/>
-      <c r="T30" s="0"/>
-      <c r="U30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="2" t="n">
+      <c r="A31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="C31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
+      <c r="J31" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="I32" s="6" t="s">
+      <c r="D32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="J32" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H33" s="2" t="s">
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="B33" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>146</v>
+      <c r="J33" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B34" s="7" t="n">
+      <c r="A34" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I34" s="6" t="s">
+      <c r="H34" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="K34" s="5"/>
+      <c r="J34" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B35" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="A35" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="F35" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="I35" s="6" t="s">
+      <c r="G35" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="K35" s="5"/>
+      <c r="J35" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="36" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F36" s="6" t="s">
+    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="B36" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="F36" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="9" t="s">
         <v>163</v>
       </c>
       <c r="K36" s="2" t="s">
@@ -4521,95 +3444,71 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B37" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="F38" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B38" s="7" t="n">
+      <c r="I38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I38" s="6" t="s">
+      <c r="C39" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="9" t="s">
+      <c r="J39" s="5" t="s">
         <v>175</v>
       </c>
       <c r="K39" s="2" t="s">
@@ -4617,368 +3516,296 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="A40" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="F40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B41" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="F41" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="F42" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B42" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="G42" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="F42" s="6" t="s">
+      <c r="H42" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="G42" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H42" s="6" t="s">
+      <c r="I42" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="F43" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="F43" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H43" s="2" t="s">
+      <c r="G43" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="H43" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
+      <c r="A44" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="F44" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B45" s="7" t="n">
+      <c r="A45" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="F45" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="I45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="D45" s="5"/>
+      <c r="F45" s="5" t="s">
         <v>199</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B46" s="7" t="n">
+      <c r="A46" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="F46" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>204</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B47" s="7" t="n">
+      <c r="A47" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="F47" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>208</v>
+      <c r="C47" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="F47" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B48" s="7" t="n">
+      <c r="A48" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="F48" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>214</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="F48" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B49" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="F49" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>219</v>
+      </c>
+      <c r="B49" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="F49" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B50" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="F50" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B51" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B51" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" s="6" t="s">
+      <c r="D51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="F51" s="6" t="s">
+      <c r="H51" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="I51" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J51" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B52" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="F52" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B54" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -5000,20 +3827,20 @@
   <dimension ref="1:18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.4534412955466"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="2" width="9.10526315789474"/>
   </cols>
@@ -5029,7 +3856,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
@@ -5050,7 +3877,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6080,29 +4907,29 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" s="7" t="n">
+      <c r="A3" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="6"/>
+      <c r="C3" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="0"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>247</v>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="K3" s="2"/>
     </row>
@@ -7134,17 +5961,17 @@
     </row>
     <row r="5" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="F5" s="0"/>
       <c r="G5" s="2"/>
@@ -7152,26 +5979,26 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="K6" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
@@ -8187,21 +7014,21 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
       <c r="K7" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="N7" s="0"/>
       <c r="O7" s="0"/>
@@ -9217,19 +8044,19 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
       <c r="K8" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="N8" s="0"/>
       <c r="O8" s="0"/>
@@ -10245,21 +9072,21 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
       <c r="K9" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="N9" s="0"/>
       <c r="O9" s="0"/>
@@ -11275,157 +10102,157 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
       <c r="K10" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
       <c r="K11" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="K12" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="K13" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
       <c r="K14" s="2" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
       <c r="K15" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
       <c r="K16" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
       <c r="K17" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
       <c r="K18" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -11462,11 +10289,11 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="5.78542510121457"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="2" width="9.10526315789474"/>
   </cols>
@@ -11503,104 +10330,104 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B3" s="7" t="n">
+      <c r="A3" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>288</v>
+      <c r="D3" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="F3" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="G3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="K3" s="6"/>
+      <c r="J3" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="13"/>
     </row>
     <row r="5" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="B5" s="7" t="n">
+      <c r="A5" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>102</v>
+      <c r="C5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="F5" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="G5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K5" s="6"/>
+      <c r="J5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="13"/>
     </row>
     <row r="7" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="B7" s="7" t="n">
+      <c r="A7" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="C7" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+        <v>277</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12"/>
@@ -11617,17 +10444,17 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="0"/>
@@ -11651,16 +10478,17 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>299</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D11" s="0"/>
       <c r="E11" s="13" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="1"/>
@@ -11668,26 +10496,26 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="2" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F12" s="13"/>
       <c r="K12" s="2" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/BOM.xlsx
+++ b/Doc/BOM.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="285">
   <si>
     <t xml:space="preserve">Ref.Des.</t>
   </si>
@@ -57,13 +57,13 @@
     <t xml:space="preserve">notes</t>
   </si>
   <si>
-    <t xml:space="preserve">R7</t>
+    <t xml:space="preserve">R2, R3, R4, R5, R7, R10, R21, R40, R41, R43, R44, R45, R46, R52, R53, R54</t>
   </si>
   <si>
     <t xml:space="preserve">Resistor</t>
   </si>
   <si>
-    <t xml:space="preserve">2k4</t>
+    <t xml:space="preserve">1k8</t>
   </si>
   <si>
     <t xml:space="preserve">0603</t>
@@ -72,19 +72,19 @@
     <t xml:space="preserve">Yageo</t>
   </si>
   <si>
-    <t xml:space="preserve">RC0603JR-072K4L</t>
+    <t xml:space="preserve">RC0603FR-071K8L</t>
   </si>
   <si>
     <t xml:space="preserve">Mouser</t>
   </si>
   <si>
-    <t xml:space="preserve">603-RC0603JR-072K4L</t>
+    <t xml:space="preserve">603-RC0603FR-071K8L</t>
   </si>
   <si>
     <t xml:space="preserve">exact part my be changed</t>
   </si>
   <si>
-    <t xml:space="preserve">R22</t>
+    <t xml:space="preserve">R23</t>
   </si>
   <si>
     <t xml:space="preserve">82k</t>
@@ -96,7 +96,7 @@
     <t xml:space="preserve">603-RC0603FR-0782KL</t>
   </si>
   <si>
-    <t xml:space="preserve">R1, R11, R23</t>
+    <t xml:space="preserve">R1, R11, R24</t>
   </si>
   <si>
     <t xml:space="preserve">180k</t>
@@ -108,19 +108,7 @@
     <t xml:space="preserve">603-RC0603JR-07180KL</t>
   </si>
   <si>
-    <t xml:space="preserve">R30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603FR-0747KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-RC0603FR-0747KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6, R10, R21</t>
+    <t xml:space="preserve">R6, R22</t>
   </si>
   <si>
     <t xml:space="preserve">12k</t>
@@ -132,7 +120,7 @@
     <t xml:space="preserve">603-RC0603FR-0712KL</t>
   </si>
   <si>
-    <t xml:space="preserve">R12, R24</t>
+    <t xml:space="preserve">R12, R25</t>
   </si>
   <si>
     <t xml:space="preserve">34k</t>
@@ -144,31 +132,7 @@
     <t xml:space="preserve">603-RC0603FR-0734KL</t>
   </si>
   <si>
-    <t xml:space="preserve">R33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5k1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603FR-075K1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-RC0603FR-075K1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2,R3,R4,R5,R32,R40,R41,R43,R44,R45,R46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1k6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603FR-071K6L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-RC0603FR-071K6L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R47,R48,R49,R50,R51</t>
+    <t xml:space="preserve">R47, R48, R49, R50, R51</t>
   </si>
   <si>
     <t xml:space="preserve">RC0603FR-07330RL</t>
@@ -177,28 +141,13 @@
     <t xml:space="preserve">603-RC0603FR-07330RL</t>
   </si>
   <si>
-    <t xml:space="preserve">R31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panasonic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERJ-3RSFR10V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">667-ERJ-3RSFR10V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C16, C24</t>
+    <t xml:space="preserve">C16, C26</t>
   </si>
   <si>
     <t xml:space="preserve">Capacitor</t>
   </si>
   <si>
-    <t xml:space="preserve">100µF</t>
+    <t xml:space="preserve">100µ</t>
   </si>
   <si>
     <t xml:space="preserve">&gt;5V</t>
@@ -213,10 +162,10 @@
     <t xml:space="preserve">81-GRM31CR60J107ME9L</t>
   </si>
   <si>
-    <t xml:space="preserve">C10, C11, C12, C20, C30, C34, C52, C54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10µF</t>
+    <t xml:space="preserve">C10, C11, C12, C20, C21, C30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10µ</t>
   </si>
   <si>
     <t xml:space="preserve">&gt;24V</t>
@@ -228,7 +177,7 @@
     <t xml:space="preserve">81-GRM188R6YA106MA3D</t>
   </si>
   <si>
-    <t xml:space="preserve">C47,C48,C49</t>
+    <t xml:space="preserve">C40, C47, C48</t>
   </si>
   <si>
     <t xml:space="preserve">2µ2</t>
@@ -246,10 +195,10 @@
     <t xml:space="preserve">810-C1608X5R1V225K</t>
   </si>
   <si>
-    <t xml:space="preserve">C14, C15,C40,C51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1µF</t>
+    <t xml:space="preserve">C14, C15, C51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1µ</t>
   </si>
   <si>
     <t xml:space="preserve">GRM188R61E105KA12D</t>
@@ -258,13 +207,10 @@
     <t xml:space="preserve">81-GRM188R61E105KA12</t>
   </si>
   <si>
-    <t xml:space="preserve">C1,C2,C13,C23,C32,C33,C41,C42,C43,C44, C50,C53,C55,C61,C62,C63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;10V</t>
+    <t xml:space="preserve">C1, C2, C3, C13, C22, C25, C31, C32, C41, C42, C43, C44, C49, C50, C53, C55, C61, C62, C63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100n</t>
   </si>
   <si>
     <t xml:space="preserve">Kemet</t>
@@ -279,10 +225,10 @@
     <t xml:space="preserve">801-5347</t>
   </si>
   <si>
-    <t xml:space="preserve">C21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4nF</t>
+    <t xml:space="preserve">C23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2n4</t>
   </si>
   <si>
     <t xml:space="preserve">GRM1885C1H242JA01D</t>
@@ -291,582 +237,624 @@
     <t xml:space="preserve">815-1474</t>
   </si>
   <si>
-    <t xml:space="preserve">C22</t>
+    <t xml:space="preserve">C24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM0335C1E220JA01D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81-GRM0335C1E220JA1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C33, C34, C52, C54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22µ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM188R60J226ME15D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81-GRM188R60J226ME5D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAL60XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coilcraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAL6030-222MEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">994-XAL6030-222MEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4µ7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAL4030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAL4030-472MEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">994-XAL4030-472MEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bourns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRN4018TA-4R7M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">652-SRN4018TA-4R7M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS160808-1R0K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">652-CS160808-1R0K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB1, FB2, FB3, FB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferrite Bead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">470R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLM31KN471SN1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81-BLM31KN471SN1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z-Diode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOD323-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON Semiconductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM3Z18VST1G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">863-MM3Z18VST1G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOD323F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM3Z24VB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512-MM3Z24VB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3,D44,D45,D46,D47,D48,D49,D50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3V6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairchild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDZ3V6ASF-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">621-DDZ3V6ASF-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5V2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOD-123-F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nexperia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZH5V1B,115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">771-NZH5V1B-115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schottky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO-221AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSSAF5M10HM3/H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78-VSSAF5M10HM3/H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOD-123-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS24FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512-SS24FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D40,D51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingbright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP2012EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604-AP2012EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APT2012YC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604-APT2012YC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APT2012SGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604-APT2012SGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APT2012QBC/D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604-APT2012QBC/D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-MOSFET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PowerPAK1212-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISS27DN-T1-GE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78-SISS27DN-T1-GE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alternative: SISS27ADN-T1-GE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPN-Transistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT23-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC846BLT3G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">863-BC846BLT3G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-MOSFET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIS488DN-T1-GE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78-SIS488DN-T1-GE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">better: SIS862DN-T1-GE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switching regulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFN14 4x3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richtek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT7259GQW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digikey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1028-1199-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSOP-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas Instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPS54340DDAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595-TPS54340DDAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QFN-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semtech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS30041-M033QFNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">947-TS30041-M033QFNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microcontroller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQFP-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32F401VBT6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">511-STM32F401VBT6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2xOR-Gate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSSOP-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74LVC2G32DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">816-8820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT23-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M74VHC1G126DTT1G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">805-1494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QFN-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invensense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICM-20689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1428-1059-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U44,U45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motordriver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WSON-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRV8835DSSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">813-6485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pushbutton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSM2JSMASTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131-4776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combined (preffered)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS-PRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPEG158-P5H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">771-6910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socket 2x20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom Side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RaspberryPi3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socket 1x4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART_EXT_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socket 2x4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C_EXT_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C_EXT_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socket 1x6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socket 3x6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI_EXT_0_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI_EXT_0_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI_EXT_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socket 1x8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I/O_0-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I/O_8-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socket 2x8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I/O_0-7 Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I/O_8-15 Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin 1x6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin 3x6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVO Signal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin 2x6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVO Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J54, J55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOTORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCT06030C2209FP500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">594-MCT06030C2209FP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C45,C46</t>
   </si>
   <si>
     <t xml:space="preserve">22pF</t>
   </si>
   <si>
-    <t xml:space="preserve">GRM0335C1E220JA01D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81-GRM0335C1E220JA1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inductor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coilcraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XAL6030-222MEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">994-XAL6030-222MEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4µ7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XAL4030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XAL4030-472MEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">994-XAL4030-472MEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bourns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDR0403-4R7ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">736-1239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39nH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Würth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">883-0418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z-Diode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOD323-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ON Semiconductor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM3Z18VST1G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">863-MM3Z18VST1G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOD323F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM3Z24VB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">512-MM3Z24VB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3,D44,D45,D46,D47,D48,D49,D50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3V6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fairchild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDZ3V6ASF-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">621-DDZ3V6ASF-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5V2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOD-123-F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nexperia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZH5V1B,115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">771-NZH5V1B-115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schottky</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> POWERDI-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diodes Incorporated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDS760-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">621-PDS760-F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2, D30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOD-123-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS24FL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">512-SS24FL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D40,D51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kingbright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP2012EC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">604-AP2012EC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APT2012YC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">604-APT2012YC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APT2012SGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">604-APT2012SGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APT2012QBC/D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">604-APT2012QBC/D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P-MOSFET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PowerPAK1212-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vishay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISS27DN-T1-GE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78-SISS27DN-T1-GE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">better:: SISS27ADN-T1-GE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPN-Transistor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT23-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BC846BLT3G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">863-BC846BLT3G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-MOSFET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIS434DN-T1-GE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">781-SIS434DN-GE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">better: SIS862DN-T1-GE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switching regulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DFN14 4x3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richtek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT7259GQW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digikey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1028-1199-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSOP-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas Instruments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPS54340DDAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">595-TPS54340DDAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LM25011MY/NOPB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">761-4883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microcontroller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQFP-100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STM32F401VBT6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">511-STM32F401VBT6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2xOR-Gate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSSOP-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74LVC2G32DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">816-8820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buffer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSOP-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M74VHC1G126DTT1G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">805-1494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QFN-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invensense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICM-20689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1428-1059-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U44,U45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motordriver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WSON-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRV8835DSSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">813-6485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pushbutton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE Connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSM2JSMASTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131-4776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">combined (preffered)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS-PRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPEG158-P5H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">771-6910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socket 2x20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bottom Side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RaspberryPi3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socket 1x4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UART_EXT_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socket 2x4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C_EXT_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C_EXT_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socket 1x6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socket 3x6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI_EXT_0_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI_EXT_0_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI_EXT_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socket 1x8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I/O_0-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I/O_8-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socket 2x8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I/O_0-7 Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I/O_8-15 Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pin 1x6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pin 3x6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVO Signal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pin 2x6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVO Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J54, J55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOTORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCT06030C2209FP500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">594-MCT06030C2209FP5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C45,C46</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y40</t>
   </si>
   <si>
@@ -874,12 +862,6 @@
   </si>
   <si>
     <t xml:space="preserve">HC49-4H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pin 1x2</t>
   </si>
   <si>
     <t xml:space="preserve">J2</t>
@@ -905,7 +887,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -948,6 +930,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -992,7 +980,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1025,7 +1013,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1034,6 +1034,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1066,25 +1070,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:51"/>
+  <dimension ref="1:50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="54.3076923076923"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="71.0323886639676"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.21457489878543"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1134,6 +1138,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
+      <c r="K2" s="0"/>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
@@ -2153,7 +2158,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -2167,7 +2172,7 @@
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -2206,7 +2211,7 @@
       <c r="I4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -2243,13 +2248,13 @@
       <c r="G5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -2271,7 +2276,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
@@ -2286,13 +2291,13 @@
       <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="9" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -2314,7 +2319,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>12</v>
@@ -2329,13 +2334,13 @@
       <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="9" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -2357,13 +2362,13 @@
         <v>36</v>
       </c>
       <c r="B8" s="6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>37</v>
+      <c r="D8" s="5" t="n">
+        <v>330</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="5" t="s">
@@ -2373,13 +2378,13 @@
         <v>15</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>39</v>
+      <c r="J8" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>19</v>
@@ -2395,38 +2400,18 @@
       <c r="T8" s="0"/>
       <c r="U8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>41</v>
-      </c>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
@@ -2438,34 +2423,36 @@
       <c r="T9" s="0"/>
       <c r="U9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1206</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="B10" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>47</v>
+      <c r="J10" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>19</v>
@@ -2481,25 +2468,27 @@
       <c r="T10" s="0"/>
       <c r="U10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>330</v>
-      </c>
-      <c r="E11" s="7"/>
       <c r="F11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>49</v>
@@ -2507,7 +2496,7 @@
       <c r="I11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -2529,29 +2518,31 @@
         <v>51</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="F12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>19</v>
@@ -2568,17 +2559,39 @@
       <c r="U12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="A13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
@@ -2592,34 +2605,34 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B14" s="6" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>1206</v>
+        <v>48</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>19</v>
@@ -2637,34 +2650,34 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>19</v>
@@ -2682,34 +2695,34 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>19</v>
@@ -2727,34 +2740,34 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" s="6" t="n">
         <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>76</v>
+        <v>43</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>19</v>
@@ -2771,39 +2784,16 @@
       <c r="U17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
@@ -2817,38 +2807,33 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="K19" s="7"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
@@ -2862,38 +2847,33 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="K20" s="7"/>
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
@@ -2906,15 +2886,33 @@
       <c r="U20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="A21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="K21" s="7"/>
       <c r="L21" s="0"/>
       <c r="M21" s="0"/>
@@ -2927,35 +2925,37 @@
       <c r="T21" s="0"/>
       <c r="U21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B22" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="G22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K22" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L22" s="0"/>
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
@@ -2968,34 +2968,15 @@
       <c r="U22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K23" s="7"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
       <c r="L23" s="0"/>
       <c r="M23" s="0"/>
       <c r="N23" s="0"/>
@@ -3007,35 +2988,40 @@
       <c r="T23" s="0"/>
       <c r="U23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B24" s="6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>100</v>
       </c>
+      <c r="E24" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="F24" s="5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>106</v>
+        <v>43</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K24" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -3047,37 +3033,17 @@
       <c r="T24" s="0"/>
       <c r="U24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" s="9" t="n">
-        <v>744786131</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>19</v>
-      </c>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -3090,16 +3056,36 @@
       <c r="U25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="7"/>
+      <c r="A26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -3112,147 +3098,137 @@
       <c r="U26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="6" t="n">
+      <c r="B27" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="G27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="I27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="0"/>
-      <c r="M27" s="0"/>
-      <c r="N27" s="0"/>
-      <c r="O27" s="0"/>
-      <c r="P27" s="0"/>
-      <c r="Q27" s="0"/>
-      <c r="R27" s="0"/>
-      <c r="S27" s="0"/>
-      <c r="T27" s="0"/>
-      <c r="U27" s="0"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="H28" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="I28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="G29" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="I29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="5" t="s">
         <v>134</v>
       </c>
       <c r="K30" s="2" t="s">
@@ -3267,81 +3243,89 @@
         <v>1</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="5"/>
       <c r="F31" s="5" t="s">
         <v>137</v>
       </c>
       <c r="G31" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J31" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="B32" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="F32" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J32" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>19</v>
@@ -3349,128 +3333,126 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="5" t="s">
-        <v>159</v>
+      <c r="J35" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B36" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>19</v>
-      </c>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
+      <c r="A37" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="F37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B38" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="F38" s="2" t="s">
-        <v>166</v>
+      <c r="F38" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>168</v>
@@ -3482,183 +3464,180 @@
         <v>169</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="7"/>
+      <c r="F39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="F39" s="5" t="s">
+      <c r="I39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" s="5" t="s">
+      <c r="K39" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="F40" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="5"/>
+      <c r="A41" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="D41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
+      <c r="F41" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B42" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="5" t="s">
         <v>183</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="5" t="s">
         <v>185</v>
       </c>
       <c r="I42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B43" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D43" s="5"/>
       <c r="F43" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="H43" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B44" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D44" s="5"/>
       <c r="F44" s="5" t="s">
         <v>194</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B45" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D45" s="5"/>
       <c r="F45" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>201</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>202</v>
@@ -3675,17 +3654,17 @@
         <v>204</v>
       </c>
       <c r="D46" s="5"/>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="10" t="s">
         <v>205</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>206</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>207</v>
@@ -3706,106 +3685,82 @@
         <v>210</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B48" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D48" s="5"/>
       <c r="F48" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>217</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>186</v>
+        <v>65</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B49" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="F49" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>223</v>
-      </c>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B51" s="6" t="n">
+      <c r="A50" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>228</v>
+      <c r="C50" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3827,20 +3782,20 @@
   <dimension ref="1:18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.4534412955466"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="2" width="9.10526315789474"/>
   </cols>
@@ -3856,7 +3811,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
@@ -3877,7 +3832,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4908,28 +4863,28 @@
     </row>
     <row r="3" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="0"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K3" s="2"/>
     </row>
@@ -5961,17 +5916,17 @@
     </row>
     <row r="5" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F5" s="0"/>
       <c r="G5" s="2"/>
@@ -5979,26 +5934,26 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="K6" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
@@ -7014,21 +6969,21 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>244</v>
+        <v>236</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>239</v>
       </c>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
       <c r="K7" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="N7" s="0"/>
       <c r="O7" s="0"/>
@@ -8044,19 +7999,19 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D8" s="11"/>
+        <v>236</v>
+      </c>
+      <c r="D8" s="15"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
       <c r="K8" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="N8" s="0"/>
       <c r="O8" s="0"/>
@@ -9072,21 +9027,21 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>250</v>
+        <v>244</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>245</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
       <c r="K9" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="N9" s="0"/>
       <c r="O9" s="0"/>
@@ -10102,157 +10057,157 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D10" s="11"/>
+        <v>244</v>
+      </c>
+      <c r="D10" s="15"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
       <c r="K10" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D11" s="11"/>
+        <v>244</v>
+      </c>
+      <c r="D11" s="15"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
       <c r="K11" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="K12" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="K13" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
       <c r="K14" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
       <c r="K15" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>268</v>
+        <v>262</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>263</v>
       </c>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
       <c r="K16" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D17" s="11"/>
+        <v>266</v>
+      </c>
+      <c r="D17" s="15"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
       <c r="K17" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
       <c r="K18" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -10276,10 +10231,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10291,9 +10246,9 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="2" width="9.10526315789474"/>
   </cols>
@@ -10330,13 +10285,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="2" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>1</v>
@@ -10345,83 +10300,83 @@
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>272</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="13"/>
+    <row r="4" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="17"/>
     </row>
     <row r="5" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>272</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="13"/>
+    <row r="6" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="17"/>
     </row>
     <row r="7" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="13" t="s">
-        <v>277</v>
+      <c r="E7" s="17" t="s">
+        <v>272</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -10430,12 +10385,12 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
@@ -10444,78 +10399,44 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
+        <v>281</v>
+      </c>
+      <c r="D9" s="0"/>
+      <c r="E9" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
-      <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B11" s="2" t="n">
+      <c r="A10" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D11" s="0"/>
-      <c r="E11" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="K12" s="2" t="s">
-        <v>290</v>
+      <c r="C10" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="K10" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/BOM.xlsx
+++ b/Doc/BOM.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="290">
   <si>
     <t xml:space="preserve">Ref.Des.</t>
   </si>
@@ -141,6 +141,18 @@
     <t xml:space="preserve">603-RC0603FR-07330RL</t>
   </si>
   <si>
+    <t xml:space="preserve">R26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603JR-078R2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603-RC0603JR-078R2L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C16, C26</t>
   </si>
   <si>
@@ -201,10 +213,16 @@
     <t xml:space="preserve">1µ</t>
   </si>
   <si>
-    <t xml:space="preserve">GRM188R61E105KA12D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81-GRM188R61E105KA12</t>
+    <t xml:space="preserve">&gt;6V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Würth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">885012106022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">710-885012106022</t>
   </si>
   <si>
     <t xml:space="preserve">C1, C2, C3, C13, C22, C25, C31, C32, C41, C42, C43, C44, C49, C50, C53, C55, C61, C62, C63</t>
@@ -213,505 +231,502 @@
     <t xml:space="preserve">100n</t>
   </si>
   <si>
+    <t xml:space="preserve">885012206071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">710-885012206071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2n4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kemet</t>
   </si>
   <si>
-    <t xml:space="preserve">C0603C104K5RACTU</t>
+    <t xml:space="preserve">C0603C242J8HACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80-C0603C242J8HACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM0335C1E220JA01D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81-GRM0335C1E220JA1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C33, C34, C52, C54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22µ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM188R60J226ME15D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81-GRM188R60J226ME5D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAL60XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coilcraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAL6030-222MEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">994-XAL6030-222MEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4µ7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAL4030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAL4030-472MEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">994-XAL4030-472MEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bourns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRN4018TA-4R7M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">652-SRN4018TA-4R7M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS160808-1R0K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">652-CS160808-1R0K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB1, FB2, FB3, FB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferrite Bead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">470R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLM31KN471SN1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81-BLM31KN471SN1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z-Diode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOD323-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON Semiconductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM3Z18VST1G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">863-MM3Z18VST1G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOD323F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM3Z24VB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512-MM3Z24VB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3,D44,D45,D46,D47,D48,D49,D50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3V6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairchild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDZ3V6ASF-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">621-DDZ3V6ASF-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5V2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOD-123-F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nexperia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZH5V1B,115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">771-NZH5V1B-115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schottky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO-221AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSSAF5M10HM3/H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78-VSSAF5M10HM3/H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS24FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512-SS24FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D40,D51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingbright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP2012EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604-AP2012EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APT2012YC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604-APT2012YC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APT2012SGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604-APT2012SGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APT2012QBC/D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604-APT2012QBC/D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-MOSFET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PowerPAK1212-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISS27DN-T1-GE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78-SISS27DN-T1-GE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alternative: SISS27ADN-T1-GE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPN-Transistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT23-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC846BLT3G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">863-BC846BLT3G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-MOSFET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIS488DN-T1-GE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78-SIS488DN-T1-GE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">better: SIS862DN-T1-GE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switching regulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFN14 4x3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richtek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT7259GQW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digikey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1028-1199-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSOP-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas Instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPS54340DDAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595-TPS54340DDAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QFN-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semtech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS30041-M033QFNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">947-TS30041-M033QFNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microcontroller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQFP-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32F401VBT6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">511-STM32F401VBT6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2xOR-Gate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSSOP-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74LVC2G32DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595-SN74LVC2G32DCUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT23-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M74VHC1G126DTT1G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">863-M74VHC1G126DTT1G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QFN-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invensense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICM-20689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">410-ICM-20689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U44,U45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motordriver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WSON-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRV8835DSSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595-DRV8835DSSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pushbutton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSM2JSMASTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">506-FSM2JSMASTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combined (preffered)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS-PRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPEG158-P5H</t>
   </si>
   <si>
     <t xml:space="preserve">RS-Components</t>
-  </si>
-  <si>
-    <t xml:space="preserve">801-5347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2n4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRM1885C1H242JA01D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">815-1474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRM0335C1E220JA01D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81-GRM0335C1E220JA1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C33, C34, C52, C54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22µ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRM188R60J226ME15D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81-GRM188R60J226ME5D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inductor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XAL60XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coilcraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XAL6030-222MEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">994-XAL6030-222MEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4µ7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XAL4030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XAL4030-472MEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">994-XAL4030-472MEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bourns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRN4018TA-4R7M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">652-SRN4018TA-4R7M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS160808-1R0K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">652-CS160808-1R0K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB1, FB2, FB3, FB4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferrite Bead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLM31KN471SN1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81-BLM31KN471SN1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z-Diode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOD323-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ON Semiconductor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM3Z18VST1G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">863-MM3Z18VST1G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOD323F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM3Z24VB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">512-MM3Z24VB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3,D44,D45,D46,D47,D48,D49,D50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3V6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fairchild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDZ3V6ASF-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">621-DDZ3V6ASF-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5V2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOD-123-F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nexperia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZH5V1B,115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">771-NZH5V1B-115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schottky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO-221AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vishay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSSAF5M10HM3/H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78-VSSAF5M10HM3/H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOD-123-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS24FL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">512-SS24FL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D40,D51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kingbright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP2012EC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">604-AP2012EC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APT2012YC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">604-APT2012YC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APT2012SGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">604-APT2012SGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APT2012QBC/D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">604-APT2012QBC/D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P-MOSFET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PowerPAK1212-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISS27DN-T1-GE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78-SISS27DN-T1-GE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alternative: SISS27ADN-T1-GE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPN-Transistor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT23-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BC846BLT3G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">863-BC846BLT3G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-MOSFET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIS488DN-T1-GE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78-SIS488DN-T1-GE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">better: SIS862DN-T1-GE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switching regulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DFN14 4x3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richtek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT7259GQW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digikey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1028-1199-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSOP-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas Instruments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPS54340DDAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">595-TPS54340DDAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QFN-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semtech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS30041-M033QFNR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">947-TS30041-M033QFNR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microcontroller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQFP-100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STM32F401VBT6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">511-STM32F401VBT6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2xOR-Gate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSSOP-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74LVC2G32DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">816-8820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buffer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT23-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M74VHC1G126DTT1G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">805-1494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QFN-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invensense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICM-20689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1428-1059-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U44,U45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motordriver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WSON-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRV8835DSSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">813-6485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pushbutton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE Connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSM2JSMASTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131-4776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">combined (preffered)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS-PRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPEG158-P5H</t>
   </si>
   <si>
     <t xml:space="preserve">771-6910</t>
@@ -887,7 +902,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -930,12 +945,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1018,26 +1027,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1070,25 +1079,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:50"/>
+  <dimension ref="1:51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J42" activeCellId="0" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="71.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="73.5910931174089"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.21457489878543"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="32.3481781376518"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2154,7 +2163,7 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2" t="n">
@@ -2172,7 +2181,7 @@
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -2185,8 +2194,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="6" t="n">
@@ -2211,7 +2220,7 @@
       <c r="I4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -2228,8 +2237,8 @@
       <c r="T4" s="0"/>
       <c r="U4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+    <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="6" t="n">
@@ -2248,13 +2257,13 @@
       <c r="G5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -2271,8 +2280,8 @@
       <c r="T5" s="0"/>
       <c r="U5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="6" t="n">
@@ -2291,13 +2300,13 @@
       <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="10" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>31</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -2314,8 +2323,8 @@
       <c r="T6" s="0"/>
       <c r="U6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="6" t="n">
@@ -2340,7 +2349,7 @@
       <c r="I7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -2357,8 +2366,8 @@
       <c r="T7" s="0"/>
       <c r="U7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+    <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="6" t="n">
@@ -2383,7 +2392,7 @@
       <c r="I8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>38</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -2400,18 +2409,38 @@
       <c r="T8" s="0"/>
       <c r="U8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+    <row r="9" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
@@ -2424,39 +2453,17 @@
       <c r="U9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>1206</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A10" s="11"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
@@ -2469,35 +2476,35 @@
       <c r="U10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="F11" s="5" t="n">
+        <v>1206</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="H11" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>19</v>
@@ -2514,35 +2521,35 @@
       <c r="U11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>19</v>
@@ -2559,26 +2566,26 @@
       <c r="U12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>57</v>
+      <c r="A13" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B13" s="6" t="n">
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>59</v>
@@ -2604,32 +2611,32 @@
       <c r="U13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="6" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>66</v>
@@ -2649,32 +2656,32 @@
       <c r="U14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>70</v>
@@ -2694,35 +2701,35 @@
       <c r="U15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>19</v>
@@ -2739,35 +2746,35 @@
       <c r="U16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>75</v>
+      <c r="A17" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>77</v>
+        <v>47</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>19</v>
@@ -2784,16 +2791,39 @@
       <c r="U17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="A18" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
@@ -2806,33 +2836,16 @@
       <c r="U18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="A19" s="11"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
@@ -2846,23 +2859,24 @@
       <c r="U19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>85</v>
+      <c r="A20" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="B20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="0"/>
+      <c r="F20" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>88</v>
@@ -2886,25 +2900,26 @@
       <c r="U20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="9" t="s">
         <v>90</v>
       </c>
       <c r="B21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>86</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E21" s="0"/>
       <c r="F21" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>93</v>
       </c>
       <c r="I21" s="5" t="s">
@@ -2925,37 +2940,36 @@
       <c r="T21" s="0"/>
       <c r="U21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
         <v>95</v>
       </c>
       <c r="B22" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E22" s="0"/>
       <c r="F22" s="5" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="K22" s="7"/>
       <c r="L22" s="0"/>
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
@@ -2967,16 +2981,38 @@
       <c r="T22" s="0"/>
       <c r="U22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+    <row r="23" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="0"/>
+      <c r="F23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L23" s="0"/>
       <c r="M23" s="0"/>
       <c r="N23" s="0"/>
@@ -2988,40 +3024,18 @@
       <c r="T23" s="0"/>
       <c r="U23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>19</v>
-      </c>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="0"/>
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -3033,17 +3047,40 @@
       <c r="T24" s="0"/>
       <c r="U24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="7"/>
+    <row r="25" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -3056,36 +3093,16 @@
       <c r="U25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A26" s="9"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -3098,161 +3115,171 @@
       <c r="U26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="F27" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="5" t="s">
         <v>116</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="T27" s="0"/>
+      <c r="U27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="B28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="2" t="s">
         <v>121</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="B29" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="F30" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="G30" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="H30" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="I30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>135</v>
+      <c r="A31" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="B31" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>138</v>
@@ -3267,56 +3294,56 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
         <v>140</v>
       </c>
       <c r="B32" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="F32" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
+    <row r="33" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>149</v>
@@ -3332,23 +3359,23 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B34" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>152</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>153</v>
@@ -3363,403 +3390,445 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
         <v>155</v>
       </c>
       <c r="B35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>156</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H35" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>157</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="5" t="s">
         <v>158</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
+    <row r="36" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="F37" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="A37" s="11"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
-        <v>165</v>
+      <c r="A38" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="B38" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="F38" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="F38" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="5"/>
+      <c r="F39" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="F39" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H39" s="8" t="s">
+      <c r="G39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="5" t="s">
         <v>173</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
+      <c r="A40" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="F40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B41" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="A41" s="9"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="F41" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="s">
-        <v>182</v>
+      <c r="A42" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="B42" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H42" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="I42" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="J42" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="I42" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>186</v>
-      </c>
+      <c r="K42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="s">
-        <v>187</v>
+      <c r="A43" s="9" t="s">
+        <v>186</v>
       </c>
       <c r="B43" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D43" s="5"/>
       <c r="F43" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="H43" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>190</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>191</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="K43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="s">
-        <v>192</v>
+      <c r="A44" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="B44" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D44" s="5"/>
       <c r="F44" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>197</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="K44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="s">
-        <v>198</v>
+      <c r="A45" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="B45" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D45" s="5"/>
       <c r="F45" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H45" s="5" t="s">
+      <c r="I45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>202</v>
-      </c>
+      <c r="K45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="s">
-        <v>203</v>
+      <c r="A46" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="B46" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="F46" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="F46" s="10" t="s">
+      <c r="G46" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H46" s="5" t="s">
+      <c r="I46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>207</v>
-      </c>
+      <c r="K46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="s">
-        <v>208</v>
+      <c r="A47" s="9" t="s">
+        <v>207</v>
       </c>
       <c r="B47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D47" s="5"/>
       <c r="F47" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="I47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="H47" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="K47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="s">
-        <v>214</v>
+      <c r="A48" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="B48" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D48" s="5"/>
       <c r="F48" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="H48" s="5" t="s">
+      <c r="I48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="K48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
+      <c r="A49" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="F49" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="K49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B50" s="6" t="n">
+      <c r="A50" s="11"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="K50" s="14" t="s">
+      <c r="C51" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3782,20 +3851,20 @@
   <dimension ref="1:18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="2" width="9.10526315789474"/>
   </cols>
@@ -3811,7 +3880,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
@@ -3832,7 +3901,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4862,29 +4931,29 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>226</v>
+      <c r="A3" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="0"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>65</v>
+        <v>234</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K3" s="2"/>
     </row>
@@ -5916,17 +5985,17 @@
     </row>
     <row r="5" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F5" s="0"/>
       <c r="G5" s="2"/>
@@ -5934,26 +6003,26 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="K6" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
@@ -6969,21 +7038,21 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
       <c r="K7" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="N7" s="0"/>
       <c r="O7" s="0"/>
@@ -7999,19 +8068,19 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
       <c r="K8" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="N8" s="0"/>
       <c r="O8" s="0"/>
@@ -9027,21 +9096,21 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
       <c r="K9" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="N9" s="0"/>
       <c r="O9" s="0"/>
@@ -10057,157 +10126,157 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
       <c r="K10" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
       <c r="K11" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="K12" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="K13" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
       <c r="K14" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
       <c r="K15" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
       <c r="K16" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
       <c r="K17" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
       <c r="K18" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -10234,7 +10303,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10246,9 +10315,9 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="2" width="9.10526315789474"/>
   </cols>
@@ -10285,13 +10354,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>1</v>
@@ -10300,25 +10369,25 @@
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K3" s="5"/>
     </row>
@@ -10327,34 +10396,34 @@
     </row>
     <row r="5" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K5" s="5"/>
     </row>
@@ -10363,20 +10432,20 @@
     </row>
     <row r="7" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="17" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -10399,17 +10468,17 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="17" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="1"/>
@@ -10417,26 +10486,26 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F10" s="17"/>
       <c r="K10" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
